--- a/data_raw/ids_questionnaire.xlsx
+++ b/data_raw/ids_questionnaire.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="17"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="GEN" sheetId="1" state="visible" r:id="rId2"/>
@@ -1476,7 +1476,7 @@
     <t xml:space="preserve">TTOI_0004_I_0001_1</t>
   </si>
   <si>
-    <t xml:space="preserve">Wenn ich weiß, dass ich eine Aufgabe nicht gut machen kann, mache ich sie eher nicht. Auch wenn ich vielleicht dabei viel lernen würde.</t>
+    <t xml:space="preserve">Wenn ich weiß, dass ich eine Aufgabe nicht gut machen kann, mache ich sie eher nicht, auch wenn ich vielleicht dabei viel lernen würde.</t>
   </si>
   <si>
     <t xml:space="preserve">If I knew I wasn't going to do well at a task, I probably wouldn't do it even if I might learn a lot from it.</t>
@@ -3181,7 +3181,7 @@
     <t xml:space="preserve">TPAC_0002_I_0001_1</t>
   </si>
   <si>
-    <t xml:space="preserve">Wie oft warst du während der letzten drei Monaten aktiv beim Sportunterricht dabei (viel mitgespielt, gelaufen, gesprungen, geworfen)?</t>
+    <t xml:space="preserve">Wie oft warst du während der letzten drei Monate aktiv beim Sportunterricht dabei (viel mitgespielt, gelaufen, gesprungen, geworfen)?</t>
   </si>
   <si>
     <t xml:space="preserve">In the last three months during your physical education (PE) classes, how often were you very active (playing hard, running, jumping, throwing)? </t>
@@ -4231,7 +4231,7 @@
     <t xml:space="preserve">TSEM_0022_I_0001_1</t>
   </si>
   <si>
-    <t xml:space="preserve">Wie oft versuchst du, was du gelernt hast mit anderen Dingen, die du kennst, zu verknüpfen?</t>
+    <t xml:space="preserve">Wie oft versuchst du, was du gelernt hast, mit anderen Dingen, die du kennst, zu verknüpfen?</t>
   </si>
   <si>
     <t xml:space="preserve">How often do you try to relate what you are studying to other things you know about?</t>
@@ -4531,7 +4531,7 @@
     <t xml:space="preserve">TSES_0007_I_0001_1</t>
   </si>
   <si>
-    <t xml:space="preserve">Bitte kreuze nun an, welche Beschreibung am besten auf den Beruf der Person zutrifft. Arbeit die Person im Moment nicht, dann denke an die letzte Arbeitsstelle. </t>
+    <t xml:space="preserve">Bitte kreuze nun an, welche Beschreibung am besten auf den Beruf der Person zutrifft. Arbeitet die Person im Moment nicht, dann denke an die letzte Arbeitsstelle. </t>
   </si>
   <si>
     <t xml:space="preserve">Please tick one box only to best describe the work the main earner does. If the main earner is not currently working, please tick the box that best describes what his/her last job was.</t>
@@ -5331,7 +5331,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="28">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -5421,10 +5421,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -7940,14 +7936,14 @@
   </sheetPr>
   <dimension ref="A1:E27"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B8" activeCellId="0" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.609375" defaultRowHeight="15.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.6015625" defaultRowHeight="15.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="24.51"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="96.92"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="24.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="96.93"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="50.58"/>
   </cols>
   <sheetData>
@@ -7968,7 +7964,7 @@
       <c r="A2" s="1" t="s">
         <v>935</v>
       </c>
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="24" t="s">
         <v>936</v>
       </c>
       <c r="C2" s="1" t="s">
@@ -8271,14 +8267,14 @@
   </sheetPr>
   <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B14" activeCellId="0" sqref="B14"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.609375" defaultRowHeight="15.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.6015625" defaultRowHeight="15.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.41"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="61.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="61.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="71"/>
   </cols>
   <sheetData>
@@ -8672,9 +8668,9 @@
       <selection pane="topLeft" activeCell="C52" activeCellId="0" sqref="C52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.609375" defaultRowHeight="15.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.6015625" defaultRowHeight="15.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.4"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="64.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="47.59"/>
   </cols>
@@ -9114,7 +9110,7 @@
       <c r="A40" s="0" t="s">
         <v>1138</v>
       </c>
-      <c r="B40" s="26" t="s">
+      <c r="B40" s="25" t="s">
         <v>1139</v>
       </c>
       <c r="C40" s="0" t="s">
@@ -9286,7 +9282,7 @@
       <selection pane="topLeft" activeCell="C17" activeCellId="0" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.609375" defaultRowHeight="15.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.6015625" defaultRowHeight="15.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="19.92"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="66.41"/>
@@ -9901,12 +9897,12 @@
   <dimension ref="A1:E49"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C49" activeCellId="0" sqref="C49"/>
+      <selection pane="topLeft" activeCell="B44" activeCellId="0" sqref="B44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.609375" defaultRowHeight="15.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.6015625" defaultRowHeight="15.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.4"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="45.08"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="43.08"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="32.58"/>
@@ -10207,7 +10203,7 @@
       <c r="A27" s="0" t="s">
         <v>1326</v>
       </c>
-      <c r="B27" s="25" t="s">
+      <c r="B27" s="24" t="s">
         <v>1327</v>
       </c>
       <c r="C27" s="0" t="s">
@@ -10478,7 +10474,7 @@
       <selection pane="topLeft" activeCell="C25" activeCellId="0" sqref="C25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.609375" defaultRowHeight="15.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.6015625" defaultRowHeight="15.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="21.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="70"/>
@@ -10839,10 +10835,10 @@
   <dimension ref="A1:E32"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B26" activeCellId="0" sqref="B26"/>
+      <selection pane="topLeft" activeCell="B17" activeCellId="0" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.609375" defaultRowHeight="15.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.6015625" defaultRowHeight="15.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="6.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="125.58"/>
@@ -11150,7 +11146,7 @@
       <c r="C30" s="4"/>
     </row>
     <row r="31" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B31" s="27"/>
+      <c r="B31" s="26"/>
       <c r="C31" s="4"/>
     </row>
     <row r="32" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11178,9 +11174,9 @@
       <selection pane="topLeft" activeCell="C21" activeCellId="0" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.609375" defaultRowHeight="15.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.6015625" defaultRowHeight="15.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="52.92"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="52.93"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="67.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="12" width="57.41"/>
   </cols>
@@ -11205,7 +11201,7 @@
       <c r="B2" s="1" t="s">
         <v>1489</v>
       </c>
-      <c r="C2" s="28" t="s">
+      <c r="C2" s="27" t="s">
         <v>1490</v>
       </c>
       <c r="E2" s="8" t="s">
@@ -11219,7 +11215,7 @@
       <c r="B3" s="1" t="s">
         <v>1492</v>
       </c>
-      <c r="C3" s="28" t="s">
+      <c r="C3" s="27" t="s">
         <v>1493</v>
       </c>
     </row>
@@ -11241,7 +11237,7 @@
       <c r="B5" s="8" t="s">
         <v>1496</v>
       </c>
-      <c r="C5" s="28" t="s">
+      <c r="C5" s="27" t="s">
         <v>1497</v>
       </c>
     </row>
@@ -11263,7 +11259,7 @@
       <c r="B7" s="1" t="s">
         <v>1500</v>
       </c>
-      <c r="C7" s="28" t="s">
+      <c r="C7" s="27" t="s">
         <v>1501</v>
       </c>
     </row>
@@ -11285,7 +11281,7 @@
       <c r="B9" s="1" t="s">
         <v>1504</v>
       </c>
-      <c r="C9" s="28" t="s">
+      <c r="C9" s="27" t="s">
         <v>1505</v>
       </c>
     </row>
@@ -11307,7 +11303,7 @@
       <c r="B11" s="1" t="s">
         <v>1508</v>
       </c>
-      <c r="C11" s="28" t="s">
+      <c r="C11" s="27" t="s">
         <v>1509</v>
       </c>
     </row>
@@ -11329,7 +11325,7 @@
       <c r="B13" s="1" t="s">
         <v>1512</v>
       </c>
-      <c r="C13" s="28" t="s">
+      <c r="C13" s="27" t="s">
         <v>1513</v>
       </c>
     </row>
@@ -11351,7 +11347,7 @@
       <c r="B15" s="1" t="s">
         <v>1516</v>
       </c>
-      <c r="C15" s="28" t="s">
+      <c r="C15" s="27" t="s">
         <v>1517</v>
       </c>
     </row>
@@ -11373,7 +11369,7 @@
       <c r="B17" s="1" t="s">
         <v>1520</v>
       </c>
-      <c r="C17" s="28" t="s">
+      <c r="C17" s="27" t="s">
         <v>1521</v>
       </c>
     </row>
@@ -11395,7 +11391,7 @@
       <c r="B19" s="1" t="s">
         <v>1524</v>
       </c>
-      <c r="C19" s="28" t="s">
+      <c r="C19" s="27" t="s">
         <v>1525</v>
       </c>
     </row>
@@ -11417,7 +11413,7 @@
       <c r="B21" s="1" t="s">
         <v>1528</v>
       </c>
-      <c r="C21" s="28" t="s">
+      <c r="C21" s="27" t="s">
         <v>1529</v>
       </c>
     </row>
@@ -11461,11 +11457,11 @@
   </sheetPr>
   <dimension ref="A1:D63"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A45" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A45" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C63" activeCellId="0" sqref="C63"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.609375" defaultRowHeight="15.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.6015625" defaultRowHeight="15.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="26.58"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="48.5"/>
@@ -12226,7 +12222,7 @@
       <selection pane="topLeft" activeCell="C19" activeCellId="0" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.609375" defaultRowHeight="15.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.6015625" defaultRowHeight="15.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="34.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="31.5"/>
@@ -12463,7 +12459,7 @@
       <selection pane="topLeft" activeCell="C24" activeCellId="0" sqref="C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.609375" defaultRowHeight="15.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.6015625" defaultRowHeight="15.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="58.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="72.42"/>
@@ -12656,7 +12652,7 @@
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.609375" defaultRowHeight="15.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.6015625" defaultRowHeight="15.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="21"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="89.58"/>
@@ -13057,9 +13053,9 @@
       <selection pane="topLeft" activeCell="C33" activeCellId="0" sqref="C33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.609375" defaultRowHeight="15.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.6015625" defaultRowHeight="15.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="24.92"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="24.93"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="98.58"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="39.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="12" width="47.92"/>
@@ -13543,11 +13539,11 @@
   </sheetPr>
   <dimension ref="A1:E53"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C21" activeCellId="0" sqref="C21"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.609375" defaultRowHeight="15.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.6015625" defaultRowHeight="15.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="105.09"/>
@@ -13880,7 +13876,7 @@
       <selection pane="topLeft" activeCell="C29" activeCellId="0" sqref="C29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.609375" defaultRowHeight="15.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.6015625" defaultRowHeight="15.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="22.92"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="55.08"/>
@@ -14211,7 +14207,7 @@
       <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.609375" defaultRowHeight="15.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.6015625" defaultRowHeight="15.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.41"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="60"/>
@@ -14540,11 +14536,11 @@
       <selection pane="topLeft" activeCell="C124" activeCellId="0" sqref="C124"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.609375" defaultRowHeight="15.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.6015625" defaultRowHeight="15.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="25.08"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="50.58"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="36.16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="36.15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="35.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="22.92"/>
   </cols>
@@ -14834,7 +14830,7 @@
       <c r="B24" s="4" t="s">
         <v>653</v>
       </c>
-      <c r="C24" s="23" t="s">
+      <c r="C24" s="4" t="s">
         <v>654</v>
       </c>
     </row>
@@ -14858,7 +14854,7 @@
       <c r="B26" s="4" t="s">
         <v>657</v>
       </c>
-      <c r="C26" s="23" t="s">
+      <c r="C26" s="4" t="s">
         <v>658</v>
       </c>
     </row>
@@ -14882,7 +14878,7 @@
       <c r="B28" s="4" t="s">
         <v>661</v>
       </c>
-      <c r="C28" s="23" t="s">
+      <c r="C28" s="4" t="s">
         <v>662</v>
       </c>
     </row>
@@ -14906,7 +14902,7 @@
       <c r="B30" s="4" t="s">
         <v>665</v>
       </c>
-      <c r="C30" s="23" t="s">
+      <c r="C30" s="4" t="s">
         <v>666</v>
       </c>
       <c r="D30" s="4" t="s">
@@ -15005,7 +15001,7 @@
       <c r="B38" s="4" t="s">
         <v>680</v>
       </c>
-      <c r="C38" s="23" t="s">
+      <c r="C38" s="4" t="s">
         <v>681</v>
       </c>
     </row>
@@ -15029,7 +15025,7 @@
       <c r="B40" s="4" t="s">
         <v>684</v>
       </c>
-      <c r="C40" s="23" t="s">
+      <c r="C40" s="4" t="s">
         <v>685</v>
       </c>
     </row>
@@ -15053,7 +15049,7 @@
       <c r="B42" s="4" t="s">
         <v>688</v>
       </c>
-      <c r="C42" s="23" t="s">
+      <c r="C42" s="4" t="s">
         <v>689</v>
       </c>
     </row>
@@ -15077,7 +15073,7 @@
       <c r="B44" s="6" t="s">
         <v>692</v>
       </c>
-      <c r="C44" s="23" t="s">
+      <c r="C44" s="4" t="s">
         <v>693</v>
       </c>
     </row>
@@ -15101,7 +15097,7 @@
       <c r="B46" s="4" t="s">
         <v>696</v>
       </c>
-      <c r="C46" s="23" t="s">
+      <c r="C46" s="4" t="s">
         <v>697</v>
       </c>
       <c r="D46" s="4" t="s">
@@ -15200,7 +15196,7 @@
       <c r="B54" s="4" t="s">
         <v>711</v>
       </c>
-      <c r="C54" s="23" t="s">
+      <c r="C54" s="4" t="s">
         <v>712</v>
       </c>
       <c r="D54" s="4" t="s">
@@ -16547,7 +16543,7 @@
       <c r="A163" s="4" t="s">
         <v>928</v>
       </c>
-      <c r="B163" s="24" t="s">
+      <c r="B163" s="23" t="s">
         <v>129</v>
       </c>
       <c r="C163" s="1" t="s">

--- a/data_raw/ids_questionnaire.xlsx
+++ b/data_raw/ids_questionnaire.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="GEN" sheetId="1" r:id="rId1"/>
@@ -2805,9 +2805,6 @@
     <t>TGMS_0035_I_0001_1</t>
   </si>
   <si>
-    <t xml:space="preserve">Ich würde mich selbst nicht als Musiker/-in bezeichnen. </t>
-  </si>
-  <si>
     <t>I would not consider myself a musician.</t>
   </si>
   <si>
@@ -5119,6 +5116,9 @@
   </si>
   <si>
     <t>Man braucht eine bestimmte „Begabung“, um gut in Musik zu sein.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ich würde mich selbst nicht als MusikerIn bezeichnen. </t>
   </si>
 </sst>
 </file>
@@ -8115,13 +8115,13 @@
     </row>
     <row r="2" spans="1:5" s="1" customFormat="1">
       <c r="A2" s="1" t="s">
+        <v>933</v>
+      </c>
+      <c r="B2" s="24" t="s">
         <v>934</v>
       </c>
-      <c r="B2" s="24" t="s">
+      <c r="C2" s="1" t="s">
         <v>935</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>936</v>
       </c>
       <c r="D2" s="8" t="s">
         <v>490</v>
@@ -8129,150 +8129,150 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
+        <v>936</v>
+      </c>
+      <c r="B3" t="s">
         <v>937</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>938</v>
-      </c>
-      <c r="C3" t="s">
-        <v>939</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
+        <v>939</v>
+      </c>
+      <c r="B4" t="s">
         <v>940</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>941</v>
-      </c>
-      <c r="C4" t="s">
-        <v>942</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="1" t="s">
+        <v>942</v>
+      </c>
+      <c r="B5" t="s">
         <v>943</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>944</v>
-      </c>
-      <c r="C5" t="s">
-        <v>945</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="1" t="s">
+        <v>945</v>
+      </c>
+      <c r="B6" t="s">
         <v>946</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>947</v>
-      </c>
-      <c r="C6" t="s">
-        <v>948</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="1" t="s">
+        <v>948</v>
+      </c>
+      <c r="B7" t="s">
         <v>949</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>950</v>
-      </c>
-      <c r="C7" t="s">
-        <v>951</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="1" t="s">
+        <v>951</v>
+      </c>
+      <c r="B8" t="s">
         <v>952</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>953</v>
-      </c>
-      <c r="C8" t="s">
-        <v>954</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="1" t="s">
+        <v>954</v>
+      </c>
+      <c r="B9" t="s">
         <v>955</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>956</v>
-      </c>
-      <c r="C9" t="s">
-        <v>957</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="1" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="B10" t="s">
+        <v>940</v>
+      </c>
+      <c r="C10" t="s">
         <v>941</v>
-      </c>
-      <c r="C10" t="s">
-        <v>942</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="1" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="B11" t="s">
+        <v>943</v>
+      </c>
+      <c r="C11" t="s">
         <v>944</v>
-      </c>
-      <c r="C11" t="s">
-        <v>945</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="1" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="B12" t="s">
+        <v>946</v>
+      </c>
+      <c r="C12" t="s">
         <v>947</v>
-      </c>
-      <c r="C12" t="s">
-        <v>948</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="1" t="s">
+        <v>960</v>
+      </c>
+      <c r="B13" t="s">
         <v>961</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C13" t="s">
         <v>962</v>
-      </c>
-      <c r="C13" t="s">
-        <v>963</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="1" t="s">
+        <v>963</v>
+      </c>
+      <c r="B14" t="s">
         <v>964</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C14" t="s">
         <v>965</v>
-      </c>
-      <c r="C14" t="s">
-        <v>966</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="1" t="s">
+        <v>966</v>
+      </c>
+      <c r="B15" t="s">
         <v>967</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C15" t="s">
         <v>968</v>
-      </c>
-      <c r="C15" t="s">
-        <v>969</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="1" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="B16" t="s">
         <v>50</v>
@@ -8283,123 +8283,123 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="1" t="s">
+        <v>970</v>
+      </c>
+      <c r="B17" t="s">
         <v>971</v>
       </c>
-      <c r="B17" t="s">
+      <c r="C17" t="s">
         <v>972</v>
-      </c>
-      <c r="C17" t="s">
-        <v>973</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="1" t="s">
+        <v>973</v>
+      </c>
+      <c r="B18" t="s">
         <v>974</v>
       </c>
-      <c r="B18" t="s">
+      <c r="C18" t="s">
         <v>975</v>
-      </c>
-      <c r="C18" t="s">
-        <v>976</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="1" t="s">
+        <v>976</v>
+      </c>
+      <c r="B19" t="s">
         <v>977</v>
       </c>
-      <c r="B19" t="s">
+      <c r="C19" t="s">
         <v>978</v>
-      </c>
-      <c r="C19" t="s">
-        <v>979</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="1" t="s">
+        <v>979</v>
+      </c>
+      <c r="B20" t="s">
         <v>980</v>
       </c>
-      <c r="B20" t="s">
+      <c r="C20" t="s">
         <v>981</v>
-      </c>
-      <c r="C20" t="s">
-        <v>982</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="1" t="s">
+        <v>982</v>
+      </c>
+      <c r="B21" t="s">
         <v>983</v>
       </c>
-      <c r="B21" t="s">
+      <c r="C21" t="s">
         <v>984</v>
-      </c>
-      <c r="C21" t="s">
-        <v>985</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="1" t="s">
+        <v>985</v>
+      </c>
+      <c r="B22" t="s">
         <v>986</v>
       </c>
-      <c r="B22" t="s">
+      <c r="C22" t="s">
         <v>987</v>
-      </c>
-      <c r="C22" t="s">
-        <v>988</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="1" t="s">
+        <v>988</v>
+      </c>
+      <c r="B23" t="s">
         <v>989</v>
       </c>
-      <c r="B23" t="s">
+      <c r="C23" t="s">
         <v>990</v>
-      </c>
-      <c r="C23" t="s">
-        <v>991</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="1" t="s">
+        <v>991</v>
+      </c>
+      <c r="B24" t="s">
         <v>992</v>
       </c>
-      <c r="B24" t="s">
+      <c r="C24" t="s">
         <v>993</v>
-      </c>
-      <c r="C24" t="s">
-        <v>994</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="1" t="s">
+        <v>994</v>
+      </c>
+      <c r="B25" t="s">
         <v>995</v>
       </c>
-      <c r="B25" t="s">
+      <c r="C25" t="s">
         <v>996</v>
-      </c>
-      <c r="C25" t="s">
-        <v>997</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="1" t="s">
+        <v>997</v>
+      </c>
+      <c r="B26" t="s">
         <v>998</v>
       </c>
-      <c r="B26" t="s">
+      <c r="C26" t="s">
         <v>999</v>
-      </c>
-      <c r="C26" t="s">
-        <v>1000</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="1" t="s">
+        <v>1000</v>
+      </c>
+      <c r="B27" s="4" t="s">
         <v>1001</v>
       </c>
-      <c r="B27" s="4" t="s">
+      <c r="C27" s="4" t="s">
         <v>1002</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>1003</v>
       </c>
     </row>
   </sheetData>
@@ -8438,13 +8438,13 @@
     </row>
     <row r="2" spans="1:5" s="1" customFormat="1">
       <c r="A2" s="1" t="s">
+        <v>1003</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>1004</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>1005</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>1006</v>
       </c>
       <c r="D2" s="8" t="s">
         <v>490</v>
@@ -8452,40 +8452,40 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
+        <v>1006</v>
+      </c>
+      <c r="B3" s="8" t="s">
         <v>1007</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="C3" t="s">
         <v>1008</v>
-      </c>
-      <c r="C3" t="s">
-        <v>1009</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
+        <v>1009</v>
+      </c>
+      <c r="B4" s="8" t="s">
         <v>1010</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="C4" t="s">
         <v>1011</v>
-      </c>
-      <c r="C4" t="s">
-        <v>1012</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="B5" t="s">
         <v>52</v>
       </c>
       <c r="C5" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="B6" t="s">
         <v>54</v>
@@ -8496,172 +8496,172 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="B7" t="s">
         <v>56</v>
       </c>
       <c r="C7" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="B8" t="s">
         <v>174</v>
       </c>
       <c r="C8" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="1" t="s">
+        <v>1019</v>
+      </c>
+      <c r="B9" t="s">
         <v>1020</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>1021</v>
-      </c>
-      <c r="C9" t="s">
-        <v>1022</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="B10" t="s">
         <v>50</v>
       </c>
       <c r="C10" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="B11" t="s">
+        <v>943</v>
+      </c>
+      <c r="C11" t="s">
         <v>944</v>
-      </c>
-      <c r="C11" t="s">
-        <v>945</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="B12" t="s">
+        <v>946</v>
+      </c>
+      <c r="C12" t="s">
         <v>947</v>
-      </c>
-      <c r="C12" t="s">
-        <v>948</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="B13" t="s">
+        <v>949</v>
+      </c>
+      <c r="C13" t="s">
         <v>950</v>
-      </c>
-      <c r="C13" t="s">
-        <v>951</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="B14" t="s">
+        <v>952</v>
+      </c>
+      <c r="C14" t="s">
         <v>953</v>
-      </c>
-      <c r="C14" t="s">
-        <v>954</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="1" t="s">
+        <v>1027</v>
+      </c>
+      <c r="B15" t="s">
         <v>1028</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C15" t="s">
         <v>1029</v>
-      </c>
-      <c r="C15" t="s">
-        <v>1030</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="B16" t="s">
         <v>50</v>
       </c>
       <c r="C16" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="B17" t="s">
+        <v>943</v>
+      </c>
+      <c r="C17" t="s">
         <v>944</v>
-      </c>
-      <c r="C17" t="s">
-        <v>945</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="B18" t="s">
+        <v>946</v>
+      </c>
+      <c r="C18" t="s">
         <v>947</v>
-      </c>
-      <c r="C18" t="s">
-        <v>948</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="B19" t="s">
+        <v>961</v>
+      </c>
+      <c r="C19" t="s">
         <v>962</v>
-      </c>
-      <c r="C19" t="s">
-        <v>963</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="B20" t="s">
+        <v>964</v>
+      </c>
+      <c r="C20" t="s">
         <v>965</v>
-      </c>
-      <c r="C20" t="s">
-        <v>966</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="1" t="s">
+        <v>1035</v>
+      </c>
+      <c r="B21" t="s">
         <v>1036</v>
       </c>
-      <c r="B21" t="s">
+      <c r="C21" t="s">
         <v>1037</v>
-      </c>
-      <c r="C21" t="s">
-        <v>1038</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="B22" t="s">
         <v>50</v>
@@ -8672,123 +8672,123 @@
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
+        <v>1039</v>
+      </c>
+      <c r="B23" t="s">
         <v>1040</v>
       </c>
-      <c r="B23" t="s">
-        <v>1041</v>
-      </c>
       <c r="C23" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="B24" t="s">
+        <v>974</v>
+      </c>
+      <c r="C24" t="s">
         <v>975</v>
-      </c>
-      <c r="C24" t="s">
-        <v>976</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="B25" t="s">
+        <v>977</v>
+      </c>
+      <c r="C25" t="s">
         <v>978</v>
-      </c>
-      <c r="C25" t="s">
-        <v>979</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="B26" t="s">
+        <v>980</v>
+      </c>
+      <c r="C26" t="s">
         <v>981</v>
-      </c>
-      <c r="C26" t="s">
-        <v>982</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="1" t="s">
+        <v>1044</v>
+      </c>
+      <c r="B27" t="s">
         <v>1045</v>
       </c>
-      <c r="B27" t="s">
+      <c r="C27" t="s">
         <v>1046</v>
-      </c>
-      <c r="C27" t="s">
-        <v>1047</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="B28" t="s">
         <v>50</v>
       </c>
       <c r="C28" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="B29" t="s">
+        <v>989</v>
+      </c>
+      <c r="C29" t="s">
         <v>990</v>
-      </c>
-      <c r="C29" t="s">
-        <v>991</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
+        <v>1049</v>
+      </c>
+      <c r="B30" t="s">
         <v>1050</v>
       </c>
-      <c r="B30" t="s">
-        <v>1051</v>
-      </c>
       <c r="C30" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="B31" t="s">
+        <v>995</v>
+      </c>
+      <c r="C31" t="s">
         <v>996</v>
-      </c>
-      <c r="C31" t="s">
-        <v>997</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
+        <v>1052</v>
+      </c>
+      <c r="B32" t="s">
         <v>1053</v>
       </c>
-      <c r="B32" t="s">
-        <v>1054</v>
-      </c>
       <c r="C32" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="1" t="s">
+        <v>1054</v>
+      </c>
+      <c r="B33" s="4" t="s">
         <v>1055</v>
       </c>
-      <c r="B33" s="4" t="s">
+      <c r="C33" s="4" t="s">
         <v>1056</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>1057</v>
       </c>
     </row>
   </sheetData>
@@ -8827,574 +8827,574 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="12" t="s">
+        <v>1057</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>1058</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="C2" s="4" t="s">
         <v>1059</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>1060</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
+        <v>1060</v>
+      </c>
+      <c r="B3" t="s">
         <v>1061</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>1062</v>
-      </c>
-      <c r="C3" t="s">
-        <v>1063</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="15" customHeight="1">
       <c r="A4" t="s">
+        <v>1063</v>
+      </c>
+      <c r="B4" s="8" t="s">
         <v>1064</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="C4" s="4" t="s">
         <v>1065</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>1066</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="15" customHeight="1">
       <c r="A5" t="s">
+        <v>1066</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>1067</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>1068</v>
-      </c>
       <c r="C5" s="4" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" t="s">
+        <v>1068</v>
+      </c>
+      <c r="B6" s="8" t="s">
         <v>1069</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="C6" t="s">
         <v>1070</v>
-      </c>
-      <c r="C6" t="s">
-        <v>1071</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" t="s">
+        <v>1072</v>
+      </c>
+      <c r="B8" s="8" t="s">
         <v>1073</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="C8" t="s">
         <v>1074</v>
-      </c>
-      <c r="C8" t="s">
-        <v>1075</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" t="s">
+        <v>1076</v>
+      </c>
+      <c r="B10" s="8" t="s">
         <v>1077</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="C10" t="s">
         <v>1078</v>
-      </c>
-      <c r="C10" t="s">
-        <v>1079</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" t="s">
+        <v>1080</v>
+      </c>
+      <c r="B12" s="8" t="s">
         <v>1081</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="C12" t="s">
         <v>1082</v>
-      </c>
-      <c r="C12" t="s">
-        <v>1083</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" t="s">
+        <v>1084</v>
+      </c>
+      <c r="B14" s="8" t="s">
         <v>1085</v>
       </c>
-      <c r="B14" s="8" t="s">
+      <c r="C14" t="s">
         <v>1086</v>
-      </c>
-      <c r="C14" t="s">
-        <v>1087</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B16" s="8" t="s">
         <v>1089</v>
       </c>
-      <c r="B16" s="8" t="s">
+      <c r="C16" t="s">
         <v>1090</v>
-      </c>
-      <c r="C16" t="s">
-        <v>1091</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
+        <v>1092</v>
+      </c>
+      <c r="B18" s="8" t="s">
         <v>1093</v>
       </c>
-      <c r="B18" s="8" t="s">
+      <c r="C18" t="s">
         <v>1094</v>
-      </c>
-      <c r="C18" t="s">
-        <v>1095</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
+        <v>1096</v>
+      </c>
+      <c r="B20" s="8" t="s">
         <v>1097</v>
       </c>
-      <c r="B20" s="8" t="s">
+      <c r="C20" t="s">
         <v>1098</v>
-      </c>
-      <c r="C20" t="s">
-        <v>1099</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
+        <v>1100</v>
+      </c>
+      <c r="B22" s="8" t="s">
         <v>1101</v>
       </c>
-      <c r="B22" s="8" t="s">
+      <c r="C22" t="s">
         <v>1102</v>
-      </c>
-      <c r="C22" t="s">
-        <v>1103</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
+        <v>1104</v>
+      </c>
+      <c r="B24" s="8" t="s">
         <v>1105</v>
       </c>
-      <c r="B24" s="8" t="s">
+      <c r="C24" t="s">
         <v>1106</v>
-      </c>
-      <c r="C24" t="s">
-        <v>1107</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
+        <v>1108</v>
+      </c>
+      <c r="B26" s="8" t="s">
         <v>1109</v>
       </c>
-      <c r="B26" s="8" t="s">
+      <c r="C26" t="s">
         <v>1110</v>
-      </c>
-      <c r="C26" t="s">
-        <v>1111</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
+        <v>1112</v>
+      </c>
+      <c r="B28" s="8" t="s">
         <v>1113</v>
       </c>
-      <c r="B28" s="8" t="s">
+      <c r="C28" t="s">
         <v>1114</v>
-      </c>
-      <c r="C28" t="s">
-        <v>1115</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
+        <v>1116</v>
+      </c>
+      <c r="B30" s="8" t="s">
         <v>1117</v>
       </c>
-      <c r="B30" s="8" t="s">
+      <c r="C30" t="s">
         <v>1118</v>
-      </c>
-      <c r="C30" t="s">
-        <v>1119</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
+        <v>1120</v>
+      </c>
+      <c r="B32" s="8" t="s">
         <v>1121</v>
       </c>
-      <c r="B32" s="8" t="s">
+      <c r="C32" t="s">
         <v>1122</v>
-      </c>
-      <c r="C32" t="s">
-        <v>1123</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" t="s">
+        <v>1124</v>
+      </c>
+      <c r="B34" s="8" t="s">
         <v>1125</v>
       </c>
-      <c r="B34" s="8" t="s">
+      <c r="C34" t="s">
         <v>1126</v>
-      </c>
-      <c r="C34" t="s">
-        <v>1127</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" t="s">
+        <v>1128</v>
+      </c>
+      <c r="B36" s="8" t="s">
         <v>1129</v>
       </c>
-      <c r="B36" s="8" t="s">
+      <c r="C36" t="s">
         <v>1130</v>
-      </c>
-      <c r="C36" t="s">
-        <v>1131</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" t="s">
+        <v>1132</v>
+      </c>
+      <c r="B38" s="8" t="s">
         <v>1133</v>
       </c>
-      <c r="B38" s="8" t="s">
+      <c r="C38" t="s">
         <v>1134</v>
-      </c>
-      <c r="C38" t="s">
-        <v>1135</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" t="s">
+        <v>1136</v>
+      </c>
+      <c r="B40" s="25" t="s">
         <v>1137</v>
       </c>
-      <c r="B40" s="25" t="s">
+      <c r="C40" t="s">
         <v>1138</v>
-      </c>
-      <c r="C40" t="s">
-        <v>1139</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" t="s">
+        <v>1140</v>
+      </c>
+      <c r="B42" s="8" t="s">
         <v>1141</v>
       </c>
-      <c r="B42" s="8" t="s">
+      <c r="C42" t="s">
         <v>1142</v>
-      </c>
-      <c r="C42" t="s">
-        <v>1143</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" t="s">
+        <v>1144</v>
+      </c>
+      <c r="B44" s="8" t="s">
         <v>1145</v>
       </c>
-      <c r="B44" s="8" t="s">
+      <c r="C44" t="s">
         <v>1146</v>
-      </c>
-      <c r="C44" t="s">
-        <v>1147</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" t="s">
+        <v>1148</v>
+      </c>
+      <c r="B46" t="s">
         <v>1149</v>
       </c>
-      <c r="B46" t="s">
+      <c r="C46" t="s">
         <v>1150</v>
-      </c>
-      <c r="C46" t="s">
-        <v>1151</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" t="s">
+        <v>1152</v>
+      </c>
+      <c r="B48" s="8" t="s">
         <v>1153</v>
       </c>
-      <c r="B48" s="8" t="s">
+      <c r="C48" t="s">
         <v>1154</v>
-      </c>
-      <c r="C48" t="s">
-        <v>1155</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" t="s">
+        <v>1156</v>
+      </c>
+      <c r="B50" s="8" t="s">
         <v>1157</v>
       </c>
-      <c r="B50" s="8" t="s">
+      <c r="C50" t="s">
         <v>1158</v>
-      </c>
-      <c r="C50" t="s">
-        <v>1159</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" t="s">
+        <v>1160</v>
+      </c>
+      <c r="B52" s="8" t="s">
         <v>1161</v>
       </c>
-      <c r="B52" s="8" t="s">
+      <c r="C52" t="s">
         <v>1162</v>
-      </c>
-      <c r="C52" t="s">
-        <v>1163</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
     </row>
   </sheetData>
@@ -9433,13 +9433,13 @@
     </row>
     <row r="2" spans="1:5" s="1" customFormat="1">
       <c r="A2" s="1" t="s">
+        <v>1164</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>1165</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>1166</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>1167</v>
       </c>
       <c r="D2" s="8" t="s">
         <v>490</v>
@@ -9447,564 +9447,564 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
+        <v>1167</v>
+      </c>
+      <c r="B3" s="8" t="s">
         <v>1168</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="C3" t="s">
         <v>1169</v>
-      </c>
-      <c r="C3" t="s">
-        <v>1170</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
+        <v>1170</v>
+      </c>
+      <c r="B4" t="s">
         <v>1171</v>
       </c>
-      <c r="B4" t="s">
-        <v>1172</v>
-      </c>
       <c r="C4" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="1" t="s">
+        <v>1172</v>
+      </c>
+      <c r="B5" s="8" t="s">
         <v>1173</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="C5" t="s">
         <v>1174</v>
-      </c>
-      <c r="C5" t="s">
-        <v>1175</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="1" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
       <c r="B6" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="C6" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="1" t="s">
+        <v>1176</v>
+      </c>
+      <c r="B7" s="8" t="s">
         <v>1177</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="C7" t="s">
         <v>1178</v>
-      </c>
-      <c r="C7" t="s">
-        <v>1179</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="1" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="B8" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="C8" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="1" t="s">
+        <v>1180</v>
+      </c>
+      <c r="B9" s="8" t="s">
         <v>1181</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="C9" t="s">
         <v>1182</v>
-      </c>
-      <c r="C9" t="s">
-        <v>1183</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="1" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="B10" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="C10" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="1" t="s">
+        <v>1184</v>
+      </c>
+      <c r="B11" s="8" t="s">
         <v>1185</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="C11" t="s">
         <v>1186</v>
-      </c>
-      <c r="C11" t="s">
-        <v>1187</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="1" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="B12" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="C12" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="1" t="s">
+        <v>1188</v>
+      </c>
+      <c r="B13" s="8" t="s">
         <v>1189</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="C13" t="s">
         <v>1190</v>
-      </c>
-      <c r="C13" t="s">
-        <v>1191</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="1" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="B14" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="C14" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="1" t="s">
+        <v>1192</v>
+      </c>
+      <c r="B15" s="8" t="s">
         <v>1193</v>
       </c>
-      <c r="B15" s="8" t="s">
+      <c r="C15" t="s">
         <v>1194</v>
-      </c>
-      <c r="C15" t="s">
-        <v>1195</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="1" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="B16" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="C16" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
+        <v>1196</v>
+      </c>
+      <c r="B17" s="8" t="s">
         <v>1197</v>
       </c>
-      <c r="B17" s="8" t="s">
+      <c r="C17" t="s">
         <v>1198</v>
-      </c>
-      <c r="C17" t="s">
-        <v>1199</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="1" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="B18" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="C18" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="1" t="s">
+        <v>1200</v>
+      </c>
+      <c r="B19" s="8" t="s">
         <v>1201</v>
       </c>
-      <c r="B19" s="8" t="s">
+      <c r="C19" t="s">
         <v>1202</v>
-      </c>
-      <c r="C19" t="s">
-        <v>1203</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="1" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="B20" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="C20" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="1" t="s">
+        <v>1204</v>
+      </c>
+      <c r="B21" s="8" t="s">
         <v>1205</v>
       </c>
-      <c r="B21" s="8" t="s">
+      <c r="C21" t="s">
         <v>1206</v>
-      </c>
-      <c r="C21" t="s">
-        <v>1207</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="1" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="B22" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="C22" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="1" t="s">
+        <v>1208</v>
+      </c>
+      <c r="B23" s="8" t="s">
         <v>1209</v>
       </c>
-      <c r="B23" s="8" t="s">
+      <c r="C23" t="s">
         <v>1210</v>
-      </c>
-      <c r="C23" t="s">
-        <v>1211</v>
       </c>
       <c r="D23" s="16"/>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="1" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="B24" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="C24" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="1" t="s">
+        <v>1212</v>
+      </c>
+      <c r="B25" s="8" t="s">
         <v>1213</v>
       </c>
-      <c r="B25" s="8" t="s">
+      <c r="C25" t="s">
         <v>1214</v>
-      </c>
-      <c r="C25" t="s">
-        <v>1215</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="1" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="B26" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="C26" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="1" t="s">
+        <v>1216</v>
+      </c>
+      <c r="B27" s="8" t="s">
         <v>1217</v>
       </c>
-      <c r="B27" s="8" t="s">
+      <c r="C27" t="s">
         <v>1218</v>
-      </c>
-      <c r="C27" t="s">
-        <v>1219</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="1" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="B28" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="C28" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="1" t="s">
+        <v>1220</v>
+      </c>
+      <c r="B29" s="8" t="s">
         <v>1221</v>
       </c>
-      <c r="B29" s="8" t="s">
+      <c r="C29" t="s">
         <v>1222</v>
-      </c>
-      <c r="C29" t="s">
-        <v>1223</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="1" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="B30" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="C30" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="1" t="s">
+        <v>1224</v>
+      </c>
+      <c r="B31" s="8" t="s">
         <v>1225</v>
       </c>
-      <c r="B31" s="8" t="s">
+      <c r="C31" t="s">
         <v>1226</v>
-      </c>
-      <c r="C31" t="s">
-        <v>1227</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="1" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="B32" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="C32" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="1" t="s">
+        <v>1228</v>
+      </c>
+      <c r="B33" s="8" t="s">
         <v>1229</v>
       </c>
-      <c r="B33" s="8" t="s">
+      <c r="C33" t="s">
         <v>1230</v>
-      </c>
-      <c r="C33" t="s">
-        <v>1231</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="1" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="B34" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="C34" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="1" t="s">
+        <v>1232</v>
+      </c>
+      <c r="B35" s="8" t="s">
         <v>1233</v>
       </c>
-      <c r="B35" s="8" t="s">
+      <c r="C35" t="s">
         <v>1234</v>
-      </c>
-      <c r="C35" t="s">
-        <v>1235</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="1" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="B36" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="C36" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="1" t="s">
+        <v>1236</v>
+      </c>
+      <c r="B37" s="8" t="s">
         <v>1237</v>
       </c>
-      <c r="B37" s="8" t="s">
+      <c r="C37" t="s">
         <v>1238</v>
-      </c>
-      <c r="C37" t="s">
-        <v>1239</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" s="1" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="B38" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="C38" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="1" t="s">
+        <v>1240</v>
+      </c>
+      <c r="B39" s="8" t="s">
         <v>1241</v>
       </c>
-      <c r="B39" s="8" t="s">
+      <c r="C39" t="s">
         <v>1242</v>
-      </c>
-      <c r="C39" t="s">
-        <v>1243</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="1" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="B40" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="C40" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="1" t="s">
+        <v>1244</v>
+      </c>
+      <c r="B41" s="8" t="s">
         <v>1245</v>
       </c>
-      <c r="B41" s="8" t="s">
+      <c r="C41" t="s">
         <v>1246</v>
-      </c>
-      <c r="C41" t="s">
-        <v>1247</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" s="1" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="B42" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="C42" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" s="1" t="s">
+        <v>1248</v>
+      </c>
+      <c r="B43" s="8" t="s">
         <v>1249</v>
       </c>
-      <c r="B43" s="8" t="s">
+      <c r="C43" t="s">
         <v>1250</v>
-      </c>
-      <c r="C43" t="s">
-        <v>1251</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" s="1" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
       <c r="B44" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="C44" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" s="1" t="s">
+        <v>1252</v>
+      </c>
+      <c r="B45" s="8" t="s">
         <v>1253</v>
       </c>
-      <c r="B45" s="8" t="s">
+      <c r="C45" t="s">
         <v>1254</v>
-      </c>
-      <c r="C45" t="s">
-        <v>1255</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" s="1" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="B46" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="C46" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" s="1" t="s">
+        <v>1256</v>
+      </c>
+      <c r="B47" s="8" t="s">
         <v>1257</v>
       </c>
-      <c r="B47" s="8" t="s">
+      <c r="C47" t="s">
         <v>1258</v>
-      </c>
-      <c r="C47" t="s">
-        <v>1259</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" s="1" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
       <c r="B48" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="C48" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" s="1" t="s">
+        <v>1260</v>
+      </c>
+      <c r="B49" s="8" t="s">
         <v>1261</v>
       </c>
-      <c r="B49" s="8" t="s">
+      <c r="C49" t="s">
         <v>1262</v>
-      </c>
-      <c r="C49" t="s">
-        <v>1263</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="1" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="B50" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="C50" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" s="1" t="s">
+        <v>1264</v>
+      </c>
+      <c r="B51" s="8" t="s">
         <v>1265</v>
       </c>
-      <c r="B51" s="8" t="s">
+      <c r="C51" t="s">
         <v>1266</v>
-      </c>
-      <c r="C51" t="s">
-        <v>1267</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" s="1" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
       <c r="B52" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="C52" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" s="12" t="s">
+        <v>1268</v>
+      </c>
+      <c r="B53" s="2" t="s">
         <v>1269</v>
       </c>
-      <c r="B53" s="2" t="s">
+      <c r="C53" s="2" t="s">
         <v>1270</v>
-      </c>
-      <c r="C53" s="2" t="s">
-        <v>1271</v>
       </c>
     </row>
   </sheetData>
@@ -10044,13 +10044,13 @@
     </row>
     <row r="2" spans="1:5" s="1" customFormat="1">
       <c r="A2" s="1" t="s">
+        <v>1271</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>1272</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>1273</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>1274</v>
       </c>
       <c r="D2" s="8" t="s">
         <v>490</v>
@@ -10058,519 +10058,519 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
+        <v>1274</v>
+      </c>
+      <c r="B3" t="s">
         <v>1275</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>1276</v>
-      </c>
-      <c r="C3" t="s">
-        <v>1277</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
+        <v>1277</v>
+      </c>
+      <c r="B4" t="s">
         <v>1278</v>
       </c>
-      <c r="B4" t="s">
-        <v>1279</v>
-      </c>
       <c r="C4" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
+        <v>1279</v>
+      </c>
+      <c r="B5" t="s">
         <v>1280</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>1281</v>
-      </c>
-      <c r="C5" t="s">
-        <v>1282</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
       <c r="B6" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="C6" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
+        <v>1283</v>
+      </c>
+      <c r="B7" t="s">
         <v>1284</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>1285</v>
-      </c>
-      <c r="C7" t="s">
-        <v>1286</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
       <c r="B8" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="C8" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
+        <v>1287</v>
+      </c>
+      <c r="B9" t="s">
         <v>1288</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>1289</v>
-      </c>
-      <c r="C9" t="s">
-        <v>1290</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="B10" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="C10" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
+        <v>1291</v>
+      </c>
+      <c r="B11" t="s">
         <v>1292</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" t="s">
         <v>1293</v>
-      </c>
-      <c r="C11" t="s">
-        <v>1294</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
       <c r="B12" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="C12" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
+        <v>1295</v>
+      </c>
+      <c r="B13" t="s">
         <v>1296</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C13" t="s">
         <v>1297</v>
-      </c>
-      <c r="C13" t="s">
-        <v>1298</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
       <c r="B14" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="C14" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
+        <v>1299</v>
+      </c>
+      <c r="B15" t="s">
         <v>1300</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C15" t="s">
         <v>1301</v>
-      </c>
-      <c r="C15" t="s">
-        <v>1302</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
       <c r="B16" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="C16" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
+        <v>1303</v>
+      </c>
+      <c r="B17" t="s">
         <v>1304</v>
       </c>
-      <c r="B17" t="s">
+      <c r="C17" t="s">
         <v>1305</v>
-      </c>
-      <c r="C17" t="s">
-        <v>1306</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
+        <v>1306</v>
+      </c>
+      <c r="B18" t="s">
         <v>1307</v>
       </c>
-      <c r="B18" t="s">
-        <v>1308</v>
-      </c>
       <c r="C18" t="s">
-        <v>1308</v>
+        <v>1307</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
+        <v>1308</v>
+      </c>
+      <c r="B19" t="s">
         <v>1309</v>
       </c>
-      <c r="B19" t="s">
+      <c r="C19" t="s">
         <v>1310</v>
-      </c>
-      <c r="C19" t="s">
-        <v>1311</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
       <c r="B20" t="s">
-        <v>1308</v>
+        <v>1307</v>
       </c>
       <c r="C20" t="s">
-        <v>1308</v>
+        <v>1307</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
+        <v>1312</v>
+      </c>
+      <c r="B21" t="s">
         <v>1313</v>
       </c>
-      <c r="B21" t="s">
+      <c r="C21" t="s">
         <v>1314</v>
-      </c>
-      <c r="C21" t="s">
-        <v>1315</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="B22" t="s">
-        <v>1308</v>
+        <v>1307</v>
       </c>
       <c r="C22" t="s">
-        <v>1308</v>
+        <v>1307</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
+        <v>1316</v>
+      </c>
+      <c r="B23" t="s">
         <v>1317</v>
       </c>
-      <c r="B23" t="s">
+      <c r="C23" t="s">
         <v>1318</v>
-      </c>
-      <c r="C23" t="s">
-        <v>1319</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
       <c r="B24" t="s">
-        <v>1308</v>
+        <v>1307</v>
       </c>
       <c r="C24" t="s">
-        <v>1308</v>
+        <v>1307</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
+        <v>1320</v>
+      </c>
+      <c r="B25" t="s">
         <v>1321</v>
       </c>
-      <c r="B25" t="s">
+      <c r="C25" t="s">
         <v>1322</v>
-      </c>
-      <c r="C25" t="s">
-        <v>1323</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
       <c r="B26" t="s">
-        <v>1308</v>
+        <v>1307</v>
       </c>
       <c r="C26" t="s">
-        <v>1308</v>
+        <v>1307</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
+        <v>1324</v>
+      </c>
+      <c r="B27" s="24" t="s">
         <v>1325</v>
       </c>
-      <c r="B27" s="24" t="s">
+      <c r="C27" t="s">
         <v>1326</v>
-      </c>
-      <c r="C27" t="s">
-        <v>1327</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>1328</v>
+        <v>1327</v>
       </c>
       <c r="B28" t="s">
-        <v>1308</v>
+        <v>1307</v>
       </c>
       <c r="C28" t="s">
-        <v>1308</v>
+        <v>1307</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
+        <v>1328</v>
+      </c>
+      <c r="B29" s="1" t="s">
         <v>1329</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="C29" t="s">
         <v>1330</v>
-      </c>
-      <c r="C29" t="s">
-        <v>1331</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>1332</v>
+        <v>1331</v>
       </c>
       <c r="B30" t="s">
-        <v>1308</v>
+        <v>1307</v>
       </c>
       <c r="C30" t="s">
-        <v>1308</v>
+        <v>1307</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
+        <v>1332</v>
+      </c>
+      <c r="B31" s="1" t="s">
         <v>1333</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="C31" t="s">
         <v>1334</v>
-      </c>
-      <c r="C31" t="s">
-        <v>1335</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
-        <v>1336</v>
+        <v>1335</v>
       </c>
       <c r="B32" t="s">
-        <v>1308</v>
+        <v>1307</v>
       </c>
       <c r="C32" t="s">
-        <v>1308</v>
+        <v>1307</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="s">
+        <v>1336</v>
+      </c>
+      <c r="B33" t="s">
         <v>1337</v>
       </c>
-      <c r="B33" t="s">
+      <c r="C33" t="s">
         <v>1338</v>
-      </c>
-      <c r="C33" t="s">
-        <v>1339</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
       <c r="B34" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="C34" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" t="s">
+        <v>1340</v>
+      </c>
+      <c r="B35" t="s">
         <v>1341</v>
       </c>
-      <c r="B35" t="s">
+      <c r="C35" t="s">
         <v>1342</v>
-      </c>
-      <c r="C35" t="s">
-        <v>1343</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
       <c r="B36" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="C36" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" t="s">
+        <v>1344</v>
+      </c>
+      <c r="B37" t="s">
         <v>1345</v>
       </c>
-      <c r="B37" t="s">
+      <c r="C37" t="s">
         <v>1346</v>
-      </c>
-      <c r="C37" t="s">
-        <v>1347</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
       <c r="B38" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="C38" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" t="s">
+        <v>1348</v>
+      </c>
+      <c r="B39" t="s">
         <v>1349</v>
       </c>
-      <c r="B39" t="s">
+      <c r="C39" t="s">
         <v>1350</v>
-      </c>
-      <c r="C39" t="s">
-        <v>1351</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" t="s">
-        <v>1352</v>
+        <v>1351</v>
       </c>
       <c r="B40" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="C40" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" t="s">
+        <v>1352</v>
+      </c>
+      <c r="B41" s="1" t="s">
         <v>1353</v>
       </c>
-      <c r="B41" s="1" t="s">
+      <c r="C41" t="s">
         <v>1354</v>
-      </c>
-      <c r="C41" t="s">
-        <v>1355</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" t="s">
-        <v>1356</v>
+        <v>1355</v>
       </c>
       <c r="B42" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="C42" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" t="s">
+        <v>1356</v>
+      </c>
+      <c r="B43" s="1" t="s">
         <v>1357</v>
       </c>
-      <c r="B43" s="1" t="s">
+      <c r="C43" t="s">
         <v>1358</v>
-      </c>
-      <c r="C43" t="s">
-        <v>1359</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" t="s">
-        <v>1360</v>
+        <v>1359</v>
       </c>
       <c r="B44" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="C44" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" t="s">
+        <v>1360</v>
+      </c>
+      <c r="B45" t="s">
         <v>1361</v>
       </c>
-      <c r="B45" t="s">
+      <c r="C45" t="s">
         <v>1362</v>
-      </c>
-      <c r="C45" t="s">
-        <v>1363</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
       <c r="B46" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="C46" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" t="s">
+        <v>1364</v>
+      </c>
+      <c r="B47" t="s">
         <v>1365</v>
       </c>
-      <c r="B47" t="s">
+      <c r="C47" t="s">
         <v>1366</v>
-      </c>
-      <c r="C47" t="s">
-        <v>1367</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" t="s">
-        <v>1368</v>
+        <v>1367</v>
       </c>
       <c r="B48" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="C48" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" s="12" t="s">
+        <v>1368</v>
+      </c>
+      <c r="B49" s="4" t="s">
         <v>1369</v>
       </c>
-      <c r="B49" s="4" t="s">
+      <c r="C49" s="4" t="s">
         <v>1370</v>
-      </c>
-      <c r="C49" s="4" t="s">
-        <v>1371</v>
       </c>
     </row>
   </sheetData>
@@ -10609,249 +10609,249 @@
     </row>
     <row r="2" spans="1:5" s="1" customFormat="1">
       <c r="A2" s="1" t="s">
+        <v>1371</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>1372</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>1373</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>1374</v>
       </c>
       <c r="D2" s="16"/>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
+        <v>1374</v>
+      </c>
+      <c r="B3" s="10" t="s">
         <v>1375</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="C3" t="s">
         <v>1376</v>
-      </c>
-      <c r="C3" t="s">
-        <v>1377</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
+        <v>1377</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>1378</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>1379</v>
-      </c>
       <c r="C4" s="1" t="s">
-        <v>1379</v>
+        <v>1378</v>
       </c>
       <c r="E4" s="13"/>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="1" t="s">
+        <v>1379</v>
+      </c>
+      <c r="B5" s="10" t="s">
         <v>1380</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="C5" t="s">
         <v>1381</v>
-      </c>
-      <c r="C5" t="s">
-        <v>1382</v>
       </c>
       <c r="E5" s="1"/>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>1379</v>
+        <v>1378</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>1379</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="1" t="s">
+        <v>1383</v>
+      </c>
+      <c r="B7" s="10" t="s">
         <v>1384</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="C7" t="s">
         <v>1385</v>
-      </c>
-      <c r="C7" t="s">
-        <v>1386</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>1387</v>
+        <v>1386</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>1379</v>
+        <v>1378</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>1379</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="1" t="s">
+        <v>1387</v>
+      </c>
+      <c r="B9" s="10" t="s">
         <v>1388</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="C9" t="s">
         <v>1389</v>
-      </c>
-      <c r="C9" t="s">
-        <v>1390</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>1391</v>
+        <v>1390</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>1379</v>
+        <v>1378</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>1379</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="1" t="s">
+        <v>1391</v>
+      </c>
+      <c r="B11" s="10" t="s">
         <v>1392</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="C11" s="1" t="s">
         <v>1393</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>1394</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>1395</v>
+        <v>1394</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>1379</v>
+        <v>1378</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>1379</v>
+        <v>1378</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="1" t="s">
+        <v>1395</v>
+      </c>
+      <c r="B13" s="10" t="s">
         <v>1396</v>
       </c>
-      <c r="B13" s="10" t="s">
+      <c r="C13" t="s">
         <v>1397</v>
-      </c>
-      <c r="C13" t="s">
-        <v>1398</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>1399</v>
+        <v>1398</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>1379</v>
+        <v>1378</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>1379</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="1" t="s">
+        <v>1399</v>
+      </c>
+      <c r="B15" s="10" t="s">
         <v>1400</v>
       </c>
-      <c r="B15" s="10" t="s">
+      <c r="C15" t="s">
         <v>1401</v>
-      </c>
-      <c r="C15" t="s">
-        <v>1402</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>1403</v>
+        <v>1402</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>1379</v>
+        <v>1378</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>1379</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="1" t="s">
+        <v>1403</v>
+      </c>
+      <c r="B17" s="10" t="s">
         <v>1404</v>
       </c>
-      <c r="B17" s="10" t="s">
+      <c r="C17" t="s">
         <v>1405</v>
-      </c>
-      <c r="C17" t="s">
-        <v>1406</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>1407</v>
+        <v>1406</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>1379</v>
+        <v>1378</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>1379</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="1" t="s">
+        <v>1407</v>
+      </c>
+      <c r="B19" s="10" t="s">
         <v>1408</v>
       </c>
-      <c r="B19" s="10" t="s">
+      <c r="C19" t="s">
         <v>1409</v>
-      </c>
-      <c r="C19" t="s">
-        <v>1410</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>1379</v>
+        <v>1378</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>1379</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="1" t="s">
+        <v>1411</v>
+      </c>
+      <c r="B21" s="10" t="s">
         <v>1412</v>
       </c>
-      <c r="B21" s="10" t="s">
+      <c r="C21" t="s">
         <v>1413</v>
-      </c>
-      <c r="C21" t="s">
-        <v>1414</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>1415</v>
+        <v>1414</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>1379</v>
+        <v>1378</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>1379</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="12" t="s">
+        <v>1415</v>
+      </c>
+      <c r="B23" s="4" t="s">
         <v>1416</v>
       </c>
-      <c r="B23" s="4" t="s">
+      <c r="C23" s="4" t="s">
         <v>1417</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>1418</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -10967,148 +10967,148 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
+        <v>1418</v>
+      </c>
+      <c r="B2" s="15" t="s">
         <v>1419</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="C2" s="4" t="s">
         <v>1420</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>1421</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
+        <v>1421</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>1422</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>1423</v>
-      </c>
       <c r="C3" s="1" t="s">
-        <v>1423</v>
+        <v>1422</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
+        <v>1423</v>
+      </c>
+      <c r="B4" s="15" t="s">
         <v>1424</v>
       </c>
-      <c r="B4" s="15" t="s">
+      <c r="C4" s="4" t="s">
         <v>1425</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>1426</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1423</v>
+        <v>1422</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>1423</v>
+        <v>1422</v>
       </c>
     </row>
     <row r="6" spans="1:5" s="1" customFormat="1">
       <c r="A6" s="1" t="s">
+        <v>1427</v>
+      </c>
+      <c r="B6" s="6" t="s">
         <v>1428</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="C6" s="4" t="s">
         <v>1429</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>1430</v>
       </c>
       <c r="E6" s="12"/>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="1" t="s">
+        <v>1430</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>1431</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="C7" s="4" t="s">
         <v>1432</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>1433</v>
       </c>
       <c r="E7" s="16"/>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="1" t="s">
+        <v>1433</v>
+      </c>
+      <c r="B8" s="15" t="s">
         <v>1434</v>
       </c>
-      <c r="B8" s="15" t="s">
+      <c r="C8" s="4" t="s">
         <v>1435</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>1436</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="1" t="s">
+        <v>1436</v>
+      </c>
+      <c r="B9" s="15" t="s">
         <v>1437</v>
       </c>
-      <c r="B9" s="15" t="s">
+      <c r="C9" s="4" t="s">
         <v>1438</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>1439</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="1" t="s">
+        <v>1439</v>
+      </c>
+      <c r="B10" s="18" t="s">
         <v>1440</v>
       </c>
-      <c r="B10" s="18" t="s">
+      <c r="C10" s="4" t="s">
         <v>1441</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>1442</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="1" t="s">
+        <v>1442</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>1443</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="C11" s="4" t="s">
         <v>1444</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>1445</v>
       </c>
       <c r="E11" s="16"/>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="1" t="s">
+        <v>1445</v>
+      </c>
+      <c r="B12" s="15" t="s">
         <v>1446</v>
       </c>
-      <c r="B12" s="15" t="s">
+      <c r="C12" s="4" t="s">
         <v>1447</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>1448</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="1" t="s">
+        <v>1448</v>
+      </c>
+      <c r="B13" s="15" t="s">
         <v>1449</v>
       </c>
-      <c r="B13" s="15" t="s">
+      <c r="C13" s="4" t="s">
         <v>1450</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>1451</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="1" t="s">
+        <v>1451</v>
+      </c>
+      <c r="B14" s="18" t="s">
         <v>1452</v>
       </c>
-      <c r="B14" s="18" t="s">
+      <c r="C14" s="4" t="s">
         <v>1453</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>1454</v>
       </c>
       <c r="E14" s="8" t="s">
         <v>490</v>
@@ -11116,7 +11116,7 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="1" t="s">
-        <v>1455</v>
+        <v>1454</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>129</v>
@@ -11127,7 +11127,7 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="1" t="s">
-        <v>1456</v>
+        <v>1455</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>131</v>
@@ -11138,113 +11138,113 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="1" t="s">
+        <v>1456</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>1457</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="C17" t="s">
         <v>1458</v>
-      </c>
-      <c r="C17" t="s">
-        <v>1459</v>
       </c>
       <c r="E17" s="16"/>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="1" t="s">
+        <v>1459</v>
+      </c>
+      <c r="B18" s="8" t="s">
         <v>1460</v>
       </c>
-      <c r="B18" s="8" t="s">
+      <c r="C18" s="4" t="s">
         <v>1461</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>1462</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="1" t="s">
+        <v>1462</v>
+      </c>
+      <c r="B19" s="8" t="s">
         <v>1463</v>
       </c>
-      <c r="B19" s="8" t="s">
+      <c r="C19" s="4" t="s">
         <v>1464</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>1465</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="1" t="s">
+        <v>1465</v>
+      </c>
+      <c r="B20" s="8" t="s">
         <v>1466</v>
       </c>
-      <c r="B20" s="8" t="s">
+      <c r="C20" s="4" t="s">
         <v>1467</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>1468</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="1" t="s">
+        <v>1468</v>
+      </c>
+      <c r="B21" s="8" t="s">
         <v>1469</v>
       </c>
-      <c r="B21" s="8" t="s">
+      <c r="C21" s="4" t="s">
         <v>1470</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>1471</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="1" t="s">
+        <v>1471</v>
+      </c>
+      <c r="B22" s="8" t="s">
         <v>1472</v>
       </c>
-      <c r="B22" s="8" t="s">
+      <c r="C22" s="4" t="s">
         <v>1473</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>1474</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="1" t="s">
+        <v>1474</v>
+      </c>
+      <c r="B23" s="8" t="s">
         <v>1475</v>
       </c>
-      <c r="B23" s="8" t="s">
+      <c r="C23" s="4" t="s">
         <v>1476</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>1477</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="1" t="s">
+        <v>1477</v>
+      </c>
+      <c r="B24" s="8" t="s">
         <v>1478</v>
       </c>
-      <c r="B24" s="8" t="s">
+      <c r="C24" s="4" t="s">
         <v>1479</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>1480</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="1" t="s">
+        <v>1480</v>
+      </c>
+      <c r="B25" s="8" t="s">
         <v>1481</v>
       </c>
-      <c r="B25" s="8" t="s">
+      <c r="C25" s="4" t="s">
         <v>1482</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>1483</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="12" t="s">
+        <v>1483</v>
+      </c>
+      <c r="B26" s="4" t="s">
         <v>1484</v>
       </c>
-      <c r="B26" s="4" t="s">
+      <c r="C26" s="4" t="s">
         <v>1485</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>1486</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -11293,13 +11293,13 @@
     </row>
     <row r="2" spans="1:5" ht="17.25">
       <c r="A2" s="1" t="s">
+        <v>1486</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>1487</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="27" t="s">
         <v>1488</v>
-      </c>
-      <c r="C2" s="27" t="s">
-        <v>1489</v>
       </c>
       <c r="E2" s="8" t="s">
         <v>490</v>
@@ -11307,18 +11307,18 @@
     </row>
     <row r="3" spans="1:5" ht="17.25">
       <c r="A3" s="1" t="s">
+        <v>1489</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>1490</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3" s="27" t="s">
         <v>1491</v>
-      </c>
-      <c r="C3" s="27" t="s">
-        <v>1492</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
-        <v>1493</v>
+        <v>1492</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>495</v>
@@ -11329,18 +11329,18 @@
     </row>
     <row r="5" spans="1:5" ht="17.25">
       <c r="A5" s="1" t="s">
+        <v>1493</v>
+      </c>
+      <c r="B5" s="8" t="s">
         <v>1494</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="C5" s="27" t="s">
         <v>1495</v>
-      </c>
-      <c r="C5" s="27" t="s">
-        <v>1496</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="1" t="s">
-        <v>1497</v>
+        <v>1496</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>495</v>
@@ -11351,18 +11351,18 @@
     </row>
     <row r="7" spans="1:5" ht="17.25">
       <c r="A7" s="1" t="s">
+        <v>1497</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>1498</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="C7" s="27" t="s">
         <v>1499</v>
-      </c>
-      <c r="C7" s="27" t="s">
-        <v>1500</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="1" t="s">
-        <v>1501</v>
+        <v>1500</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>495</v>
@@ -11373,18 +11373,18 @@
     </row>
     <row r="9" spans="1:5" ht="17.25">
       <c r="A9" s="1" t="s">
+        <v>1501</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>1502</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="C9" s="27" t="s">
         <v>1503</v>
-      </c>
-      <c r="C9" s="27" t="s">
-        <v>1504</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="1" t="s">
-        <v>1505</v>
+        <v>1504</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>495</v>
@@ -11395,18 +11395,18 @@
     </row>
     <row r="11" spans="1:5" ht="17.25">
       <c r="A11" s="1" t="s">
+        <v>1505</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>1506</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="C11" s="27" t="s">
         <v>1507</v>
-      </c>
-      <c r="C11" s="27" t="s">
-        <v>1508</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="1" t="s">
-        <v>1509</v>
+        <v>1508</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>495</v>
@@ -11417,18 +11417,18 @@
     </row>
     <row r="13" spans="1:5" ht="17.25">
       <c r="A13" s="1" t="s">
+        <v>1509</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>1510</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="C13" s="27" t="s">
         <v>1511</v>
-      </c>
-      <c r="C13" s="27" t="s">
-        <v>1512</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="1" t="s">
-        <v>1513</v>
+        <v>1512</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>495</v>
@@ -11439,18 +11439,18 @@
     </row>
     <row r="15" spans="1:5" ht="17.25">
       <c r="A15" s="1" t="s">
+        <v>1513</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>1514</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="C15" s="27" t="s">
         <v>1515</v>
-      </c>
-      <c r="C15" s="27" t="s">
-        <v>1516</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="1" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>495</v>
@@ -11461,18 +11461,18 @@
     </row>
     <row r="17" spans="1:3" ht="17.25">
       <c r="A17" s="1" t="s">
+        <v>1517</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>1518</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="C17" s="27" t="s">
         <v>1519</v>
-      </c>
-      <c r="C17" s="27" t="s">
-        <v>1520</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="1" t="s">
-        <v>1521</v>
+        <v>1520</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>495</v>
@@ -11483,18 +11483,18 @@
     </row>
     <row r="19" spans="1:3" ht="17.25">
       <c r="A19" s="1" t="s">
+        <v>1521</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>1522</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="C19" s="27" t="s">
         <v>1523</v>
-      </c>
-      <c r="C19" s="27" t="s">
-        <v>1524</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="1" t="s">
-        <v>1525</v>
+        <v>1524</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>495</v>
@@ -11505,18 +11505,18 @@
     </row>
     <row r="21" spans="1:3" ht="17.25">
       <c r="A21" s="1" t="s">
+        <v>1525</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>1526</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="C21" s="27" t="s">
         <v>1527</v>
-      </c>
-      <c r="C21" s="27" t="s">
-        <v>1528</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="1" t="s">
-        <v>1529</v>
+        <v>1528</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>495</v>
@@ -11527,13 +11527,13 @@
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="12" t="s">
+        <v>1529</v>
+      </c>
+      <c r="B23" s="4" t="s">
         <v>1530</v>
       </c>
-      <c r="B23" s="4" t="s">
+      <c r="C23" s="4" t="s">
         <v>1531</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>1532</v>
       </c>
     </row>
   </sheetData>
@@ -11571,13 +11571,13 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
+        <v>1532</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1165</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>1533</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>1166</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>1534</v>
       </c>
       <c r="D2" s="8" t="s">
         <v>490</v>
@@ -11585,705 +11585,705 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
+        <v>1534</v>
+      </c>
+      <c r="B3" s="8" t="s">
         <v>1535</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="C3" t="s">
         <v>1536</v>
-      </c>
-      <c r="C3" t="s">
-        <v>1537</v>
       </c>
       <c r="D3" s="12"/>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>1538</v>
+        <v>1537</v>
       </c>
       <c r="B4" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="C4" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="D4" s="12"/>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
+        <v>1538</v>
+      </c>
+      <c r="B5" t="s">
         <v>1539</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>1540</v>
-      </c>
-      <c r="C5" t="s">
-        <v>1541</v>
       </c>
       <c r="D5" s="12"/>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>1542</v>
+        <v>1541</v>
       </c>
       <c r="B6" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="C6" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="D6" s="12"/>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
+        <v>1542</v>
+      </c>
+      <c r="B7" s="8" t="s">
         <v>1543</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="C7" t="s">
         <v>1544</v>
-      </c>
-      <c r="C7" t="s">
-        <v>1545</v>
       </c>
       <c r="D7" s="12"/>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>1546</v>
+        <v>1545</v>
       </c>
       <c r="B8" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="C8" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="D8" s="12"/>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
+        <v>1546</v>
+      </c>
+      <c r="B9" s="8" t="s">
         <v>1547</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="C9" t="s">
         <v>1548</v>
-      </c>
-      <c r="C9" t="s">
-        <v>1549</v>
       </c>
       <c r="D9" s="12"/>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>1550</v>
+        <v>1549</v>
       </c>
       <c r="B10" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="C10" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="D10" s="12"/>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
+        <v>1550</v>
+      </c>
+      <c r="B11" s="8" t="s">
         <v>1551</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="C11" t="s">
         <v>1552</v>
-      </c>
-      <c r="C11" t="s">
-        <v>1553</v>
       </c>
       <c r="D11" s="12"/>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>1554</v>
+        <v>1553</v>
       </c>
       <c r="B12" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="C12" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="D12" s="12"/>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
+        <v>1554</v>
+      </c>
+      <c r="B13" s="8" t="s">
         <v>1555</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="C13" t="s">
         <v>1556</v>
-      </c>
-      <c r="C13" t="s">
-        <v>1557</v>
       </c>
       <c r="D13" s="12"/>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>1558</v>
+        <v>1557</v>
       </c>
       <c r="B14" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="C14" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="D14" s="12"/>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
+        <v>1558</v>
+      </c>
+      <c r="B15" s="8" t="s">
         <v>1559</v>
       </c>
-      <c r="B15" s="8" t="s">
+      <c r="C15" t="s">
         <v>1560</v>
-      </c>
-      <c r="C15" t="s">
-        <v>1561</v>
       </c>
       <c r="D15" s="12"/>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>1562</v>
+        <v>1561</v>
       </c>
       <c r="B16" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="C16" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="D16" s="12"/>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
+        <v>1562</v>
+      </c>
+      <c r="B17" s="8" t="s">
         <v>1563</v>
       </c>
-      <c r="B17" s="8" t="s">
+      <c r="C17" t="s">
         <v>1564</v>
-      </c>
-      <c r="C17" t="s">
-        <v>1565</v>
       </c>
       <c r="D17" s="12"/>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>1566</v>
+        <v>1565</v>
       </c>
       <c r="B18" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="C18" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="D18" s="12"/>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
+        <v>1566</v>
+      </c>
+      <c r="B19" s="8" t="s">
         <v>1567</v>
       </c>
-      <c r="B19" s="8" t="s">
+      <c r="C19" t="s">
         <v>1568</v>
-      </c>
-      <c r="C19" t="s">
-        <v>1569</v>
       </c>
       <c r="D19" s="12"/>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>1570</v>
+        <v>1569</v>
       </c>
       <c r="B20" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="C20" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="D20" s="12"/>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
+        <v>1570</v>
+      </c>
+      <c r="B21" s="8" t="s">
         <v>1571</v>
       </c>
-      <c r="B21" s="8" t="s">
+      <c r="C21" t="s">
         <v>1572</v>
-      </c>
-      <c r="C21" t="s">
-        <v>1573</v>
       </c>
       <c r="D21" s="12"/>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>1574</v>
+        <v>1573</v>
       </c>
       <c r="B22" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="C22" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="D22" s="12"/>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
+        <v>1574</v>
+      </c>
+      <c r="B23" s="8" t="s">
         <v>1575</v>
       </c>
-      <c r="B23" s="8" t="s">
+      <c r="C23" t="s">
         <v>1576</v>
-      </c>
-      <c r="C23" t="s">
-        <v>1577</v>
       </c>
       <c r="D23" s="12"/>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>1578</v>
+        <v>1577</v>
       </c>
       <c r="B24" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="C24" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="D24" s="12"/>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
+        <v>1578</v>
+      </c>
+      <c r="B25" t="s">
         <v>1579</v>
       </c>
-      <c r="B25" t="s">
+      <c r="C25" t="s">
         <v>1580</v>
-      </c>
-      <c r="C25" t="s">
-        <v>1581</v>
       </c>
       <c r="D25" s="12"/>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>1582</v>
+        <v>1581</v>
       </c>
       <c r="B26" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="C26" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="D26" s="12"/>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" t="s">
+        <v>1582</v>
+      </c>
+      <c r="B27" s="8" t="s">
         <v>1583</v>
       </c>
-      <c r="B27" s="8" t="s">
+      <c r="C27" t="s">
         <v>1584</v>
-      </c>
-      <c r="C27" t="s">
-        <v>1585</v>
       </c>
       <c r="D27" s="12"/>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>1586</v>
+        <v>1585</v>
       </c>
       <c r="B28" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="C28" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="D28" s="12"/>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" t="s">
+        <v>1586</v>
+      </c>
+      <c r="B29" s="8" t="s">
         <v>1587</v>
       </c>
-      <c r="B29" s="8" t="s">
+      <c r="C29" t="s">
         <v>1588</v>
-      </c>
-      <c r="C29" t="s">
-        <v>1589</v>
       </c>
       <c r="D29" s="12"/>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" t="s">
-        <v>1590</v>
+        <v>1589</v>
       </c>
       <c r="B30" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="C30" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="D30" s="12"/>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" t="s">
+        <v>1590</v>
+      </c>
+      <c r="B31" s="8" t="s">
         <v>1591</v>
       </c>
-      <c r="B31" s="8" t="s">
+      <c r="C31" t="s">
         <v>1592</v>
-      </c>
-      <c r="C31" t="s">
-        <v>1593</v>
       </c>
       <c r="D31" s="12"/>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" t="s">
-        <v>1594</v>
+        <v>1593</v>
       </c>
       <c r="B32" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="C32" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="D32" s="12"/>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" t="s">
+        <v>1594</v>
+      </c>
+      <c r="B33" s="8" t="s">
         <v>1595</v>
       </c>
-      <c r="B33" s="8" t="s">
+      <c r="C33" t="s">
         <v>1596</v>
-      </c>
-      <c r="C33" t="s">
-        <v>1597</v>
       </c>
       <c r="D33" s="12"/>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" t="s">
-        <v>1598</v>
+        <v>1597</v>
       </c>
       <c r="B34" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="C34" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="D34" s="12"/>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" t="s">
+        <v>1598</v>
+      </c>
+      <c r="B35" s="8" t="s">
         <v>1599</v>
       </c>
-      <c r="B35" s="8" t="s">
+      <c r="C35" t="s">
         <v>1600</v>
-      </c>
-      <c r="C35" t="s">
-        <v>1601</v>
       </c>
       <c r="D35" s="12"/>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" t="s">
-        <v>1602</v>
+        <v>1601</v>
       </c>
       <c r="B36" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="C36" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="D36" s="12"/>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" t="s">
+        <v>1602</v>
+      </c>
+      <c r="B37" s="8" t="s">
         <v>1603</v>
       </c>
-      <c r="B37" s="8" t="s">
+      <c r="C37" t="s">
         <v>1604</v>
-      </c>
-      <c r="C37" t="s">
-        <v>1605</v>
       </c>
       <c r="D37" s="12"/>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="B38" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="C38" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="D38" s="12"/>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" t="s">
+        <v>1606</v>
+      </c>
+      <c r="B39" s="8" t="s">
         <v>1607</v>
       </c>
-      <c r="B39" s="8" t="s">
+      <c r="C39" t="s">
         <v>1608</v>
-      </c>
-      <c r="C39" t="s">
-        <v>1609</v>
       </c>
       <c r="D39" s="12"/>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" t="s">
-        <v>1610</v>
+        <v>1609</v>
       </c>
       <c r="B40" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="C40" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="D40" s="12"/>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" t="s">
+        <v>1610</v>
+      </c>
+      <c r="B41" s="8" t="s">
         <v>1611</v>
       </c>
-      <c r="B41" s="8" t="s">
+      <c r="C41" t="s">
         <v>1612</v>
-      </c>
-      <c r="C41" t="s">
-        <v>1613</v>
       </c>
       <c r="D41" s="12"/>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" t="s">
-        <v>1614</v>
+        <v>1613</v>
       </c>
       <c r="B42" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="C42" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="D42" s="12"/>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" t="s">
+        <v>1614</v>
+      </c>
+      <c r="B43" s="8" t="s">
         <v>1615</v>
       </c>
-      <c r="B43" s="8" t="s">
+      <c r="C43" t="s">
         <v>1616</v>
-      </c>
-      <c r="C43" t="s">
-        <v>1617</v>
       </c>
       <c r="D43" s="12"/>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" t="s">
-        <v>1618</v>
+        <v>1617</v>
       </c>
       <c r="B44" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="C44" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="D44" s="12"/>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" t="s">
+        <v>1618</v>
+      </c>
+      <c r="B45" s="8" t="s">
         <v>1619</v>
       </c>
-      <c r="B45" s="8" t="s">
+      <c r="C45" t="s">
         <v>1620</v>
-      </c>
-      <c r="C45" t="s">
-        <v>1621</v>
       </c>
       <c r="D45" s="12"/>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" t="s">
-        <v>1622</v>
+        <v>1621</v>
       </c>
       <c r="B46" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="C46" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="D46" s="12"/>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" t="s">
+        <v>1622</v>
+      </c>
+      <c r="B47" s="8" t="s">
         <v>1623</v>
       </c>
-      <c r="B47" s="8" t="s">
+      <c r="C47" t="s">
         <v>1624</v>
-      </c>
-      <c r="C47" t="s">
-        <v>1625</v>
       </c>
       <c r="D47" s="12"/>
     </row>
     <row r="48" spans="1:4">
       <c r="A48" t="s">
-        <v>1626</v>
+        <v>1625</v>
       </c>
       <c r="B48" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="C48" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="D48" s="12"/>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" t="s">
+        <v>1626</v>
+      </c>
+      <c r="B49" s="8" t="s">
         <v>1627</v>
       </c>
-      <c r="B49" s="8" t="s">
+      <c r="C49" t="s">
         <v>1628</v>
-      </c>
-      <c r="C49" t="s">
-        <v>1629</v>
       </c>
       <c r="D49" s="12"/>
     </row>
     <row r="50" spans="1:4">
       <c r="A50" t="s">
-        <v>1630</v>
+        <v>1629</v>
       </c>
       <c r="B50" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="C50" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="D50" s="12"/>
     </row>
     <row r="51" spans="1:4">
       <c r="A51" t="s">
+        <v>1630</v>
+      </c>
+      <c r="B51" t="s">
         <v>1631</v>
       </c>
-      <c r="B51" t="s">
+      <c r="C51" t="s">
         <v>1632</v>
-      </c>
-      <c r="C51" t="s">
-        <v>1633</v>
       </c>
       <c r="D51" s="12"/>
     </row>
     <row r="52" spans="1:4">
       <c r="A52" t="s">
-        <v>1634</v>
+        <v>1633</v>
       </c>
       <c r="B52" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="C52" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="D52" s="12"/>
     </row>
     <row r="53" spans="1:4">
       <c r="A53" t="s">
+        <v>1634</v>
+      </c>
+      <c r="B53" s="8" t="s">
         <v>1635</v>
       </c>
-      <c r="B53" s="8" t="s">
+      <c r="C53" t="s">
         <v>1636</v>
-      </c>
-      <c r="C53" t="s">
-        <v>1637</v>
       </c>
       <c r="D53" s="12"/>
     </row>
     <row r="54" spans="1:4">
       <c r="A54" t="s">
-        <v>1638</v>
+        <v>1637</v>
       </c>
       <c r="B54" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="C54" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="D54" s="12"/>
     </row>
     <row r="55" spans="1:4">
       <c r="A55" t="s">
+        <v>1638</v>
+      </c>
+      <c r="B55" s="8" t="s">
         <v>1639</v>
       </c>
-      <c r="B55" s="8" t="s">
+      <c r="C55" t="s">
         <v>1640</v>
-      </c>
-      <c r="C55" t="s">
-        <v>1641</v>
       </c>
       <c r="D55" s="12"/>
     </row>
     <row r="56" spans="1:4">
       <c r="A56" t="s">
-        <v>1642</v>
+        <v>1641</v>
       </c>
       <c r="B56" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="C56" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="D56" s="12"/>
     </row>
     <row r="57" spans="1:4">
       <c r="A57" t="s">
+        <v>1642</v>
+      </c>
+      <c r="B57" s="8" t="s">
         <v>1643</v>
       </c>
-      <c r="B57" s="8" t="s">
+      <c r="C57" t="s">
         <v>1644</v>
-      </c>
-      <c r="C57" t="s">
-        <v>1645</v>
       </c>
     </row>
     <row r="58" spans="1:4">
       <c r="A58" t="s">
-        <v>1646</v>
+        <v>1645</v>
       </c>
       <c r="B58" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="C58" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="59" spans="1:4">
       <c r="A59" s="1" t="s">
+        <v>1646</v>
+      </c>
+      <c r="B59" t="s">
         <v>1647</v>
       </c>
-      <c r="B59" t="s">
+      <c r="C59" t="s">
         <v>1648</v>
-      </c>
-      <c r="C59" t="s">
-        <v>1649</v>
       </c>
     </row>
     <row r="60" spans="1:4">
       <c r="A60" s="1" t="s">
-        <v>1650</v>
+        <v>1649</v>
       </c>
       <c r="B60" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="C60" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="61" spans="1:4">
       <c r="A61" s="12" t="s">
+        <v>1650</v>
+      </c>
+      <c r="B61" s="4" t="s">
         <v>1651</v>
       </c>
-      <c r="B61" s="4" t="s">
+      <c r="C61" s="4" t="s">
         <v>1652</v>
-      </c>
-      <c r="C61" s="4" t="s">
-        <v>1653</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -13913,7 +13913,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
@@ -14022,7 +14022,7 @@
         <v>504</v>
       </c>
       <c r="B9" t="s">
-        <v>1654</v>
+        <v>1653</v>
       </c>
       <c r="C9" t="s">
         <v>505</v>
@@ -14557,8 +14557,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E166"/>
   <sheetViews>
-    <sheetView topLeftCell="A112" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C124" sqref="C124"/>
+    <sheetView tabSelected="1" topLeftCell="A112" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B133" sqref="B133"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.625" defaultRowHeight="15.75"/>
@@ -16170,15 +16170,15 @@
         <v>882</v>
       </c>
       <c r="B132" s="4" t="s">
+        <v>1654</v>
+      </c>
+      <c r="C132" s="4" t="s">
         <v>883</v>
-      </c>
-      <c r="C132" s="4" t="s">
-        <v>884</v>
       </c>
     </row>
     <row r="133" spans="1:5">
       <c r="A133" s="4" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="B133" s="4" t="s">
         <v>612</v>
@@ -16191,18 +16191,18 @@
     </row>
     <row r="134" spans="1:5">
       <c r="A134" s="4" t="s">
+        <v>885</v>
+      </c>
+      <c r="B134" s="4" t="s">
         <v>886</v>
       </c>
-      <c r="B134" s="4" t="s">
+      <c r="C134" s="4" t="s">
         <v>887</v>
-      </c>
-      <c r="C134" s="4" t="s">
-        <v>888</v>
       </c>
     </row>
     <row r="135" spans="1:5">
       <c r="A135" s="4" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="B135" s="4" t="s">
         <v>612</v>
@@ -16215,18 +16215,18 @@
     </row>
     <row r="136" spans="1:5">
       <c r="A136" s="4" t="s">
+        <v>889</v>
+      </c>
+      <c r="B136" s="4" t="s">
         <v>890</v>
       </c>
-      <c r="B136" s="4" t="s">
+      <c r="C136" s="4" t="s">
         <v>891</v>
-      </c>
-      <c r="C136" s="4" t="s">
-        <v>892</v>
       </c>
     </row>
     <row r="137" spans="1:5">
       <c r="A137" s="4" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="B137" s="4" t="s">
         <v>612</v>
@@ -16239,18 +16239,18 @@
     </row>
     <row r="138" spans="1:5">
       <c r="A138" s="4" t="s">
+        <v>893</v>
+      </c>
+      <c r="B138" s="4" t="s">
         <v>894</v>
       </c>
-      <c r="B138" s="4" t="s">
+      <c r="C138" s="4" t="s">
         <v>895</v>
-      </c>
-      <c r="C138" s="4" t="s">
-        <v>896</v>
       </c>
     </row>
     <row r="139" spans="1:5">
       <c r="A139" s="4" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="B139" s="4" t="s">
         <v>612</v>
@@ -16263,18 +16263,18 @@
     </row>
     <row r="140" spans="1:5">
       <c r="A140" s="4" t="s">
+        <v>897</v>
+      </c>
+      <c r="B140" s="4" t="s">
         <v>898</v>
       </c>
-      <c r="B140" s="4" t="s">
+      <c r="C140" s="4" t="s">
         <v>899</v>
-      </c>
-      <c r="C140" s="4" t="s">
-        <v>900</v>
       </c>
     </row>
     <row r="141" spans="1:5">
       <c r="A141" s="4" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="B141" s="4" t="s">
         <v>612</v>
@@ -16287,13 +16287,13 @@
     </row>
     <row r="142" spans="1:5">
       <c r="A142" s="4" t="s">
+        <v>901</v>
+      </c>
+      <c r="B142" s="4" t="s">
         <v>902</v>
       </c>
-      <c r="B142" s="4" t="s">
+      <c r="C142" s="4" t="s">
         <v>903</v>
-      </c>
-      <c r="C142" s="4" t="s">
-        <v>904</v>
       </c>
       <c r="D142" s="4" t="s">
         <v>304</v>
@@ -16302,7 +16302,7 @@
     </row>
     <row r="143" spans="1:5">
       <c r="A143" s="4" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="B143" s="4">
         <v>2</v>
@@ -16315,7 +16315,7 @@
     </row>
     <row r="144" spans="1:5">
       <c r="A144" s="4" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="B144" s="4">
         <v>3</v>
@@ -16328,7 +16328,7 @@
     </row>
     <row r="145" spans="1:5">
       <c r="A145" s="4" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="B145" s="4">
         <v>4</v>
@@ -16341,7 +16341,7 @@
     </row>
     <row r="146" spans="1:5">
       <c r="A146" s="4" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="B146" s="4">
         <v>5</v>
@@ -16354,7 +16354,7 @@
     </row>
     <row r="147" spans="1:5">
       <c r="A147" s="4" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="B147" s="4">
         <v>6</v>
@@ -16367,7 +16367,7 @@
     </row>
     <row r="148" spans="1:5">
       <c r="A148" s="4" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="B148" s="4">
         <v>7</v>
@@ -16380,7 +16380,7 @@
     </row>
     <row r="149" spans="1:5">
       <c r="A149" s="4" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="B149" s="4">
         <v>8</v>
@@ -16393,7 +16393,7 @@
     </row>
     <row r="150" spans="1:5">
       <c r="A150" s="4" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="B150" s="4">
         <v>9</v>
@@ -16406,7 +16406,7 @@
     </row>
     <row r="151" spans="1:5">
       <c r="A151" s="4" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="B151" s="4">
         <v>10</v>
@@ -16419,7 +16419,7 @@
     </row>
     <row r="152" spans="1:5">
       <c r="A152" s="4" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="B152" s="4">
         <v>11</v>
@@ -16432,7 +16432,7 @@
     </row>
     <row r="153" spans="1:5">
       <c r="A153" s="4" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="B153" s="4">
         <v>12</v>
@@ -16445,7 +16445,7 @@
     </row>
     <row r="154" spans="1:5">
       <c r="A154" s="4" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="B154" s="4">
         <v>13</v>
@@ -16458,7 +16458,7 @@
     </row>
     <row r="155" spans="1:5">
       <c r="A155" s="4" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="B155" s="4">
         <v>14</v>
@@ -16471,7 +16471,7 @@
     </row>
     <row r="156" spans="1:5">
       <c r="A156" s="4" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="B156" s="4">
         <v>15</v>
@@ -16484,7 +16484,7 @@
     </row>
     <row r="157" spans="1:5">
       <c r="A157" s="4" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="B157" s="4">
         <v>16</v>
@@ -16497,7 +16497,7 @@
     </row>
     <row r="158" spans="1:5">
       <c r="A158" s="4" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="B158" s="4">
         <v>17</v>
@@ -16510,7 +16510,7 @@
     </row>
     <row r="159" spans="1:5">
       <c r="A159" s="4" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="B159" s="4">
         <v>18</v>
@@ -16523,7 +16523,7 @@
     </row>
     <row r="160" spans="1:5">
       <c r="A160" s="4" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="B160" s="4">
         <v>19</v>
@@ -16536,7 +16536,7 @@
     </row>
     <row r="161" spans="1:5">
       <c r="A161" s="4" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="B161" s="6" t="s">
         <v>813</v>
@@ -16551,13 +16551,13 @@
     </row>
     <row r="162" spans="1:5">
       <c r="A162" s="4" t="s">
+        <v>923</v>
+      </c>
+      <c r="B162" s="6" t="s">
         <v>924</v>
       </c>
-      <c r="B162" s="6" t="s">
+      <c r="C162" s="4" t="s">
         <v>925</v>
-      </c>
-      <c r="C162" s="4" t="s">
-        <v>926</v>
       </c>
       <c r="D162" s="4" t="s">
         <v>304</v>
@@ -16566,35 +16566,35 @@
     </row>
     <row r="163" spans="1:5">
       <c r="A163" s="4" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="B163" s="23" t="s">
         <v>129</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
     </row>
     <row r="164" spans="1:5">
       <c r="A164" s="4" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="B164" s="4" t="s">
         <v>131</v>
       </c>
       <c r="C164" s="4" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
     </row>
     <row r="165" spans="1:5">
       <c r="A165" s="4" t="s">
+        <v>930</v>
+      </c>
+      <c r="B165" s="4" t="s">
         <v>931</v>
       </c>
-      <c r="B165" s="4" t="s">
+      <c r="C165" s="4" t="s">
         <v>932</v>
-      </c>
-      <c r="C165" s="4" t="s">
-        <v>933</v>
       </c>
     </row>
     <row r="166" spans="1:5">

--- a/data_raw/ids_questionnaire.xlsx
+++ b/data_raw/ids_questionnaire.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="GEN" sheetId="1" r:id="rId1"/>
@@ -697,9 +697,6 @@
     <t>THOP_0000_I_0001_1</t>
   </si>
   <si>
-    <t>Fragebogen zum Hoffnung</t>
-  </si>
-  <si>
     <t>Children's Hope Scale</t>
   </si>
   <si>
@@ -5119,6 +5116,9 @@
   </si>
   <si>
     <t xml:space="preserve">Ich würde mich selbst nicht als MusikerIn bezeichnen. </t>
+  </si>
+  <si>
+    <t>Fragebogen zur Hoffnung</t>
   </si>
 </sst>
 </file>
@@ -8115,164 +8115,164 @@
     </row>
     <row r="2" spans="1:5" s="1" customFormat="1">
       <c r="A2" s="1" t="s">
+        <v>932</v>
+      </c>
+      <c r="B2" s="24" t="s">
         <v>933</v>
       </c>
-      <c r="B2" s="24" t="s">
+      <c r="C2" s="1" t="s">
         <v>934</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>935</v>
-      </c>
       <c r="D2" s="8" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
+        <v>935</v>
+      </c>
+      <c r="B3" t="s">
         <v>936</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>937</v>
-      </c>
-      <c r="C3" t="s">
-        <v>938</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
+        <v>938</v>
+      </c>
+      <c r="B4" t="s">
         <v>939</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>940</v>
-      </c>
-      <c r="C4" t="s">
-        <v>941</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="1" t="s">
+        <v>941</v>
+      </c>
+      <c r="B5" t="s">
         <v>942</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>943</v>
-      </c>
-      <c r="C5" t="s">
-        <v>944</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="1" t="s">
+        <v>944</v>
+      </c>
+      <c r="B6" t="s">
         <v>945</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>946</v>
-      </c>
-      <c r="C6" t="s">
-        <v>947</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="1" t="s">
+        <v>947</v>
+      </c>
+      <c r="B7" t="s">
         <v>948</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>949</v>
-      </c>
-      <c r="C7" t="s">
-        <v>950</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="1" t="s">
+        <v>950</v>
+      </c>
+      <c r="B8" t="s">
         <v>951</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>952</v>
-      </c>
-      <c r="C8" t="s">
-        <v>953</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="1" t="s">
+        <v>953</v>
+      </c>
+      <c r="B9" t="s">
         <v>954</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>955</v>
-      </c>
-      <c r="C9" t="s">
-        <v>956</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="1" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="B10" t="s">
+        <v>939</v>
+      </c>
+      <c r="C10" t="s">
         <v>940</v>
-      </c>
-      <c r="C10" t="s">
-        <v>941</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="1" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="B11" t="s">
+        <v>942</v>
+      </c>
+      <c r="C11" t="s">
         <v>943</v>
-      </c>
-      <c r="C11" t="s">
-        <v>944</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="1" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="B12" t="s">
+        <v>945</v>
+      </c>
+      <c r="C12" t="s">
         <v>946</v>
-      </c>
-      <c r="C12" t="s">
-        <v>947</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="1" t="s">
+        <v>959</v>
+      </c>
+      <c r="B13" t="s">
         <v>960</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C13" t="s">
         <v>961</v>
-      </c>
-      <c r="C13" t="s">
-        <v>962</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="1" t="s">
+        <v>962</v>
+      </c>
+      <c r="B14" t="s">
         <v>963</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C14" t="s">
         <v>964</v>
-      </c>
-      <c r="C14" t="s">
-        <v>965</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="1" t="s">
+        <v>965</v>
+      </c>
+      <c r="B15" t="s">
         <v>966</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C15" t="s">
         <v>967</v>
-      </c>
-      <c r="C15" t="s">
-        <v>968</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="1" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="B16" t="s">
         <v>50</v>
@@ -8283,123 +8283,123 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="1" t="s">
+        <v>969</v>
+      </c>
+      <c r="B17" t="s">
         <v>970</v>
       </c>
-      <c r="B17" t="s">
+      <c r="C17" t="s">
         <v>971</v>
-      </c>
-      <c r="C17" t="s">
-        <v>972</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="1" t="s">
+        <v>972</v>
+      </c>
+      <c r="B18" t="s">
         <v>973</v>
       </c>
-      <c r="B18" t="s">
+      <c r="C18" t="s">
         <v>974</v>
-      </c>
-      <c r="C18" t="s">
-        <v>975</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="1" t="s">
+        <v>975</v>
+      </c>
+      <c r="B19" t="s">
         <v>976</v>
       </c>
-      <c r="B19" t="s">
+      <c r="C19" t="s">
         <v>977</v>
-      </c>
-      <c r="C19" t="s">
-        <v>978</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="1" t="s">
+        <v>978</v>
+      </c>
+      <c r="B20" t="s">
         <v>979</v>
       </c>
-      <c r="B20" t="s">
+      <c r="C20" t="s">
         <v>980</v>
-      </c>
-      <c r="C20" t="s">
-        <v>981</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="1" t="s">
+        <v>981</v>
+      </c>
+      <c r="B21" t="s">
         <v>982</v>
       </c>
-      <c r="B21" t="s">
+      <c r="C21" t="s">
         <v>983</v>
-      </c>
-      <c r="C21" t="s">
-        <v>984</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="1" t="s">
+        <v>984</v>
+      </c>
+      <c r="B22" t="s">
         <v>985</v>
       </c>
-      <c r="B22" t="s">
+      <c r="C22" t="s">
         <v>986</v>
-      </c>
-      <c r="C22" t="s">
-        <v>987</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="1" t="s">
+        <v>987</v>
+      </c>
+      <c r="B23" t="s">
         <v>988</v>
       </c>
-      <c r="B23" t="s">
+      <c r="C23" t="s">
         <v>989</v>
-      </c>
-      <c r="C23" t="s">
-        <v>990</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="1" t="s">
+        <v>990</v>
+      </c>
+      <c r="B24" t="s">
         <v>991</v>
       </c>
-      <c r="B24" t="s">
+      <c r="C24" t="s">
         <v>992</v>
-      </c>
-      <c r="C24" t="s">
-        <v>993</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="1" t="s">
+        <v>993</v>
+      </c>
+      <c r="B25" t="s">
         <v>994</v>
       </c>
-      <c r="B25" t="s">
+      <c r="C25" t="s">
         <v>995</v>
-      </c>
-      <c r="C25" t="s">
-        <v>996</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="1" t="s">
+        <v>996</v>
+      </c>
+      <c r="B26" t="s">
         <v>997</v>
       </c>
-      <c r="B26" t="s">
+      <c r="C26" t="s">
         <v>998</v>
-      </c>
-      <c r="C26" t="s">
-        <v>999</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="1" t="s">
+        <v>999</v>
+      </c>
+      <c r="B27" s="4" t="s">
         <v>1000</v>
       </c>
-      <c r="B27" s="4" t="s">
+      <c r="C27" s="4" t="s">
         <v>1001</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>1002</v>
       </c>
     </row>
   </sheetData>
@@ -8438,54 +8438,54 @@
     </row>
     <row r="2" spans="1:5" s="1" customFormat="1">
       <c r="A2" s="1" t="s">
+        <v>1002</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>1003</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>1004</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>1005</v>
-      </c>
       <c r="D2" s="8" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
+        <v>1005</v>
+      </c>
+      <c r="B3" s="8" t="s">
         <v>1006</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="C3" t="s">
         <v>1007</v>
-      </c>
-      <c r="C3" t="s">
-        <v>1008</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
+        <v>1008</v>
+      </c>
+      <c r="B4" s="8" t="s">
         <v>1009</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="C4" t="s">
         <v>1010</v>
-      </c>
-      <c r="C4" t="s">
-        <v>1011</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="B5" t="s">
         <v>52</v>
       </c>
       <c r="C5" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="B6" t="s">
         <v>54</v>
@@ -8496,172 +8496,172 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="B7" t="s">
         <v>56</v>
       </c>
       <c r="C7" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="B8" t="s">
         <v>174</v>
       </c>
       <c r="C8" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="1" t="s">
+        <v>1018</v>
+      </c>
+      <c r="B9" t="s">
         <v>1019</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>1020</v>
-      </c>
-      <c r="C9" t="s">
-        <v>1021</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="B10" t="s">
         <v>50</v>
       </c>
       <c r="C10" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="B11" t="s">
+        <v>942</v>
+      </c>
+      <c r="C11" t="s">
         <v>943</v>
-      </c>
-      <c r="C11" t="s">
-        <v>944</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="B12" t="s">
+        <v>945</v>
+      </c>
+      <c r="C12" t="s">
         <v>946</v>
-      </c>
-      <c r="C12" t="s">
-        <v>947</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="B13" t="s">
+        <v>948</v>
+      </c>
+      <c r="C13" t="s">
         <v>949</v>
-      </c>
-      <c r="C13" t="s">
-        <v>950</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="B14" t="s">
+        <v>951</v>
+      </c>
+      <c r="C14" t="s">
         <v>952</v>
-      </c>
-      <c r="C14" t="s">
-        <v>953</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="1" t="s">
+        <v>1026</v>
+      </c>
+      <c r="B15" t="s">
         <v>1027</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C15" t="s">
         <v>1028</v>
-      </c>
-      <c r="C15" t="s">
-        <v>1029</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="B16" t="s">
         <v>50</v>
       </c>
       <c r="C16" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="B17" t="s">
+        <v>942</v>
+      </c>
+      <c r="C17" t="s">
         <v>943</v>
-      </c>
-      <c r="C17" t="s">
-        <v>944</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="B18" t="s">
+        <v>945</v>
+      </c>
+      <c r="C18" t="s">
         <v>946</v>
-      </c>
-      <c r="C18" t="s">
-        <v>947</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="B19" t="s">
+        <v>960</v>
+      </c>
+      <c r="C19" t="s">
         <v>961</v>
-      </c>
-      <c r="C19" t="s">
-        <v>962</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="B20" t="s">
+        <v>963</v>
+      </c>
+      <c r="C20" t="s">
         <v>964</v>
-      </c>
-      <c r="C20" t="s">
-        <v>965</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="1" t="s">
+        <v>1034</v>
+      </c>
+      <c r="B21" t="s">
         <v>1035</v>
       </c>
-      <c r="B21" t="s">
+      <c r="C21" t="s">
         <v>1036</v>
-      </c>
-      <c r="C21" t="s">
-        <v>1037</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="B22" t="s">
         <v>50</v>
@@ -8672,123 +8672,123 @@
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
+        <v>1038</v>
+      </c>
+      <c r="B23" t="s">
         <v>1039</v>
       </c>
-      <c r="B23" t="s">
-        <v>1040</v>
-      </c>
       <c r="C23" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="B24" t="s">
+        <v>973</v>
+      </c>
+      <c r="C24" t="s">
         <v>974</v>
-      </c>
-      <c r="C24" t="s">
-        <v>975</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="B25" t="s">
+        <v>976</v>
+      </c>
+      <c r="C25" t="s">
         <v>977</v>
-      </c>
-      <c r="C25" t="s">
-        <v>978</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="B26" t="s">
+        <v>979</v>
+      </c>
+      <c r="C26" t="s">
         <v>980</v>
-      </c>
-      <c r="C26" t="s">
-        <v>981</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="1" t="s">
+        <v>1043</v>
+      </c>
+      <c r="B27" t="s">
         <v>1044</v>
       </c>
-      <c r="B27" t="s">
+      <c r="C27" t="s">
         <v>1045</v>
-      </c>
-      <c r="C27" t="s">
-        <v>1046</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="B28" t="s">
         <v>50</v>
       </c>
       <c r="C28" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="B29" t="s">
+        <v>988</v>
+      </c>
+      <c r="C29" t="s">
         <v>989</v>
-      </c>
-      <c r="C29" t="s">
-        <v>990</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
+        <v>1048</v>
+      </c>
+      <c r="B30" t="s">
         <v>1049</v>
       </c>
-      <c r="B30" t="s">
-        <v>1050</v>
-      </c>
       <c r="C30" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="B31" t="s">
+        <v>994</v>
+      </c>
+      <c r="C31" t="s">
         <v>995</v>
-      </c>
-      <c r="C31" t="s">
-        <v>996</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
+        <v>1051</v>
+      </c>
+      <c r="B32" t="s">
         <v>1052</v>
       </c>
-      <c r="B32" t="s">
-        <v>1053</v>
-      </c>
       <c r="C32" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="1" t="s">
+        <v>1053</v>
+      </c>
+      <c r="B33" s="4" t="s">
         <v>1054</v>
       </c>
-      <c r="B33" s="4" t="s">
+      <c r="C33" s="4" t="s">
         <v>1055</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>1056</v>
       </c>
     </row>
   </sheetData>
@@ -8827,574 +8827,574 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="12" t="s">
+        <v>1056</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>1057</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="C2" s="4" t="s">
         <v>1058</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>1059</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
+        <v>1059</v>
+      </c>
+      <c r="B3" t="s">
         <v>1060</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>1061</v>
-      </c>
-      <c r="C3" t="s">
-        <v>1062</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="15" customHeight="1">
       <c r="A4" t="s">
+        <v>1062</v>
+      </c>
+      <c r="B4" s="8" t="s">
         <v>1063</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="C4" s="4" t="s">
         <v>1064</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>1065</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="15" customHeight="1">
       <c r="A5" t="s">
+        <v>1065</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>1066</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>1067</v>
-      </c>
       <c r="C5" s="4" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" t="s">
+        <v>1067</v>
+      </c>
+      <c r="B6" s="8" t="s">
         <v>1068</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="C6" t="s">
         <v>1069</v>
-      </c>
-      <c r="C6" t="s">
-        <v>1070</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" t="s">
+        <v>1071</v>
+      </c>
+      <c r="B8" s="8" t="s">
         <v>1072</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="C8" t="s">
         <v>1073</v>
-      </c>
-      <c r="C8" t="s">
-        <v>1074</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" t="s">
+        <v>1075</v>
+      </c>
+      <c r="B10" s="8" t="s">
         <v>1076</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="C10" t="s">
         <v>1077</v>
-      </c>
-      <c r="C10" t="s">
-        <v>1078</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" t="s">
+        <v>1079</v>
+      </c>
+      <c r="B12" s="8" t="s">
         <v>1080</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="C12" t="s">
         <v>1081</v>
-      </c>
-      <c r="C12" t="s">
-        <v>1082</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" t="s">
+        <v>1083</v>
+      </c>
+      <c r="B14" s="8" t="s">
         <v>1084</v>
       </c>
-      <c r="B14" s="8" t="s">
+      <c r="C14" t="s">
         <v>1085</v>
-      </c>
-      <c r="C14" t="s">
-        <v>1086</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" t="s">
+        <v>1087</v>
+      </c>
+      <c r="B16" s="8" t="s">
         <v>1088</v>
       </c>
-      <c r="B16" s="8" t="s">
+      <c r="C16" t="s">
         <v>1089</v>
-      </c>
-      <c r="C16" t="s">
-        <v>1090</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
+        <v>1091</v>
+      </c>
+      <c r="B18" s="8" t="s">
         <v>1092</v>
       </c>
-      <c r="B18" s="8" t="s">
+      <c r="C18" t="s">
         <v>1093</v>
-      </c>
-      <c r="C18" t="s">
-        <v>1094</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
+        <v>1095</v>
+      </c>
+      <c r="B20" s="8" t="s">
         <v>1096</v>
       </c>
-      <c r="B20" s="8" t="s">
+      <c r="C20" t="s">
         <v>1097</v>
-      </c>
-      <c r="C20" t="s">
-        <v>1098</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
+        <v>1099</v>
+      </c>
+      <c r="B22" s="8" t="s">
         <v>1100</v>
       </c>
-      <c r="B22" s="8" t="s">
+      <c r="C22" t="s">
         <v>1101</v>
-      </c>
-      <c r="C22" t="s">
-        <v>1102</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
+        <v>1103</v>
+      </c>
+      <c r="B24" s="8" t="s">
         <v>1104</v>
       </c>
-      <c r="B24" s="8" t="s">
+      <c r="C24" t="s">
         <v>1105</v>
-      </c>
-      <c r="C24" t="s">
-        <v>1106</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
+        <v>1107</v>
+      </c>
+      <c r="B26" s="8" t="s">
         <v>1108</v>
       </c>
-      <c r="B26" s="8" t="s">
+      <c r="C26" t="s">
         <v>1109</v>
-      </c>
-      <c r="C26" t="s">
-        <v>1110</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
+        <v>1111</v>
+      </c>
+      <c r="B28" s="8" t="s">
         <v>1112</v>
       </c>
-      <c r="B28" s="8" t="s">
+      <c r="C28" t="s">
         <v>1113</v>
-      </c>
-      <c r="C28" t="s">
-        <v>1114</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
+        <v>1115</v>
+      </c>
+      <c r="B30" s="8" t="s">
         <v>1116</v>
       </c>
-      <c r="B30" s="8" t="s">
+      <c r="C30" t="s">
         <v>1117</v>
-      </c>
-      <c r="C30" t="s">
-        <v>1118</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
+        <v>1119</v>
+      </c>
+      <c r="B32" s="8" t="s">
         <v>1120</v>
       </c>
-      <c r="B32" s="8" t="s">
+      <c r="C32" t="s">
         <v>1121</v>
-      </c>
-      <c r="C32" t="s">
-        <v>1122</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" t="s">
+        <v>1123</v>
+      </c>
+      <c r="B34" s="8" t="s">
         <v>1124</v>
       </c>
-      <c r="B34" s="8" t="s">
+      <c r="C34" t="s">
         <v>1125</v>
-      </c>
-      <c r="C34" t="s">
-        <v>1126</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" t="s">
+        <v>1127</v>
+      </c>
+      <c r="B36" s="8" t="s">
         <v>1128</v>
       </c>
-      <c r="B36" s="8" t="s">
+      <c r="C36" t="s">
         <v>1129</v>
-      </c>
-      <c r="C36" t="s">
-        <v>1130</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" t="s">
+        <v>1131</v>
+      </c>
+      <c r="B38" s="8" t="s">
         <v>1132</v>
       </c>
-      <c r="B38" s="8" t="s">
+      <c r="C38" t="s">
         <v>1133</v>
-      </c>
-      <c r="C38" t="s">
-        <v>1134</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" t="s">
+        <v>1135</v>
+      </c>
+      <c r="B40" s="25" t="s">
         <v>1136</v>
       </c>
-      <c r="B40" s="25" t="s">
+      <c r="C40" t="s">
         <v>1137</v>
-      </c>
-      <c r="C40" t="s">
-        <v>1138</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" t="s">
+        <v>1139</v>
+      </c>
+      <c r="B42" s="8" t="s">
         <v>1140</v>
       </c>
-      <c r="B42" s="8" t="s">
+      <c r="C42" t="s">
         <v>1141</v>
-      </c>
-      <c r="C42" t="s">
-        <v>1142</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" t="s">
+        <v>1143</v>
+      </c>
+      <c r="B44" s="8" t="s">
         <v>1144</v>
       </c>
-      <c r="B44" s="8" t="s">
+      <c r="C44" t="s">
         <v>1145</v>
-      </c>
-      <c r="C44" t="s">
-        <v>1146</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" t="s">
+        <v>1147</v>
+      </c>
+      <c r="B46" t="s">
         <v>1148</v>
       </c>
-      <c r="B46" t="s">
+      <c r="C46" t="s">
         <v>1149</v>
-      </c>
-      <c r="C46" t="s">
-        <v>1150</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" t="s">
+        <v>1151</v>
+      </c>
+      <c r="B48" s="8" t="s">
         <v>1152</v>
       </c>
-      <c r="B48" s="8" t="s">
+      <c r="C48" t="s">
         <v>1153</v>
-      </c>
-      <c r="C48" t="s">
-        <v>1154</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" t="s">
+        <v>1155</v>
+      </c>
+      <c r="B50" s="8" t="s">
         <v>1156</v>
       </c>
-      <c r="B50" s="8" t="s">
+      <c r="C50" t="s">
         <v>1157</v>
-      </c>
-      <c r="C50" t="s">
-        <v>1158</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" t="s">
+        <v>1159</v>
+      </c>
+      <c r="B52" s="8" t="s">
         <v>1160</v>
       </c>
-      <c r="B52" s="8" t="s">
+      <c r="C52" t="s">
         <v>1161</v>
-      </c>
-      <c r="C52" t="s">
-        <v>1162</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
     </row>
   </sheetData>
@@ -9433,578 +9433,578 @@
     </row>
     <row r="2" spans="1:5" s="1" customFormat="1">
       <c r="A2" s="1" t="s">
+        <v>1163</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>1164</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>1165</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>1166</v>
-      </c>
       <c r="D2" s="8" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
+        <v>1166</v>
+      </c>
+      <c r="B3" s="8" t="s">
         <v>1167</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="C3" t="s">
         <v>1168</v>
-      </c>
-      <c r="C3" t="s">
-        <v>1169</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
+        <v>1169</v>
+      </c>
+      <c r="B4" t="s">
         <v>1170</v>
       </c>
-      <c r="B4" t="s">
-        <v>1171</v>
-      </c>
       <c r="C4" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="1" t="s">
+        <v>1171</v>
+      </c>
+      <c r="B5" s="8" t="s">
         <v>1172</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="C5" t="s">
         <v>1173</v>
-      </c>
-      <c r="C5" t="s">
-        <v>1174</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="1" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
       <c r="B6" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="C6" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="1" t="s">
+        <v>1175</v>
+      </c>
+      <c r="B7" s="8" t="s">
         <v>1176</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="C7" t="s">
         <v>1177</v>
-      </c>
-      <c r="C7" t="s">
-        <v>1178</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="1" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="B8" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="C8" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="1" t="s">
+        <v>1179</v>
+      </c>
+      <c r="B9" s="8" t="s">
         <v>1180</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="C9" t="s">
         <v>1181</v>
-      </c>
-      <c r="C9" t="s">
-        <v>1182</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="1" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="B10" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="C10" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="1" t="s">
+        <v>1183</v>
+      </c>
+      <c r="B11" s="8" t="s">
         <v>1184</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="C11" t="s">
         <v>1185</v>
-      </c>
-      <c r="C11" t="s">
-        <v>1186</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="1" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="B12" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="C12" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="1" t="s">
+        <v>1187</v>
+      </c>
+      <c r="B13" s="8" t="s">
         <v>1188</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="C13" t="s">
         <v>1189</v>
-      </c>
-      <c r="C13" t="s">
-        <v>1190</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="1" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="B14" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="C14" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="1" t="s">
+        <v>1191</v>
+      </c>
+      <c r="B15" s="8" t="s">
         <v>1192</v>
       </c>
-      <c r="B15" s="8" t="s">
+      <c r="C15" t="s">
         <v>1193</v>
-      </c>
-      <c r="C15" t="s">
-        <v>1194</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="1" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="B16" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="C16" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
+        <v>1195</v>
+      </c>
+      <c r="B17" s="8" t="s">
         <v>1196</v>
       </c>
-      <c r="B17" s="8" t="s">
+      <c r="C17" t="s">
         <v>1197</v>
-      </c>
-      <c r="C17" t="s">
-        <v>1198</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="1" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
       <c r="B18" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="C18" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="1" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B19" s="8" t="s">
         <v>1200</v>
       </c>
-      <c r="B19" s="8" t="s">
+      <c r="C19" t="s">
         <v>1201</v>
-      </c>
-      <c r="C19" t="s">
-        <v>1202</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="1" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="B20" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="C20" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="1" t="s">
+        <v>1203</v>
+      </c>
+      <c r="B21" s="8" t="s">
         <v>1204</v>
       </c>
-      <c r="B21" s="8" t="s">
+      <c r="C21" t="s">
         <v>1205</v>
-      </c>
-      <c r="C21" t="s">
-        <v>1206</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="1" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="B22" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="C22" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="1" t="s">
+        <v>1207</v>
+      </c>
+      <c r="B23" s="8" t="s">
         <v>1208</v>
       </c>
-      <c r="B23" s="8" t="s">
+      <c r="C23" t="s">
         <v>1209</v>
-      </c>
-      <c r="C23" t="s">
-        <v>1210</v>
       </c>
       <c r="D23" s="16"/>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="1" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="B24" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="C24" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="1" t="s">
+        <v>1211</v>
+      </c>
+      <c r="B25" s="8" t="s">
         <v>1212</v>
       </c>
-      <c r="B25" s="8" t="s">
+      <c r="C25" t="s">
         <v>1213</v>
-      </c>
-      <c r="C25" t="s">
-        <v>1214</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="1" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="B26" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="C26" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="1" t="s">
+        <v>1215</v>
+      </c>
+      <c r="B27" s="8" t="s">
         <v>1216</v>
       </c>
-      <c r="B27" s="8" t="s">
+      <c r="C27" t="s">
         <v>1217</v>
-      </c>
-      <c r="C27" t="s">
-        <v>1218</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="1" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="B28" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="C28" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="1" t="s">
+        <v>1219</v>
+      </c>
+      <c r="B29" s="8" t="s">
         <v>1220</v>
       </c>
-      <c r="B29" s="8" t="s">
+      <c r="C29" t="s">
         <v>1221</v>
-      </c>
-      <c r="C29" t="s">
-        <v>1222</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="1" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="B30" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="C30" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="1" t="s">
+        <v>1223</v>
+      </c>
+      <c r="B31" s="8" t="s">
         <v>1224</v>
       </c>
-      <c r="B31" s="8" t="s">
+      <c r="C31" t="s">
         <v>1225</v>
-      </c>
-      <c r="C31" t="s">
-        <v>1226</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="1" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="B32" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="C32" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="1" t="s">
+        <v>1227</v>
+      </c>
+      <c r="B33" s="8" t="s">
         <v>1228</v>
       </c>
-      <c r="B33" s="8" t="s">
+      <c r="C33" t="s">
         <v>1229</v>
-      </c>
-      <c r="C33" t="s">
-        <v>1230</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="1" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="B34" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="C34" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="1" t="s">
+        <v>1231</v>
+      </c>
+      <c r="B35" s="8" t="s">
         <v>1232</v>
       </c>
-      <c r="B35" s="8" t="s">
+      <c r="C35" t="s">
         <v>1233</v>
-      </c>
-      <c r="C35" t="s">
-        <v>1234</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="1" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="B36" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="C36" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="1" t="s">
+        <v>1235</v>
+      </c>
+      <c r="B37" s="8" t="s">
         <v>1236</v>
       </c>
-      <c r="B37" s="8" t="s">
+      <c r="C37" t="s">
         <v>1237</v>
-      </c>
-      <c r="C37" t="s">
-        <v>1238</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" s="1" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="B38" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="C38" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="1" t="s">
+        <v>1239</v>
+      </c>
+      <c r="B39" s="8" t="s">
         <v>1240</v>
       </c>
-      <c r="B39" s="8" t="s">
+      <c r="C39" t="s">
         <v>1241</v>
-      </c>
-      <c r="C39" t="s">
-        <v>1242</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="1" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="B40" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="C40" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="1" t="s">
+        <v>1243</v>
+      </c>
+      <c r="B41" s="8" t="s">
         <v>1244</v>
       </c>
-      <c r="B41" s="8" t="s">
+      <c r="C41" t="s">
         <v>1245</v>
-      </c>
-      <c r="C41" t="s">
-        <v>1246</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" s="1" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="B42" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="C42" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" s="1" t="s">
+        <v>1247</v>
+      </c>
+      <c r="B43" s="8" t="s">
         <v>1248</v>
       </c>
-      <c r="B43" s="8" t="s">
+      <c r="C43" t="s">
         <v>1249</v>
-      </c>
-      <c r="C43" t="s">
-        <v>1250</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" s="1" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
       <c r="B44" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="C44" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" s="1" t="s">
+        <v>1251</v>
+      </c>
+      <c r="B45" s="8" t="s">
         <v>1252</v>
       </c>
-      <c r="B45" s="8" t="s">
+      <c r="C45" t="s">
         <v>1253</v>
-      </c>
-      <c r="C45" t="s">
-        <v>1254</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" s="1" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="B46" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="C46" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" s="1" t="s">
+        <v>1255</v>
+      </c>
+      <c r="B47" s="8" t="s">
         <v>1256</v>
       </c>
-      <c r="B47" s="8" t="s">
+      <c r="C47" t="s">
         <v>1257</v>
-      </c>
-      <c r="C47" t="s">
-        <v>1258</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" s="1" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="B48" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="C48" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" s="1" t="s">
+        <v>1259</v>
+      </c>
+      <c r="B49" s="8" t="s">
         <v>1260</v>
       </c>
-      <c r="B49" s="8" t="s">
+      <c r="C49" t="s">
         <v>1261</v>
-      </c>
-      <c r="C49" t="s">
-        <v>1262</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="1" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
       <c r="B50" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="C50" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" s="1" t="s">
+        <v>1263</v>
+      </c>
+      <c r="B51" s="8" t="s">
         <v>1264</v>
       </c>
-      <c r="B51" s="8" t="s">
+      <c r="C51" t="s">
         <v>1265</v>
-      </c>
-      <c r="C51" t="s">
-        <v>1266</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" s="1" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="B52" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="C52" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" s="12" t="s">
+        <v>1267</v>
+      </c>
+      <c r="B53" s="2" t="s">
         <v>1268</v>
       </c>
-      <c r="B53" s="2" t="s">
+      <c r="C53" s="2" t="s">
         <v>1269</v>
-      </c>
-      <c r="C53" s="2" t="s">
-        <v>1270</v>
       </c>
     </row>
   </sheetData>
@@ -10018,7 +10018,7 @@
   <dimension ref="A1:E49"/>
   <sheetViews>
     <sheetView topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B44" sqref="B44"/>
+      <selection activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.625" defaultRowHeight="15.75"/>
@@ -10044,533 +10044,533 @@
     </row>
     <row r="2" spans="1:5" s="1" customFormat="1">
       <c r="A2" s="1" t="s">
+        <v>1270</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>1271</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>1272</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>1273</v>
-      </c>
       <c r="D2" s="8" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
+        <v>1273</v>
+      </c>
+      <c r="B3" t="s">
         <v>1274</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>1275</v>
-      </c>
-      <c r="C3" t="s">
-        <v>1276</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
+        <v>1276</v>
+      </c>
+      <c r="B4" t="s">
         <v>1277</v>
       </c>
-      <c r="B4" t="s">
-        <v>1278</v>
-      </c>
       <c r="C4" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
+        <v>1278</v>
+      </c>
+      <c r="B5" t="s">
         <v>1279</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>1280</v>
-      </c>
-      <c r="C5" t="s">
-        <v>1281</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
       <c r="B6" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="C6" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
+        <v>1282</v>
+      </c>
+      <c r="B7" t="s">
         <v>1283</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>1284</v>
-      </c>
-      <c r="C7" t="s">
-        <v>1285</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="B8" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="C8" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
+        <v>1286</v>
+      </c>
+      <c r="B9" t="s">
         <v>1287</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>1288</v>
-      </c>
-      <c r="C9" t="s">
-        <v>1289</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="B10" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="C10" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
+        <v>1290</v>
+      </c>
+      <c r="B11" t="s">
         <v>1291</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" t="s">
         <v>1292</v>
-      </c>
-      <c r="C11" t="s">
-        <v>1293</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
       <c r="B12" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="C12" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
+        <v>1294</v>
+      </c>
+      <c r="B13" t="s">
         <v>1295</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C13" t="s">
         <v>1296</v>
-      </c>
-      <c r="C13" t="s">
-        <v>1297</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
       <c r="B14" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="C14" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
+        <v>1298</v>
+      </c>
+      <c r="B15" t="s">
         <v>1299</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C15" t="s">
         <v>1300</v>
-      </c>
-      <c r="C15" t="s">
-        <v>1301</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
       <c r="B16" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="C16" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
+        <v>1302</v>
+      </c>
+      <c r="B17" t="s">
         <v>1303</v>
       </c>
-      <c r="B17" t="s">
+      <c r="C17" t="s">
         <v>1304</v>
-      </c>
-      <c r="C17" t="s">
-        <v>1305</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
+        <v>1305</v>
+      </c>
+      <c r="B18" t="s">
         <v>1306</v>
       </c>
-      <c r="B18" t="s">
-        <v>1307</v>
-      </c>
       <c r="C18" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
+        <v>1307</v>
+      </c>
+      <c r="B19" t="s">
         <v>1308</v>
       </c>
-      <c r="B19" t="s">
+      <c r="C19" t="s">
         <v>1309</v>
-      </c>
-      <c r="C19" t="s">
-        <v>1310</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
       <c r="B20" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
       <c r="C20" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
+        <v>1311</v>
+      </c>
+      <c r="B21" t="s">
         <v>1312</v>
       </c>
-      <c r="B21" t="s">
+      <c r="C21" t="s">
         <v>1313</v>
-      </c>
-      <c r="C21" t="s">
-        <v>1314</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="B22" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
       <c r="C22" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
+        <v>1315</v>
+      </c>
+      <c r="B23" t="s">
         <v>1316</v>
       </c>
-      <c r="B23" t="s">
+      <c r="C23" t="s">
         <v>1317</v>
-      </c>
-      <c r="C23" t="s">
-        <v>1318</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
       <c r="B24" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
       <c r="C24" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
+        <v>1319</v>
+      </c>
+      <c r="B25" t="s">
         <v>1320</v>
       </c>
-      <c r="B25" t="s">
+      <c r="C25" t="s">
         <v>1321</v>
-      </c>
-      <c r="C25" t="s">
-        <v>1322</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
       <c r="B26" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
       <c r="C26" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
+        <v>1323</v>
+      </c>
+      <c r="B27" s="24" t="s">
         <v>1324</v>
       </c>
-      <c r="B27" s="24" t="s">
+      <c r="C27" t="s">
         <v>1325</v>
-      </c>
-      <c r="C27" t="s">
-        <v>1326</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>1327</v>
+        <v>1326</v>
       </c>
       <c r="B28" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
       <c r="C28" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
+        <v>1327</v>
+      </c>
+      <c r="B29" s="1" t="s">
         <v>1328</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="C29" t="s">
         <v>1329</v>
-      </c>
-      <c r="C29" t="s">
-        <v>1330</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
       <c r="B30" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
       <c r="C30" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
+        <v>1331</v>
+      </c>
+      <c r="B31" s="1" t="s">
         <v>1332</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="C31" t="s">
         <v>1333</v>
-      </c>
-      <c r="C31" t="s">
-        <v>1334</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
-        <v>1335</v>
+        <v>1334</v>
       </c>
       <c r="B32" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
       <c r="C32" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="s">
+        <v>1335</v>
+      </c>
+      <c r="B33" t="s">
         <v>1336</v>
       </c>
-      <c r="B33" t="s">
+      <c r="C33" t="s">
         <v>1337</v>
-      </c>
-      <c r="C33" t="s">
-        <v>1338</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
       <c r="B34" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="C34" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" t="s">
+        <v>1339</v>
+      </c>
+      <c r="B35" t="s">
         <v>1340</v>
       </c>
-      <c r="B35" t="s">
+      <c r="C35" t="s">
         <v>1341</v>
-      </c>
-      <c r="C35" t="s">
-        <v>1342</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="B36" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="C36" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" t="s">
+        <v>1343</v>
+      </c>
+      <c r="B37" t="s">
         <v>1344</v>
       </c>
-      <c r="B37" t="s">
+      <c r="C37" t="s">
         <v>1345</v>
-      </c>
-      <c r="C37" t="s">
-        <v>1346</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
       <c r="B38" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="C38" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" t="s">
+        <v>1347</v>
+      </c>
+      <c r="B39" t="s">
         <v>1348</v>
       </c>
-      <c r="B39" t="s">
+      <c r="C39" t="s">
         <v>1349</v>
-      </c>
-      <c r="C39" t="s">
-        <v>1350</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" t="s">
-        <v>1351</v>
+        <v>1350</v>
       </c>
       <c r="B40" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="C40" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" t="s">
+        <v>1351</v>
+      </c>
+      <c r="B41" s="1" t="s">
         <v>1352</v>
       </c>
-      <c r="B41" s="1" t="s">
+      <c r="C41" t="s">
         <v>1353</v>
-      </c>
-      <c r="C41" t="s">
-        <v>1354</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" t="s">
-        <v>1355</v>
+        <v>1354</v>
       </c>
       <c r="B42" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="C42" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" t="s">
+        <v>1355</v>
+      </c>
+      <c r="B43" s="1" t="s">
         <v>1356</v>
       </c>
-      <c r="B43" s="1" t="s">
+      <c r="C43" t="s">
         <v>1357</v>
-      </c>
-      <c r="C43" t="s">
-        <v>1358</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" t="s">
-        <v>1359</v>
+        <v>1358</v>
       </c>
       <c r="B44" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="C44" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" t="s">
+        <v>1359</v>
+      </c>
+      <c r="B45" t="s">
         <v>1360</v>
       </c>
-      <c r="B45" t="s">
+      <c r="C45" t="s">
         <v>1361</v>
-      </c>
-      <c r="C45" t="s">
-        <v>1362</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" t="s">
-        <v>1363</v>
+        <v>1362</v>
       </c>
       <c r="B46" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="C46" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" t="s">
+        <v>1363</v>
+      </c>
+      <c r="B47" t="s">
         <v>1364</v>
       </c>
-      <c r="B47" t="s">
+      <c r="C47" t="s">
         <v>1365</v>
-      </c>
-      <c r="C47" t="s">
-        <v>1366</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" t="s">
-        <v>1367</v>
+        <v>1366</v>
       </c>
       <c r="B48" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="C48" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" s="12" t="s">
+        <v>1367</v>
+      </c>
+      <c r="B49" s="4" t="s">
         <v>1368</v>
       </c>
-      <c r="B49" s="4" t="s">
+      <c r="C49" s="4" t="s">
         <v>1369</v>
-      </c>
-      <c r="C49" s="4" t="s">
-        <v>1370</v>
       </c>
     </row>
   </sheetData>
@@ -10609,249 +10609,249 @@
     </row>
     <row r="2" spans="1:5" s="1" customFormat="1">
       <c r="A2" s="1" t="s">
+        <v>1370</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>1371</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>1372</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>1373</v>
       </c>
       <c r="D2" s="16"/>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="B3" s="10" t="s">
         <v>1374</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="C3" t="s">
         <v>1375</v>
-      </c>
-      <c r="C3" t="s">
-        <v>1376</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
+        <v>1376</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>1377</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>1378</v>
-      </c>
       <c r="C4" s="1" t="s">
-        <v>1378</v>
+        <v>1377</v>
       </c>
       <c r="E4" s="13"/>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="1" t="s">
+        <v>1378</v>
+      </c>
+      <c r="B5" s="10" t="s">
         <v>1379</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="C5" t="s">
         <v>1380</v>
-      </c>
-      <c r="C5" t="s">
-        <v>1381</v>
       </c>
       <c r="E5" s="1"/>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>1378</v>
+        <v>1377</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>1378</v>
+        <v>1377</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="1" t="s">
+        <v>1382</v>
+      </c>
+      <c r="B7" s="10" t="s">
         <v>1383</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="C7" t="s">
         <v>1384</v>
-      </c>
-      <c r="C7" t="s">
-        <v>1385</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>1378</v>
+        <v>1377</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>1378</v>
+        <v>1377</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="1" t="s">
+        <v>1386</v>
+      </c>
+      <c r="B9" s="10" t="s">
         <v>1387</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="C9" t="s">
         <v>1388</v>
-      </c>
-      <c r="C9" t="s">
-        <v>1389</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>1390</v>
+        <v>1389</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>1378</v>
+        <v>1377</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>1378</v>
+        <v>1377</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="1" t="s">
+        <v>1390</v>
+      </c>
+      <c r="B11" s="10" t="s">
         <v>1391</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="C11" s="1" t="s">
         <v>1392</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>1393</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>1394</v>
+        <v>1393</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>1378</v>
+        <v>1377</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>1378</v>
+        <v>1377</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="1" t="s">
+        <v>1394</v>
+      </c>
+      <c r="B13" s="10" t="s">
         <v>1395</v>
       </c>
-      <c r="B13" s="10" t="s">
+      <c r="C13" t="s">
         <v>1396</v>
-      </c>
-      <c r="C13" t="s">
-        <v>1397</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>1378</v>
+        <v>1377</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>1378</v>
+        <v>1377</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="1" t="s">
+        <v>1398</v>
+      </c>
+      <c r="B15" s="10" t="s">
         <v>1399</v>
       </c>
-      <c r="B15" s="10" t="s">
+      <c r="C15" t="s">
         <v>1400</v>
-      </c>
-      <c r="C15" t="s">
-        <v>1401</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>1402</v>
+        <v>1401</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>1378</v>
+        <v>1377</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>1378</v>
+        <v>1377</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="1" t="s">
+        <v>1402</v>
+      </c>
+      <c r="B17" s="10" t="s">
         <v>1403</v>
       </c>
-      <c r="B17" s="10" t="s">
+      <c r="C17" t="s">
         <v>1404</v>
-      </c>
-      <c r="C17" t="s">
-        <v>1405</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>1378</v>
+        <v>1377</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>1378</v>
+        <v>1377</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="1" t="s">
+        <v>1406</v>
+      </c>
+      <c r="B19" s="10" t="s">
         <v>1407</v>
       </c>
-      <c r="B19" s="10" t="s">
+      <c r="C19" t="s">
         <v>1408</v>
-      </c>
-      <c r="C19" t="s">
-        <v>1409</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>1378</v>
+        <v>1377</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>1378</v>
+        <v>1377</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="1" t="s">
+        <v>1410</v>
+      </c>
+      <c r="B21" s="10" t="s">
         <v>1411</v>
       </c>
-      <c r="B21" s="10" t="s">
+      <c r="C21" t="s">
         <v>1412</v>
-      </c>
-      <c r="C21" t="s">
-        <v>1413</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>1414</v>
+        <v>1413</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>1378</v>
+        <v>1377</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>1378</v>
+        <v>1377</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="12" t="s">
+        <v>1414</v>
+      </c>
+      <c r="B23" s="4" t="s">
         <v>1415</v>
       </c>
-      <c r="B23" s="4" t="s">
+      <c r="C23" s="4" t="s">
         <v>1416</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>1417</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -10967,156 +10967,156 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
+        <v>1417</v>
+      </c>
+      <c r="B2" s="15" t="s">
         <v>1418</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="C2" s="4" t="s">
         <v>1419</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>1420</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
+        <v>1420</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>1421</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>1422</v>
-      </c>
       <c r="C3" s="1" t="s">
-        <v>1422</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
+        <v>1422</v>
+      </c>
+      <c r="B4" s="15" t="s">
         <v>1423</v>
       </c>
-      <c r="B4" s="15" t="s">
+      <c r="C4" s="4" t="s">
         <v>1424</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>1425</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>1426</v>
+        <v>1425</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1422</v>
+        <v>1421</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>1422</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="6" spans="1:5" s="1" customFormat="1">
       <c r="A6" s="1" t="s">
+        <v>1426</v>
+      </c>
+      <c r="B6" s="6" t="s">
         <v>1427</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="C6" s="4" t="s">
         <v>1428</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>1429</v>
       </c>
       <c r="E6" s="12"/>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="1" t="s">
+        <v>1429</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>1430</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="C7" s="4" t="s">
         <v>1431</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>1432</v>
       </c>
       <c r="E7" s="16"/>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="1" t="s">
+        <v>1432</v>
+      </c>
+      <c r="B8" s="15" t="s">
         <v>1433</v>
       </c>
-      <c r="B8" s="15" t="s">
+      <c r="C8" s="4" t="s">
         <v>1434</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>1435</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="1" t="s">
+        <v>1435</v>
+      </c>
+      <c r="B9" s="15" t="s">
         <v>1436</v>
       </c>
-      <c r="B9" s="15" t="s">
+      <c r="C9" s="4" t="s">
         <v>1437</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>1438</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="1" t="s">
+        <v>1438</v>
+      </c>
+      <c r="B10" s="18" t="s">
         <v>1439</v>
       </c>
-      <c r="B10" s="18" t="s">
+      <c r="C10" s="4" t="s">
         <v>1440</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>1441</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="1" t="s">
+        <v>1441</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>1442</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="C11" s="4" t="s">
         <v>1443</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>1444</v>
       </c>
       <c r="E11" s="16"/>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="1" t="s">
+        <v>1444</v>
+      </c>
+      <c r="B12" s="15" t="s">
         <v>1445</v>
       </c>
-      <c r="B12" s="15" t="s">
+      <c r="C12" s="4" t="s">
         <v>1446</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>1447</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="1" t="s">
+        <v>1447</v>
+      </c>
+      <c r="B13" s="15" t="s">
         <v>1448</v>
       </c>
-      <c r="B13" s="15" t="s">
+      <c r="C13" s="4" t="s">
         <v>1449</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>1450</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="1" t="s">
+        <v>1450</v>
+      </c>
+      <c r="B14" s="18" t="s">
         <v>1451</v>
       </c>
-      <c r="B14" s="18" t="s">
+      <c r="C14" s="4" t="s">
         <v>1452</v>
       </c>
-      <c r="C14" s="4" t="s">
-        <v>1453</v>
-      </c>
       <c r="E14" s="8" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="1" t="s">
-        <v>1454</v>
+        <v>1453</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>129</v>
@@ -11127,7 +11127,7 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="1" t="s">
-        <v>1455</v>
+        <v>1454</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>131</v>
@@ -11138,113 +11138,113 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="1" t="s">
+        <v>1455</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>1456</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="C17" t="s">
         <v>1457</v>
-      </c>
-      <c r="C17" t="s">
-        <v>1458</v>
       </c>
       <c r="E17" s="16"/>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="1" t="s">
+        <v>1458</v>
+      </c>
+      <c r="B18" s="8" t="s">
         <v>1459</v>
       </c>
-      <c r="B18" s="8" t="s">
+      <c r="C18" s="4" t="s">
         <v>1460</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>1461</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="1" t="s">
+        <v>1461</v>
+      </c>
+      <c r="B19" s="8" t="s">
         <v>1462</v>
       </c>
-      <c r="B19" s="8" t="s">
+      <c r="C19" s="4" t="s">
         <v>1463</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>1464</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="1" t="s">
+        <v>1464</v>
+      </c>
+      <c r="B20" s="8" t="s">
         <v>1465</v>
       </c>
-      <c r="B20" s="8" t="s">
+      <c r="C20" s="4" t="s">
         <v>1466</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>1467</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="1" t="s">
+        <v>1467</v>
+      </c>
+      <c r="B21" s="8" t="s">
         <v>1468</v>
       </c>
-      <c r="B21" s="8" t="s">
+      <c r="C21" s="4" t="s">
         <v>1469</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>1470</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="1" t="s">
+        <v>1470</v>
+      </c>
+      <c r="B22" s="8" t="s">
         <v>1471</v>
       </c>
-      <c r="B22" s="8" t="s">
+      <c r="C22" s="4" t="s">
         <v>1472</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>1473</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="1" t="s">
+        <v>1473</v>
+      </c>
+      <c r="B23" s="8" t="s">
         <v>1474</v>
       </c>
-      <c r="B23" s="8" t="s">
+      <c r="C23" s="4" t="s">
         <v>1475</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>1476</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="1" t="s">
+        <v>1476</v>
+      </c>
+      <c r="B24" s="8" t="s">
         <v>1477</v>
       </c>
-      <c r="B24" s="8" t="s">
+      <c r="C24" s="4" t="s">
         <v>1478</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>1479</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="1" t="s">
+        <v>1479</v>
+      </c>
+      <c r="B25" s="8" t="s">
         <v>1480</v>
       </c>
-      <c r="B25" s="8" t="s">
+      <c r="C25" s="4" t="s">
         <v>1481</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>1482</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="12" t="s">
+        <v>1482</v>
+      </c>
+      <c r="B26" s="4" t="s">
         <v>1483</v>
       </c>
-      <c r="B26" s="4" t="s">
+      <c r="C26" s="4" t="s">
         <v>1484</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>1485</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -11293,247 +11293,247 @@
     </row>
     <row r="2" spans="1:5" ht="17.25">
       <c r="A2" s="1" t="s">
+        <v>1485</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>1486</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="27" t="s">
         <v>1487</v>
       </c>
-      <c r="C2" s="27" t="s">
-        <v>1488</v>
-      </c>
       <c r="E2" s="8" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="17.25">
       <c r="A3" s="1" t="s">
+        <v>1488</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>1489</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3" s="27" t="s">
         <v>1490</v>
-      </c>
-      <c r="C3" s="27" t="s">
-        <v>1491</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
-        <v>1492</v>
+        <v>1491</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="17.25">
       <c r="A5" s="1" t="s">
+        <v>1492</v>
+      </c>
+      <c r="B5" s="8" t="s">
         <v>1493</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="C5" s="27" t="s">
         <v>1494</v>
-      </c>
-      <c r="C5" s="27" t="s">
-        <v>1495</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="1" t="s">
-        <v>1496</v>
+        <v>1495</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="17.25">
       <c r="A7" s="1" t="s">
+        <v>1496</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>1497</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="C7" s="27" t="s">
         <v>1498</v>
-      </c>
-      <c r="C7" s="27" t="s">
-        <v>1499</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="1" t="s">
-        <v>1500</v>
+        <v>1499</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="17.25">
       <c r="A9" s="1" t="s">
+        <v>1500</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>1501</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="C9" s="27" t="s">
         <v>1502</v>
-      </c>
-      <c r="C9" s="27" t="s">
-        <v>1503</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="1" t="s">
-        <v>1504</v>
+        <v>1503</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="17.25">
       <c r="A11" s="1" t="s">
+        <v>1504</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>1505</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="C11" s="27" t="s">
         <v>1506</v>
-      </c>
-      <c r="C11" s="27" t="s">
-        <v>1507</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="1" t="s">
-        <v>1508</v>
+        <v>1507</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="17.25">
       <c r="A13" s="1" t="s">
+        <v>1508</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>1509</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="C13" s="27" t="s">
         <v>1510</v>
-      </c>
-      <c r="C13" s="27" t="s">
-        <v>1511</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="1" t="s">
-        <v>1512</v>
+        <v>1511</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="17.25">
       <c r="A15" s="1" t="s">
+        <v>1512</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>1513</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="C15" s="27" t="s">
         <v>1514</v>
-      </c>
-      <c r="C15" s="27" t="s">
-        <v>1515</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="1" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="17.25">
       <c r="A17" s="1" t="s">
+        <v>1516</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>1517</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="C17" s="27" t="s">
         <v>1518</v>
-      </c>
-      <c r="C17" s="27" t="s">
-        <v>1519</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="1" t="s">
-        <v>1520</v>
+        <v>1519</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="17.25">
       <c r="A19" s="1" t="s">
+        <v>1520</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>1521</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="C19" s="27" t="s">
         <v>1522</v>
-      </c>
-      <c r="C19" s="27" t="s">
-        <v>1523</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="1" t="s">
-        <v>1524</v>
+        <v>1523</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="17.25">
       <c r="A21" s="1" t="s">
+        <v>1524</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>1525</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="C21" s="27" t="s">
         <v>1526</v>
-      </c>
-      <c r="C21" s="27" t="s">
-        <v>1527</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="1" t="s">
-        <v>1528</v>
+        <v>1527</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="12" t="s">
+        <v>1528</v>
+      </c>
+      <c r="B23" s="4" t="s">
         <v>1529</v>
       </c>
-      <c r="B23" s="4" t="s">
+      <c r="C23" s="4" t="s">
         <v>1530</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>1531</v>
       </c>
     </row>
   </sheetData>
@@ -11571,719 +11571,719 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
+        <v>1531</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1164</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>1532</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>1165</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>1533</v>
-      </c>
       <c r="D2" s="8" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
+        <v>1533</v>
+      </c>
+      <c r="B3" s="8" t="s">
         <v>1534</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="C3" t="s">
         <v>1535</v>
-      </c>
-      <c r="C3" t="s">
-        <v>1536</v>
       </c>
       <c r="D3" s="12"/>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>1537</v>
+        <v>1536</v>
       </c>
       <c r="B4" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="C4" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="D4" s="12"/>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
+        <v>1537</v>
+      </c>
+      <c r="B5" t="s">
         <v>1538</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>1539</v>
-      </c>
-      <c r="C5" t="s">
-        <v>1540</v>
       </c>
       <c r="D5" s="12"/>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>1541</v>
+        <v>1540</v>
       </c>
       <c r="B6" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="C6" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="D6" s="12"/>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
+        <v>1541</v>
+      </c>
+      <c r="B7" s="8" t="s">
         <v>1542</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="C7" t="s">
         <v>1543</v>
-      </c>
-      <c r="C7" t="s">
-        <v>1544</v>
       </c>
       <c r="D7" s="12"/>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="B8" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="C8" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="D8" s="12"/>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
+        <v>1545</v>
+      </c>
+      <c r="B9" s="8" t="s">
         <v>1546</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="C9" t="s">
         <v>1547</v>
-      </c>
-      <c r="C9" t="s">
-        <v>1548</v>
       </c>
       <c r="D9" s="12"/>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
       <c r="B10" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="C10" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="D10" s="12"/>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
+        <v>1549</v>
+      </c>
+      <c r="B11" s="8" t="s">
         <v>1550</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="C11" t="s">
         <v>1551</v>
-      </c>
-      <c r="C11" t="s">
-        <v>1552</v>
       </c>
       <c r="D11" s="12"/>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>1553</v>
+        <v>1552</v>
       </c>
       <c r="B12" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="C12" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="D12" s="12"/>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
+        <v>1553</v>
+      </c>
+      <c r="B13" s="8" t="s">
         <v>1554</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="C13" t="s">
         <v>1555</v>
-      </c>
-      <c r="C13" t="s">
-        <v>1556</v>
       </c>
       <c r="D13" s="12"/>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>1557</v>
+        <v>1556</v>
       </c>
       <c r="B14" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="C14" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="D14" s="12"/>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
+        <v>1557</v>
+      </c>
+      <c r="B15" s="8" t="s">
         <v>1558</v>
       </c>
-      <c r="B15" s="8" t="s">
+      <c r="C15" t="s">
         <v>1559</v>
-      </c>
-      <c r="C15" t="s">
-        <v>1560</v>
       </c>
       <c r="D15" s="12"/>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="B16" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="C16" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="D16" s="12"/>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
+        <v>1561</v>
+      </c>
+      <c r="B17" s="8" t="s">
         <v>1562</v>
       </c>
-      <c r="B17" s="8" t="s">
+      <c r="C17" t="s">
         <v>1563</v>
-      </c>
-      <c r="C17" t="s">
-        <v>1564</v>
       </c>
       <c r="D17" s="12"/>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>1565</v>
+        <v>1564</v>
       </c>
       <c r="B18" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="C18" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="D18" s="12"/>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
+        <v>1565</v>
+      </c>
+      <c r="B19" s="8" t="s">
         <v>1566</v>
       </c>
-      <c r="B19" s="8" t="s">
+      <c r="C19" t="s">
         <v>1567</v>
-      </c>
-      <c r="C19" t="s">
-        <v>1568</v>
       </c>
       <c r="D19" s="12"/>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>1569</v>
+        <v>1568</v>
       </c>
       <c r="B20" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="C20" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="D20" s="12"/>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
+        <v>1569</v>
+      </c>
+      <c r="B21" s="8" t="s">
         <v>1570</v>
       </c>
-      <c r="B21" s="8" t="s">
+      <c r="C21" t="s">
         <v>1571</v>
-      </c>
-      <c r="C21" t="s">
-        <v>1572</v>
       </c>
       <c r="D21" s="12"/>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>1573</v>
+        <v>1572</v>
       </c>
       <c r="B22" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="C22" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="D22" s="12"/>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
+        <v>1573</v>
+      </c>
+      <c r="B23" s="8" t="s">
         <v>1574</v>
       </c>
-      <c r="B23" s="8" t="s">
+      <c r="C23" t="s">
         <v>1575</v>
-      </c>
-      <c r="C23" t="s">
-        <v>1576</v>
       </c>
       <c r="D23" s="12"/>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>1577</v>
+        <v>1576</v>
       </c>
       <c r="B24" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="C24" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="D24" s="12"/>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
+        <v>1577</v>
+      </c>
+      <c r="B25" t="s">
         <v>1578</v>
       </c>
-      <c r="B25" t="s">
+      <c r="C25" t="s">
         <v>1579</v>
-      </c>
-      <c r="C25" t="s">
-        <v>1580</v>
       </c>
       <c r="D25" s="12"/>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>1581</v>
+        <v>1580</v>
       </c>
       <c r="B26" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="C26" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="D26" s="12"/>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" t="s">
+        <v>1581</v>
+      </c>
+      <c r="B27" s="8" t="s">
         <v>1582</v>
       </c>
-      <c r="B27" s="8" t="s">
+      <c r="C27" t="s">
         <v>1583</v>
-      </c>
-      <c r="C27" t="s">
-        <v>1584</v>
       </c>
       <c r="D27" s="12"/>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>1585</v>
+        <v>1584</v>
       </c>
       <c r="B28" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="C28" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="D28" s="12"/>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" t="s">
+        <v>1585</v>
+      </c>
+      <c r="B29" s="8" t="s">
         <v>1586</v>
       </c>
-      <c r="B29" s="8" t="s">
+      <c r="C29" t="s">
         <v>1587</v>
-      </c>
-      <c r="C29" t="s">
-        <v>1588</v>
       </c>
       <c r="D29" s="12"/>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" t="s">
-        <v>1589</v>
+        <v>1588</v>
       </c>
       <c r="B30" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="C30" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="D30" s="12"/>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" t="s">
+        <v>1589</v>
+      </c>
+      <c r="B31" s="8" t="s">
         <v>1590</v>
       </c>
-      <c r="B31" s="8" t="s">
+      <c r="C31" t="s">
         <v>1591</v>
-      </c>
-      <c r="C31" t="s">
-        <v>1592</v>
       </c>
       <c r="D31" s="12"/>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" t="s">
-        <v>1593</v>
+        <v>1592</v>
       </c>
       <c r="B32" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="C32" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="D32" s="12"/>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" t="s">
+        <v>1593</v>
+      </c>
+      <c r="B33" s="8" t="s">
         <v>1594</v>
       </c>
-      <c r="B33" s="8" t="s">
+      <c r="C33" t="s">
         <v>1595</v>
-      </c>
-      <c r="C33" t="s">
-        <v>1596</v>
       </c>
       <c r="D33" s="12"/>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" t="s">
-        <v>1597</v>
+        <v>1596</v>
       </c>
       <c r="B34" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="C34" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="D34" s="12"/>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" t="s">
+        <v>1597</v>
+      </c>
+      <c r="B35" s="8" t="s">
         <v>1598</v>
       </c>
-      <c r="B35" s="8" t="s">
+      <c r="C35" t="s">
         <v>1599</v>
-      </c>
-      <c r="C35" t="s">
-        <v>1600</v>
       </c>
       <c r="D35" s="12"/>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" t="s">
-        <v>1601</v>
+        <v>1600</v>
       </c>
       <c r="B36" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="C36" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="D36" s="12"/>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" t="s">
+        <v>1601</v>
+      </c>
+      <c r="B37" s="8" t="s">
         <v>1602</v>
       </c>
-      <c r="B37" s="8" t="s">
+      <c r="C37" t="s">
         <v>1603</v>
-      </c>
-      <c r="C37" t="s">
-        <v>1604</v>
       </c>
       <c r="D37" s="12"/>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" t="s">
-        <v>1605</v>
+        <v>1604</v>
       </c>
       <c r="B38" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="C38" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="D38" s="12"/>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" t="s">
+        <v>1605</v>
+      </c>
+      <c r="B39" s="8" t="s">
         <v>1606</v>
       </c>
-      <c r="B39" s="8" t="s">
+      <c r="C39" t="s">
         <v>1607</v>
-      </c>
-      <c r="C39" t="s">
-        <v>1608</v>
       </c>
       <c r="D39" s="12"/>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" t="s">
-        <v>1609</v>
+        <v>1608</v>
       </c>
       <c r="B40" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="C40" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="D40" s="12"/>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" t="s">
+        <v>1609</v>
+      </c>
+      <c r="B41" s="8" t="s">
         <v>1610</v>
       </c>
-      <c r="B41" s="8" t="s">
+      <c r="C41" t="s">
         <v>1611</v>
-      </c>
-      <c r="C41" t="s">
-        <v>1612</v>
       </c>
       <c r="D41" s="12"/>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" t="s">
-        <v>1613</v>
+        <v>1612</v>
       </c>
       <c r="B42" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="C42" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="D42" s="12"/>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" t="s">
+        <v>1613</v>
+      </c>
+      <c r="B43" s="8" t="s">
         <v>1614</v>
       </c>
-      <c r="B43" s="8" t="s">
+      <c r="C43" t="s">
         <v>1615</v>
-      </c>
-      <c r="C43" t="s">
-        <v>1616</v>
       </c>
       <c r="D43" s="12"/>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" t="s">
-        <v>1617</v>
+        <v>1616</v>
       </c>
       <c r="B44" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="C44" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="D44" s="12"/>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" t="s">
+        <v>1617</v>
+      </c>
+      <c r="B45" s="8" t="s">
         <v>1618</v>
       </c>
-      <c r="B45" s="8" t="s">
+      <c r="C45" t="s">
         <v>1619</v>
-      </c>
-      <c r="C45" t="s">
-        <v>1620</v>
       </c>
       <c r="D45" s="12"/>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" t="s">
-        <v>1621</v>
+        <v>1620</v>
       </c>
       <c r="B46" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="C46" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="D46" s="12"/>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" t="s">
+        <v>1621</v>
+      </c>
+      <c r="B47" s="8" t="s">
         <v>1622</v>
       </c>
-      <c r="B47" s="8" t="s">
+      <c r="C47" t="s">
         <v>1623</v>
-      </c>
-      <c r="C47" t="s">
-        <v>1624</v>
       </c>
       <c r="D47" s="12"/>
     </row>
     <row r="48" spans="1:4">
       <c r="A48" t="s">
-        <v>1625</v>
+        <v>1624</v>
       </c>
       <c r="B48" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="C48" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="D48" s="12"/>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" t="s">
+        <v>1625</v>
+      </c>
+      <c r="B49" s="8" t="s">
         <v>1626</v>
       </c>
-      <c r="B49" s="8" t="s">
+      <c r="C49" t="s">
         <v>1627</v>
-      </c>
-      <c r="C49" t="s">
-        <v>1628</v>
       </c>
       <c r="D49" s="12"/>
     </row>
     <row r="50" spans="1:4">
       <c r="A50" t="s">
-        <v>1629</v>
+        <v>1628</v>
       </c>
       <c r="B50" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="C50" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="D50" s="12"/>
     </row>
     <row r="51" spans="1:4">
       <c r="A51" t="s">
+        <v>1629</v>
+      </c>
+      <c r="B51" t="s">
         <v>1630</v>
       </c>
-      <c r="B51" t="s">
+      <c r="C51" t="s">
         <v>1631</v>
-      </c>
-      <c r="C51" t="s">
-        <v>1632</v>
       </c>
       <c r="D51" s="12"/>
     </row>
     <row r="52" spans="1:4">
       <c r="A52" t="s">
-        <v>1633</v>
+        <v>1632</v>
       </c>
       <c r="B52" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="C52" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="D52" s="12"/>
     </row>
     <row r="53" spans="1:4">
       <c r="A53" t="s">
+        <v>1633</v>
+      </c>
+      <c r="B53" s="8" t="s">
         <v>1634</v>
       </c>
-      <c r="B53" s="8" t="s">
+      <c r="C53" t="s">
         <v>1635</v>
-      </c>
-      <c r="C53" t="s">
-        <v>1636</v>
       </c>
       <c r="D53" s="12"/>
     </row>
     <row r="54" spans="1:4">
       <c r="A54" t="s">
-        <v>1637</v>
+        <v>1636</v>
       </c>
       <c r="B54" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="C54" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="D54" s="12"/>
     </row>
     <row r="55" spans="1:4">
       <c r="A55" t="s">
+        <v>1637</v>
+      </c>
+      <c r="B55" s="8" t="s">
         <v>1638</v>
       </c>
-      <c r="B55" s="8" t="s">
+      <c r="C55" t="s">
         <v>1639</v>
-      </c>
-      <c r="C55" t="s">
-        <v>1640</v>
       </c>
       <c r="D55" s="12"/>
     </row>
     <row r="56" spans="1:4">
       <c r="A56" t="s">
-        <v>1641</v>
+        <v>1640</v>
       </c>
       <c r="B56" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="C56" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="D56" s="12"/>
     </row>
     <row r="57" spans="1:4">
       <c r="A57" t="s">
+        <v>1641</v>
+      </c>
+      <c r="B57" s="8" t="s">
         <v>1642</v>
       </c>
-      <c r="B57" s="8" t="s">
+      <c r="C57" t="s">
         <v>1643</v>
-      </c>
-      <c r="C57" t="s">
-        <v>1644</v>
       </c>
     </row>
     <row r="58" spans="1:4">
       <c r="A58" t="s">
-        <v>1645</v>
+        <v>1644</v>
       </c>
       <c r="B58" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="C58" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="59" spans="1:4">
       <c r="A59" s="1" t="s">
+        <v>1645</v>
+      </c>
+      <c r="B59" t="s">
         <v>1646</v>
       </c>
-      <c r="B59" t="s">
+      <c r="C59" t="s">
         <v>1647</v>
-      </c>
-      <c r="C59" t="s">
-        <v>1648</v>
       </c>
     </row>
     <row r="60" spans="1:4">
       <c r="A60" s="1" t="s">
-        <v>1649</v>
+        <v>1648</v>
       </c>
       <c r="B60" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="C60" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="61" spans="1:4">
       <c r="A61" s="12" t="s">
+        <v>1649</v>
+      </c>
+      <c r="B61" s="4" t="s">
         <v>1650</v>
       </c>
-      <c r="B61" s="4" t="s">
+      <c r="C61" s="4" t="s">
         <v>1651</v>
-      </c>
-      <c r="C61" s="4" t="s">
-        <v>1652</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -12528,8 +12528,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.625" defaultRowHeight="15.75"/>
@@ -12554,153 +12554,153 @@
         <v>217</v>
       </c>
       <c r="B2" s="4" t="s">
+        <v>1654</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>218</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
+        <v>219</v>
+      </c>
+      <c r="B3" t="s">
         <v>220</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>221</v>
-      </c>
-      <c r="C3" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
+        <v>222</v>
+      </c>
+      <c r="B4" s="8" t="s">
         <v>223</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="C4" s="4" t="s">
         <v>224</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
+        <v>225</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>226</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>227</v>
-      </c>
       <c r="C5" s="4" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
+        <v>227</v>
+      </c>
+      <c r="B6" s="8" t="s">
         <v>228</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="C6" s="4" t="s">
         <v>229</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
+        <v>231</v>
+      </c>
+      <c r="B8" s="8" t="s">
         <v>232</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="C8" s="4" t="s">
         <v>233</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
+        <v>235</v>
+      </c>
+      <c r="B10" s="8" t="s">
         <v>236</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="C10" s="4" t="s">
         <v>237</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
+        <v>239</v>
+      </c>
+      <c r="B12" s="8" t="s">
         <v>240</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="C12" s="4" t="s">
         <v>241</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>242</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
+        <v>243</v>
+      </c>
+      <c r="B14" s="8" t="s">
         <v>244</v>
       </c>
-      <c r="B14" s="8" t="s">
+      <c r="C14" s="4" t="s">
         <v>245</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>246</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
   </sheetData>
@@ -12741,359 +12741,359 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="B2" s="14" t="s">
         <v>248</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="C2" s="9" t="s">
         <v>249</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>250</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>252</v>
-      </c>
       <c r="C3" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="B4" s="15" t="s">
         <v>253</v>
       </c>
-      <c r="B4" s="15" t="s">
+      <c r="C4" s="9" t="s">
         <v>254</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>255</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="B6" s="15" t="s">
         <v>257</v>
       </c>
-      <c r="B6" s="15" t="s">
+      <c r="C6" s="9" t="s">
         <v>258</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>259</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="B7" s="9" t="s">
         <v>260</v>
       </c>
-      <c r="B7" s="9" t="s">
-        <v>261</v>
-      </c>
       <c r="C7" s="9" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="B8" s="15" t="s">
         <v>262</v>
       </c>
-      <c r="B8" s="15" t="s">
+      <c r="C8" s="1" t="s">
         <v>263</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>264</v>
       </c>
       <c r="E8" s="16"/>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="C9" s="1" t="s">
         <v>266</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="C10" s="1" t="s">
         <v>269</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>270</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="C11" s="1" t="s">
         <v>272</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>273</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="C12" s="1" t="s">
         <v>275</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>276</v>
       </c>
       <c r="E12" s="16"/>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="B13" s="8" t="s">
         <v>277</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="C13" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="D13" s="17" t="s">
         <v>279</v>
-      </c>
-      <c r="D13" s="17" t="s">
-        <v>280</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="B14" s="18" t="s">
         <v>281</v>
       </c>
-      <c r="B14" s="18" t="s">
+      <c r="C14" s="1" t="s">
         <v>282</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>283</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="C15" s="1" t="s">
         <v>285</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>286</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="C17" s="1" t="s">
         <v>289</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>290</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="C19" s="1" t="s">
         <v>293</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>294</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="B21" s="8" t="s">
         <v>296</v>
       </c>
-      <c r="B21" s="8" t="s">
+      <c r="C21" s="1" t="s">
         <v>297</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>298</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="B23" s="9" t="s">
         <v>300</v>
       </c>
-      <c r="B23" s="9" t="s">
+      <c r="C23" s="1" t="s">
         <v>301</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>302</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="B24" t="s">
         <v>303</v>
       </c>
-      <c r="B24" t="s">
-        <v>304</v>
-      </c>
       <c r="C24" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="B25" t="s">
         <v>305</v>
       </c>
-      <c r="B25" t="s">
+      <c r="C25" t="s">
         <v>306</v>
-      </c>
-      <c r="C25" t="s">
-        <v>307</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="B26" s="9" t="s">
         <v>308</v>
       </c>
-      <c r="B26" s="9" t="s">
+      <c r="C26" t="s">
         <v>309</v>
-      </c>
-      <c r="C26" t="s">
-        <v>310</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="B27" s="9" t="s">
         <v>311</v>
       </c>
-      <c r="B27" s="9" t="s">
+      <c r="C27" t="s">
         <v>312</v>
-      </c>
-      <c r="C27" t="s">
-        <v>313</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="B28" s="9" t="s">
         <v>314</v>
       </c>
-      <c r="B28" s="9" t="s">
+      <c r="C28" t="s">
         <v>315</v>
-      </c>
-      <c r="C28" t="s">
-        <v>316</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="B29" t="s">
         <v>317</v>
       </c>
-      <c r="B29" t="s">
+      <c r="C29" t="s">
         <v>318</v>
-      </c>
-      <c r="C29" t="s">
-        <v>319</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="B30" t="s">
         <v>320</v>
       </c>
-      <c r="B30" t="s">
+      <c r="C30" t="s">
         <v>321</v>
-      </c>
-      <c r="C30" t="s">
-        <v>322</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="B31" t="s">
         <v>323</v>
       </c>
-      <c r="B31" t="s">
+      <c r="C31" t="s">
         <v>324</v>
-      </c>
-      <c r="C31" t="s">
-        <v>325</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="B32" t="s">
         <v>326</v>
       </c>
-      <c r="B32" t="s">
+      <c r="C32" t="s">
         <v>327</v>
-      </c>
-      <c r="C32" t="s">
-        <v>328</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="B33" s="4" t="s">
         <v>329</v>
       </c>
-      <c r="B33" s="4" t="s">
+      <c r="C33" s="4" t="s">
         <v>330</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>331</v>
       </c>
     </row>
   </sheetData>
@@ -13133,449 +13133,449 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
+        <v>331</v>
+      </c>
+      <c r="B2" s="18" t="s">
         <v>332</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="C2" t="s">
         <v>333</v>
-      </c>
-      <c r="C2" t="s">
-        <v>334</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
+        <v>334</v>
+      </c>
+      <c r="B3" t="s">
         <v>335</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>336</v>
-      </c>
-      <c r="C3" t="s">
-        <v>337</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
+        <v>337</v>
+      </c>
+      <c r="B4" s="8" t="s">
         <v>338</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="C4" t="s">
         <v>339</v>
-      </c>
-      <c r="C4" t="s">
-        <v>340</v>
       </c>
       <c r="D4" s="16"/>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
+        <v>340</v>
+      </c>
+      <c r="B5" s="8" t="s">
         <v>341</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="C5" t="s">
         <v>342</v>
-      </c>
-      <c r="C5" t="s">
-        <v>343</v>
       </c>
       <c r="D5" s="16"/>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
+        <v>343</v>
+      </c>
+      <c r="B6" s="18" t="s">
         <v>344</v>
       </c>
-      <c r="B6" s="18" t="s">
+      <c r="C6" t="s">
         <v>345</v>
-      </c>
-      <c r="C6" t="s">
-        <v>346</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
+        <v>346</v>
+      </c>
+      <c r="B7" s="18" t="s">
         <v>347</v>
       </c>
-      <c r="B7" s="18" t="s">
+      <c r="C7" t="s">
         <v>348</v>
-      </c>
-      <c r="C7" t="s">
-        <v>349</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
+        <v>349</v>
+      </c>
+      <c r="B8" t="s">
         <v>350</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>351</v>
-      </c>
-      <c r="C8" t="s">
-        <v>352</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
+        <v>352</v>
+      </c>
+      <c r="B9" s="8" t="s">
         <v>353</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="C9" t="s">
         <v>354</v>
-      </c>
-      <c r="C9" t="s">
-        <v>355</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
+        <v>355</v>
+      </c>
+      <c r="B10" s="8" t="s">
         <v>356</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="C10" t="s">
         <v>357</v>
-      </c>
-      <c r="C10" t="s">
-        <v>358</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
+        <v>358</v>
+      </c>
+      <c r="B11" t="s">
         <v>359</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" t="s">
         <v>360</v>
-      </c>
-      <c r="C11" t="s">
-        <v>361</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="12" t="s">
+        <v>361</v>
+      </c>
+      <c r="B12" s="19" t="s">
         <v>362</v>
       </c>
-      <c r="B12" s="19" t="s">
+      <c r="C12" s="12" t="s">
         <v>363</v>
-      </c>
-      <c r="C12" s="12" t="s">
-        <v>364</v>
       </c>
       <c r="D12" s="1"/>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="12" t="s">
+        <v>364</v>
+      </c>
+      <c r="B13" s="19" t="s">
         <v>365</v>
       </c>
-      <c r="B13" s="19" t="s">
+      <c r="C13" s="12" t="s">
         <v>366</v>
-      </c>
-      <c r="C13" s="12" t="s">
-        <v>367</v>
       </c>
       <c r="D13" s="1"/>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="12" t="s">
+        <v>367</v>
+      </c>
+      <c r="B14" s="19" t="s">
         <v>368</v>
       </c>
-      <c r="B14" s="19" t="s">
+      <c r="C14" s="12" t="s">
         <v>369</v>
-      </c>
-      <c r="C14" s="12" t="s">
-        <v>370</v>
       </c>
       <c r="D14" s="1"/>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="12" t="s">
+        <v>370</v>
+      </c>
+      <c r="B15" s="19" t="s">
         <v>371</v>
       </c>
-      <c r="B15" s="19" t="s">
+      <c r="C15" s="12" t="s">
         <v>372</v>
-      </c>
-      <c r="C15" s="12" t="s">
-        <v>373</v>
       </c>
       <c r="D15" s="1"/>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="12" t="s">
+        <v>373</v>
+      </c>
+      <c r="B16" s="19" t="s">
         <v>374</v>
       </c>
-      <c r="B16" s="19" t="s">
+      <c r="C16" s="12" t="s">
         <v>375</v>
-      </c>
-      <c r="C16" s="12" t="s">
-        <v>376</v>
       </c>
       <c r="D16" s="1"/>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="12" t="s">
+        <v>376</v>
+      </c>
+      <c r="B17" s="19" t="s">
         <v>377</v>
       </c>
-      <c r="B17" s="19" t="s">
+      <c r="C17" s="12" t="s">
         <v>378</v>
-      </c>
-      <c r="C17" s="12" t="s">
-        <v>379</v>
       </c>
       <c r="D17" s="1"/>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="12" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B18" s="19" t="s">
+        <v>362</v>
+      </c>
+      <c r="C18" s="12" t="s">
         <v>363</v>
-      </c>
-      <c r="C18" s="12" t="s">
-        <v>364</v>
       </c>
       <c r="D18" s="1"/>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="12" t="s">
+        <v>380</v>
+      </c>
+      <c r="B19" s="19" t="s">
         <v>381</v>
       </c>
-      <c r="B19" s="19" t="s">
+      <c r="C19" s="12" t="s">
         <v>382</v>
-      </c>
-      <c r="C19" s="12" t="s">
-        <v>383</v>
       </c>
       <c r="D19" s="1"/>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="12" t="s">
+        <v>383</v>
+      </c>
+      <c r="B20" s="19" t="s">
         <v>384</v>
       </c>
-      <c r="B20" s="19" t="s">
+      <c r="C20" s="12" t="s">
         <v>385</v>
-      </c>
-      <c r="C20" s="12" t="s">
-        <v>386</v>
       </c>
       <c r="D20" s="1"/>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="12" t="s">
+        <v>386</v>
+      </c>
+      <c r="B21" s="19" t="s">
         <v>387</v>
       </c>
-      <c r="B21" s="19" t="s">
+      <c r="C21" s="12" t="s">
         <v>388</v>
-      </c>
-      <c r="C21" s="12" t="s">
-        <v>389</v>
       </c>
       <c r="D21" s="1"/>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="12" t="s">
+        <v>389</v>
+      </c>
+      <c r="B22" s="19" t="s">
         <v>390</v>
       </c>
-      <c r="B22" s="19" t="s">
+      <c r="C22" s="12" t="s">
         <v>391</v>
-      </c>
-      <c r="C22" s="12" t="s">
-        <v>392</v>
       </c>
       <c r="D22" s="1"/>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="12" t="s">
+        <v>392</v>
+      </c>
+      <c r="B23" s="19" t="s">
         <v>393</v>
       </c>
-      <c r="B23" s="19" t="s">
+      <c r="C23" s="12" t="s">
         <v>394</v>
-      </c>
-      <c r="C23" s="12" t="s">
-        <v>395</v>
       </c>
       <c r="D23" s="1"/>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="12" t="s">
+        <v>395</v>
+      </c>
+      <c r="B24" t="s">
         <v>396</v>
       </c>
-      <c r="B24" t="s">
+      <c r="C24" t="s">
         <v>397</v>
-      </c>
-      <c r="C24" t="s">
-        <v>398</v>
       </c>
       <c r="D24" s="1"/>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="12" t="s">
+        <v>398</v>
+      </c>
+      <c r="B25" t="s">
         <v>399</v>
       </c>
-      <c r="B25" t="s">
+      <c r="C25" t="s">
         <v>400</v>
-      </c>
-      <c r="C25" t="s">
-        <v>401</v>
       </c>
       <c r="D25" s="1"/>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="12" t="s">
+        <v>401</v>
+      </c>
+      <c r="B26" t="s">
         <v>402</v>
       </c>
-      <c r="B26" t="s">
+      <c r="C26" t="s">
         <v>403</v>
-      </c>
-      <c r="C26" t="s">
-        <v>404</v>
       </c>
       <c r="D26" s="1"/>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="12" t="s">
+        <v>404</v>
+      </c>
+      <c r="B27" t="s">
         <v>405</v>
       </c>
-      <c r="B27" t="s">
+      <c r="C27" t="s">
         <v>406</v>
-      </c>
-      <c r="C27" t="s">
-        <v>407</v>
       </c>
       <c r="D27" s="1"/>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="12" t="s">
+        <v>407</v>
+      </c>
+      <c r="B28" t="s">
         <v>408</v>
       </c>
-      <c r="B28" t="s">
+      <c r="C28" t="s">
         <v>409</v>
-      </c>
-      <c r="C28" t="s">
-        <v>410</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="12" t="s">
+        <v>410</v>
+      </c>
+      <c r="B29" s="18" t="s">
         <v>411</v>
       </c>
-      <c r="B29" s="18" t="s">
+      <c r="C29" s="8" t="s">
         <v>412</v>
-      </c>
-      <c r="C29" s="8" t="s">
-        <v>413</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="12" t="s">
+        <v>413</v>
+      </c>
+      <c r="B30" s="18" t="s">
         <v>414</v>
       </c>
-      <c r="B30" s="18" t="s">
+      <c r="C30" s="8" t="s">
         <v>415</v>
-      </c>
-      <c r="C30" s="8" t="s">
-        <v>416</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="12" t="s">
+        <v>416</v>
+      </c>
+      <c r="B31" s="18" t="s">
         <v>417</v>
       </c>
-      <c r="B31" s="18" t="s">
+      <c r="C31" s="8" t="s">
         <v>418</v>
-      </c>
-      <c r="C31" s="8" t="s">
-        <v>419</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="12" t="s">
+        <v>419</v>
+      </c>
+      <c r="B32" t="s">
         <v>420</v>
       </c>
-      <c r="B32" t="s">
+      <c r="C32" t="s">
         <v>421</v>
-      </c>
-      <c r="C32" t="s">
-        <v>422</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="12" t="s">
+        <v>422</v>
+      </c>
+      <c r="B33" t="s">
         <v>423</v>
       </c>
-      <c r="B33" t="s">
+      <c r="C33" t="s">
         <v>424</v>
-      </c>
-      <c r="C33" t="s">
-        <v>425</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="12" t="s">
+        <v>425</v>
+      </c>
+      <c r="B34" t="s">
         <v>426</v>
       </c>
-      <c r="B34" t="s">
+      <c r="C34" t="s">
         <v>427</v>
-      </c>
-      <c r="C34" t="s">
-        <v>428</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="12" t="s">
+        <v>428</v>
+      </c>
+      <c r="B35" t="s">
         <v>429</v>
       </c>
-      <c r="B35" t="s">
+      <c r="C35" t="s">
         <v>430</v>
-      </c>
-      <c r="C35" t="s">
-        <v>431</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="12" t="s">
+        <v>431</v>
+      </c>
+      <c r="B36" t="s">
         <v>432</v>
       </c>
-      <c r="B36" t="s">
+      <c r="C36" t="s">
         <v>433</v>
-      </c>
-      <c r="C36" t="s">
-        <v>434</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="12" t="s">
+        <v>434</v>
+      </c>
+      <c r="B37" t="s">
         <v>435</v>
       </c>
-      <c r="B37" t="s">
+      <c r="C37" t="s">
         <v>436</v>
-      </c>
-      <c r="C37" t="s">
-        <v>437</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" s="12" t="s">
+        <v>437</v>
+      </c>
+      <c r="B38" t="s">
         <v>438</v>
       </c>
-      <c r="B38" t="s">
+      <c r="C38" t="s">
         <v>439</v>
-      </c>
-      <c r="C38" t="s">
-        <v>440</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="12" t="s">
+        <v>440</v>
+      </c>
+      <c r="B39" t="s">
         <v>441</v>
       </c>
-      <c r="B39" t="s">
+      <c r="C39" t="s">
         <v>442</v>
-      </c>
-      <c r="C39" t="s">
-        <v>443</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="12" t="s">
+        <v>443</v>
+      </c>
+      <c r="B40" s="4" t="s">
         <v>444</v>
       </c>
-      <c r="B40" s="4" t="s">
+      <c r="C40" s="4" t="s">
         <v>445</v>
-      </c>
-      <c r="C40" s="4" t="s">
-        <v>446</v>
       </c>
     </row>
   </sheetData>
@@ -13614,189 +13614,189 @@
     </row>
     <row r="2" spans="1:5" s="1" customFormat="1">
       <c r="A2" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="B2" s="15" t="s">
         <v>447</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="C2" s="1" t="s">
         <v>448</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>449</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>450</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>451</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>452</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
+        <v>452</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>453</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>454</v>
-      </c>
       <c r="C4" s="1" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="B5" s="15" t="s">
         <v>455</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="C5" s="1" t="s">
         <v>456</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>457</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="B7" s="15" t="s">
         <v>459</v>
       </c>
-      <c r="B7" s="15" t="s">
+      <c r="C7" s="1" t="s">
         <v>460</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>461</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>463</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="C9" s="1" t="s">
         <v>464</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>465</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="B11" s="15" t="s">
         <v>467</v>
       </c>
-      <c r="B11" s="15" t="s">
+      <c r="C11" s="1" t="s">
         <v>468</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>469</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="B13" s="8" t="s">
         <v>471</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="C13" s="1" t="s">
         <v>472</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>473</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="B15" s="20" t="s">
         <v>475</v>
       </c>
-      <c r="B15" s="20" t="s">
+      <c r="C15" s="1" t="s">
         <v>476</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>477</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
+        <v>477</v>
+      </c>
+      <c r="B16" s="8" t="s">
         <v>478</v>
       </c>
-      <c r="B16" s="8" t="s">
+      <c r="C16" s="1" t="s">
         <v>479</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>480</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
+        <v>480</v>
+      </c>
+      <c r="B17" s="20" t="s">
         <v>481</v>
       </c>
-      <c r="B17" s="20" t="s">
+      <c r="C17" s="1" t="s">
         <v>482</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>483</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="12" t="s">
+        <v>483</v>
+      </c>
+      <c r="B18" s="4" t="s">
         <v>484</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="C18" s="4" t="s">
         <v>485</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>486</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -13939,291 +13939,291 @@
     </row>
     <row r="2" spans="1:5" s="1" customFormat="1">
       <c r="A2" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="B2" s="18" t="s">
         <v>487</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="C2" s="1" t="s">
         <v>488</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="8" t="s">
         <v>489</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>490</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="B3" s="15" t="s">
         <v>491</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="C3" t="s">
         <v>492</v>
-      </c>
-      <c r="C3" t="s">
-        <v>493</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
+        <v>493</v>
+      </c>
+      <c r="B4" t="s">
         <v>494</v>
       </c>
-      <c r="B4" t="s">
-        <v>495</v>
-      </c>
       <c r="C4" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="B5" s="15" t="s">
         <v>496</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="C5" t="s">
         <v>497</v>
-      </c>
-      <c r="C5" t="s">
-        <v>498</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B6" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C6" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="B7" s="15" t="s">
         <v>500</v>
       </c>
-      <c r="B7" s="15" t="s">
+      <c r="C7" t="s">
         <v>501</v>
-      </c>
-      <c r="C7" t="s">
-        <v>502</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B8" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C8" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1652</v>
+      </c>
+      <c r="C9" t="s">
         <v>504</v>
-      </c>
-      <c r="B9" t="s">
-        <v>1653</v>
-      </c>
-      <c r="C9" t="s">
-        <v>505</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B10" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C10" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="B11" t="s">
         <v>507</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" t="s">
         <v>508</v>
-      </c>
-      <c r="C11" t="s">
-        <v>509</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B12" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C12" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="B13" s="15" t="s">
         <v>511</v>
       </c>
-      <c r="B13" s="15" t="s">
+      <c r="C13" t="s">
         <v>512</v>
-      </c>
-      <c r="C13" t="s">
-        <v>513</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B14" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C14" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="1" t="s">
+        <v>514</v>
+      </c>
+      <c r="B15" t="s">
         <v>515</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C15" t="s">
         <v>516</v>
-      </c>
-      <c r="C15" t="s">
-        <v>517</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B16" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C16" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="B17" t="s">
         <v>519</v>
       </c>
-      <c r="B17" t="s">
+      <c r="C17" t="s">
         <v>520</v>
-      </c>
-      <c r="C17" t="s">
-        <v>521</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B18" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C18" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="B19" s="15" t="s">
         <v>523</v>
       </c>
-      <c r="B19" s="15" t="s">
+      <c r="C19" t="s">
         <v>524</v>
-      </c>
-      <c r="C19" t="s">
-        <v>525</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B20" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C20" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="B21" s="15" t="s">
         <v>527</v>
       </c>
-      <c r="B21" s="15" t="s">
+      <c r="C21" t="s">
         <v>528</v>
-      </c>
-      <c r="C21" t="s">
-        <v>529</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="B22" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C22" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="B23" s="15" t="s">
         <v>531</v>
       </c>
-      <c r="B23" s="15" t="s">
+      <c r="C23" t="s">
         <v>532</v>
-      </c>
-      <c r="C23" t="s">
-        <v>533</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B24" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C24" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="B25" s="15" t="s">
         <v>535</v>
       </c>
-      <c r="B25" s="15" t="s">
+      <c r="C25" t="s">
         <v>536</v>
-      </c>
-      <c r="C25" t="s">
-        <v>537</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B26" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C26" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="12" t="s">
+        <v>538</v>
+      </c>
+      <c r="B27" s="4" t="s">
         <v>539</v>
       </c>
-      <c r="B27" s="4" t="s">
+      <c r="C27" s="4" t="s">
         <v>540</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>541</v>
       </c>
     </row>
   </sheetData>
@@ -14262,289 +14262,289 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
+        <v>541</v>
+      </c>
+      <c r="B2" s="21" t="s">
         <v>542</v>
       </c>
-      <c r="B2" s="21" t="s">
+      <c r="C2" s="4" t="s">
         <v>543</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>544</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
+        <v>544</v>
+      </c>
+      <c r="B3" t="s">
         <v>545</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" s="4" t="s">
         <v>546</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>547</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
+        <v>547</v>
+      </c>
+      <c r="B4" t="s">
         <v>548</v>
       </c>
-      <c r="B4" t="s">
-        <v>549</v>
-      </c>
       <c r="C4" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
+        <v>549</v>
+      </c>
+      <c r="B5" t="s">
         <v>550</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" s="4" t="s">
         <v>551</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>552</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="B6" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="C6" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
+        <v>553</v>
+      </c>
+      <c r="B7" s="18" t="s">
         <v>554</v>
       </c>
-      <c r="B7" s="18" t="s">
+      <c r="C7" s="4" t="s">
         <v>555</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>556</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
+        <v>556</v>
+      </c>
+      <c r="B8" s="4" t="s">
         <v>557</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="C8" s="4" t="s">
         <v>558</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>559</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
+        <v>559</v>
+      </c>
+      <c r="B9" s="4" t="s">
         <v>560</v>
       </c>
-      <c r="B9" s="4" t="s">
-        <v>561</v>
-      </c>
       <c r="C9" s="4" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
+        <v>561</v>
+      </c>
+      <c r="B10" s="4" t="s">
         <v>562</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="C10" s="4" t="s">
         <v>563</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>564</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
+        <v>565</v>
+      </c>
+      <c r="B12" s="4" t="s">
         <v>566</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="C12" s="4" t="s">
         <v>567</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>568</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
+        <v>569</v>
+      </c>
+      <c r="B14" s="4" t="s">
         <v>570</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="C14" s="4" t="s">
         <v>571</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>572</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
+        <v>573</v>
+      </c>
+      <c r="B16" s="4" t="s">
         <v>574</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="C16" s="4" t="s">
         <v>575</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>576</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="15" customHeight="1">
       <c r="A17" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
+        <v>577</v>
+      </c>
+      <c r="B18" t="s">
         <v>578</v>
       </c>
-      <c r="B18" t="s">
+      <c r="C18" s="4" t="s">
         <v>579</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>580</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
+        <v>580</v>
+      </c>
+      <c r="B19" t="s">
         <v>581</v>
       </c>
-      <c r="B19" t="s">
+      <c r="C19" s="4" t="s">
         <v>582</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>583</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
+        <v>583</v>
+      </c>
+      <c r="B20" t="s">
         <v>584</v>
       </c>
-      <c r="B20" t="s">
+      <c r="C20" s="4" t="s">
         <v>585</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>586</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
+        <v>586</v>
+      </c>
+      <c r="B21" t="s">
         <v>587</v>
       </c>
-      <c r="B21" t="s">
+      <c r="C21" s="4" t="s">
         <v>588</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>589</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
+        <v>589</v>
+      </c>
+      <c r="B22" s="1" t="s">
         <v>590</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="C22" s="4" t="s">
         <v>591</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>592</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
+        <v>592</v>
+      </c>
+      <c r="B23" t="s">
         <v>593</v>
       </c>
-      <c r="B23" t="s">
+      <c r="C23" s="4" t="s">
         <v>594</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>595</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
+        <v>595</v>
+      </c>
+      <c r="B24" t="s">
         <v>596</v>
       </c>
-      <c r="B24" t="s">
+      <c r="C24" s="4" t="s">
         <v>597</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>598</v>
       </c>
       <c r="D24" s="16"/>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
+        <v>598</v>
+      </c>
+      <c r="B25" t="s">
         <v>599</v>
       </c>
-      <c r="B25" t="s">
+      <c r="C25" s="4" t="s">
         <v>600</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>601</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
+        <v>601</v>
+      </c>
+      <c r="B26" t="s">
         <v>602</v>
       </c>
-      <c r="B26" t="s">
+      <c r="C26" s="4" t="s">
         <v>603</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>604</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="12" t="s">
+        <v>604</v>
+      </c>
+      <c r="B27" s="4" t="s">
         <v>605</v>
       </c>
-      <c r="B27" s="4" t="s">
+      <c r="C27" s="4" t="s">
         <v>606</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>607</v>
       </c>
     </row>
   </sheetData>
@@ -14557,8 +14557,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E166"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A112" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B133" sqref="B133"/>
+    <sheetView topLeftCell="A112" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A132" sqref="A132"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.625" defaultRowHeight="15.75"/>
@@ -14585,46 +14585,46 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="4" t="s">
+        <v>607</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>608</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="C2" s="4" t="s">
         <v>609</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>610</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="4" t="s">
+        <v>610</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>611</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>612</v>
-      </c>
       <c r="C3" s="4" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="4" t="s">
+        <v>612</v>
+      </c>
+      <c r="B4" s="6" t="s">
         <v>613</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="C4" s="4" t="s">
         <v>614</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>615</v>
-      </c>
       <c r="D4" s="4" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E4" s="4"/>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="4" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="B5" s="4">
         <v>0</v>
@@ -14636,7 +14636,7 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="4" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="B6" s="4">
         <v>1</v>
@@ -14648,7 +14648,7 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="4" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="B7" s="4">
         <v>2</v>
@@ -14660,7 +14660,7 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="4" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="B8" s="4">
         <v>3</v>
@@ -14672,272 +14672,272 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="4" t="s">
+        <v>619</v>
+      </c>
+      <c r="B9" s="22" t="s">
         <v>620</v>
       </c>
-      <c r="B9" s="22" t="s">
-        <v>621</v>
-      </c>
       <c r="C9" s="22" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="E9" s="4"/>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="4" t="s">
+        <v>621</v>
+      </c>
+      <c r="B10" s="22" t="s">
         <v>622</v>
       </c>
-      <c r="B10" s="22" t="s">
-        <v>623</v>
-      </c>
       <c r="C10" s="22" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="E10" s="4"/>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="4" t="s">
+        <v>623</v>
+      </c>
+      <c r="B11" s="4" t="s">
         <v>624</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="C11" s="4" t="s">
         <v>625</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>626</v>
       </c>
       <c r="E11" s="4"/>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="4" t="s">
+        <v>626</v>
+      </c>
+      <c r="B12" s="4" t="s">
         <v>627</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="C12" s="4" t="s">
         <v>628</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>629</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="4" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="4" t="s">
+        <v>630</v>
+      </c>
+      <c r="B14" s="4" t="s">
         <v>631</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="C14" s="4" t="s">
         <v>632</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>633</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="4" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="4" t="s">
+        <v>634</v>
+      </c>
+      <c r="B16" s="6" t="s">
         <v>635</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="C16" s="4" t="s">
         <v>636</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>637</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="4" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="4" t="s">
+        <v>638</v>
+      </c>
+      <c r="B18" s="4" t="s">
         <v>639</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="C18" s="4" t="s">
         <v>640</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>641</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="4" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="4" t="s">
+        <v>642</v>
+      </c>
+      <c r="B20" s="4" t="s">
         <v>643</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="C20" s="4" t="s">
         <v>644</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>645</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="4" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="D21" s="4"/>
       <c r="E21" s="4"/>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="4" t="s">
+        <v>646</v>
+      </c>
+      <c r="B22" s="4" t="s">
         <v>647</v>
       </c>
-      <c r="B22" s="4" t="s">
+      <c r="C22" s="4" t="s">
         <v>648</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>649</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="4" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="D23" s="4"/>
       <c r="E23" s="4"/>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="4" t="s">
+        <v>650</v>
+      </c>
+      <c r="B24" s="4" t="s">
         <v>651</v>
       </c>
-      <c r="B24" s="4" t="s">
+      <c r="C24" s="4" t="s">
         <v>652</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>653</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="4" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="D25" s="4"/>
       <c r="E25" s="4"/>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="4" t="s">
+        <v>654</v>
+      </c>
+      <c r="B26" s="4" t="s">
         <v>655</v>
       </c>
-      <c r="B26" s="4" t="s">
+      <c r="C26" s="4" t="s">
         <v>656</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>657</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="4" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="D27" s="4"/>
       <c r="E27" s="4"/>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="4" t="s">
+        <v>658</v>
+      </c>
+      <c r="B28" s="4" t="s">
         <v>659</v>
       </c>
-      <c r="B28" s="4" t="s">
+      <c r="C28" s="4" t="s">
         <v>660</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>661</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="4" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="D29" s="4"/>
       <c r="E29" s="4"/>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="4" t="s">
+        <v>662</v>
+      </c>
+      <c r="B30" s="4" t="s">
         <v>663</v>
       </c>
-      <c r="B30" s="4" t="s">
+      <c r="C30" s="4" t="s">
         <v>664</v>
       </c>
-      <c r="C30" s="4" t="s">
-        <v>665</v>
-      </c>
       <c r="D30" s="4" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E30" s="4"/>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="4" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="B31" s="4">
         <v>0</v>
@@ -14949,19 +14949,19 @@
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="4" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="B32" s="4">
         <v>0.5</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="E32" s="4"/>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="4" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="B33" s="4">
         <v>1</v>
@@ -14973,19 +14973,19 @@
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="4" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="B34" s="4">
         <v>1.5</v>
       </c>
       <c r="C34" s="22" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="E34" s="4"/>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="4" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="B35" s="4">
         <v>2</v>
@@ -14997,142 +14997,142 @@
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="4" t="s">
+        <v>672</v>
+      </c>
+      <c r="B36" s="22" t="s">
         <v>673</v>
       </c>
-      <c r="B36" s="22" t="s">
-        <v>674</v>
-      </c>
       <c r="C36" s="22" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="E36" s="4"/>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="4" t="s">
+        <v>674</v>
+      </c>
+      <c r="B37" s="4" t="s">
         <v>675</v>
       </c>
-      <c r="B37" s="4" t="s">
+      <c r="C37" s="4" t="s">
         <v>676</v>
-      </c>
-      <c r="C37" s="4" t="s">
-        <v>677</v>
       </c>
       <c r="E37" s="4"/>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="4" t="s">
+        <v>677</v>
+      </c>
+      <c r="B38" s="4" t="s">
         <v>678</v>
       </c>
-      <c r="B38" s="4" t="s">
+      <c r="C38" s="4" t="s">
         <v>679</v>
-      </c>
-      <c r="C38" s="4" t="s">
-        <v>680</v>
       </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="4" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="D39" s="4"/>
       <c r="E39" s="4"/>
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="4" t="s">
+        <v>681</v>
+      </c>
+      <c r="B40" s="4" t="s">
         <v>682</v>
       </c>
-      <c r="B40" s="4" t="s">
+      <c r="C40" s="4" t="s">
         <v>683</v>
-      </c>
-      <c r="C40" s="4" t="s">
-        <v>684</v>
       </c>
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="4" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="D41" s="4"/>
       <c r="E41" s="4"/>
     </row>
     <row r="42" spans="1:5">
       <c r="A42" s="4" t="s">
+        <v>685</v>
+      </c>
+      <c r="B42" s="4" t="s">
         <v>686</v>
       </c>
-      <c r="B42" s="4" t="s">
+      <c r="C42" s="4" t="s">
         <v>687</v>
-      </c>
-      <c r="C42" s="4" t="s">
-        <v>688</v>
       </c>
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="4" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="D43" s="4"/>
       <c r="E43" s="4"/>
     </row>
     <row r="44" spans="1:5">
       <c r="A44" s="4" t="s">
+        <v>689</v>
+      </c>
+      <c r="B44" s="6" t="s">
         <v>690</v>
       </c>
-      <c r="B44" s="6" t="s">
+      <c r="C44" s="4" t="s">
         <v>691</v>
-      </c>
-      <c r="C44" s="4" t="s">
-        <v>692</v>
       </c>
     </row>
     <row r="45" spans="1:5">
       <c r="A45" s="4" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="D45" s="4"/>
       <c r="E45" s="4"/>
     </row>
     <row r="46" spans="1:5">
       <c r="A46" s="4" t="s">
+        <v>693</v>
+      </c>
+      <c r="B46" s="4" t="s">
         <v>694</v>
       </c>
-      <c r="B46" s="4" t="s">
+      <c r="C46" s="4" t="s">
         <v>695</v>
       </c>
-      <c r="C46" s="4" t="s">
-        <v>696</v>
-      </c>
       <c r="D46" s="4" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E46" s="4"/>
     </row>
     <row r="47" spans="1:5">
       <c r="A47" s="4" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="B47" s="22">
         <v>0</v>
@@ -15144,7 +15144,7 @@
     </row>
     <row r="48" spans="1:5">
       <c r="A48" s="4" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="B48" s="22">
         <v>1</v>
@@ -15156,7 +15156,7 @@
     </row>
     <row r="49" spans="1:5">
       <c r="A49" s="4" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="B49" s="22">
         <v>2</v>
@@ -15168,70 +15168,70 @@
     </row>
     <row r="50" spans="1:5">
       <c r="A50" s="4" t="s">
+        <v>699</v>
+      </c>
+      <c r="B50" s="22" t="s">
         <v>700</v>
       </c>
-      <c r="B50" s="22" t="s">
-        <v>701</v>
-      </c>
       <c r="C50" s="22" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="E50" s="4"/>
     </row>
     <row r="51" spans="1:5">
       <c r="A51" s="4" t="s">
+        <v>701</v>
+      </c>
+      <c r="B51" s="22" t="s">
         <v>702</v>
       </c>
-      <c r="B51" s="22" t="s">
-        <v>703</v>
-      </c>
       <c r="C51" s="22" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="E51" s="4"/>
     </row>
     <row r="52" spans="1:5">
       <c r="A52" s="4" t="s">
+        <v>703</v>
+      </c>
+      <c r="B52" s="22" t="s">
         <v>704</v>
       </c>
-      <c r="B52" s="22" t="s">
-        <v>705</v>
-      </c>
       <c r="C52" s="22" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="E52" s="4"/>
     </row>
     <row r="53" spans="1:5">
       <c r="A53" s="4" t="s">
+        <v>705</v>
+      </c>
+      <c r="B53" s="22" t="s">
         <v>706</v>
       </c>
-      <c r="B53" s="22" t="s">
+      <c r="C53" s="22" t="s">
         <v>707</v>
-      </c>
-      <c r="C53" s="22" t="s">
-        <v>708</v>
       </c>
       <c r="E53" s="4"/>
     </row>
     <row r="54" spans="1:5">
       <c r="A54" s="4" t="s">
+        <v>708</v>
+      </c>
+      <c r="B54" s="4" t="s">
         <v>709</v>
       </c>
-      <c r="B54" s="4" t="s">
+      <c r="C54" s="4" t="s">
         <v>710</v>
       </c>
-      <c r="C54" s="4" t="s">
-        <v>711</v>
-      </c>
       <c r="D54" s="4" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E54" s="4"/>
     </row>
     <row r="55" spans="1:5">
       <c r="A55" s="4" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="B55" s="22">
         <v>0</v>
@@ -15243,241 +15243,241 @@
     </row>
     <row r="56" spans="1:5">
       <c r="A56" s="4" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="B56" s="22">
         <v>0.5</v>
       </c>
       <c r="C56" s="22" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="E56" s="4"/>
     </row>
     <row r="57" spans="1:5">
       <c r="A57" s="4" t="s">
+        <v>713</v>
+      </c>
+      <c r="B57" s="22" t="s">
         <v>714</v>
       </c>
-      <c r="B57" s="22" t="s">
-        <v>715</v>
-      </c>
       <c r="C57" s="22" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="E57" s="4"/>
     </row>
     <row r="58" spans="1:5">
       <c r="A58" s="4" t="s">
+        <v>715</v>
+      </c>
+      <c r="B58" s="22" t="s">
         <v>716</v>
       </c>
-      <c r="B58" s="22" t="s">
-        <v>717</v>
-      </c>
       <c r="C58" s="22" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="E58" s="4"/>
     </row>
     <row r="59" spans="1:5">
       <c r="A59" s="4" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="B59" s="22" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="C59" s="22" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="E59" s="4"/>
     </row>
     <row r="60" spans="1:5">
       <c r="A60" s="4" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="B60" s="22" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="C60" s="22" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="E60" s="4"/>
     </row>
     <row r="61" spans="1:5">
       <c r="A61" s="4" t="s">
+        <v>719</v>
+      </c>
+      <c r="B61" s="22" t="s">
         <v>720</v>
       </c>
-      <c r="B61" s="22" t="s">
+      <c r="C61" s="22" t="s">
         <v>721</v>
-      </c>
-      <c r="C61" s="22" t="s">
-        <v>722</v>
       </c>
       <c r="E61" s="4"/>
     </row>
     <row r="62" spans="1:5">
       <c r="A62" s="4" t="s">
+        <v>722</v>
+      </c>
+      <c r="B62" s="6" t="s">
         <v>723</v>
       </c>
-      <c r="B62" s="6" t="s">
+      <c r="C62" s="4" t="s">
         <v>724</v>
-      </c>
-      <c r="C62" s="4" t="s">
-        <v>725</v>
       </c>
     </row>
     <row r="63" spans="1:5">
       <c r="A63" s="4" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="D63" s="4"/>
       <c r="E63" s="4"/>
     </row>
     <row r="64" spans="1:5">
       <c r="A64" s="4" t="s">
+        <v>726</v>
+      </c>
+      <c r="B64" s="6" t="s">
         <v>727</v>
       </c>
-      <c r="B64" s="6" t="s">
+      <c r="C64" s="4" t="s">
         <v>728</v>
-      </c>
-      <c r="C64" s="4" t="s">
-        <v>729</v>
       </c>
     </row>
     <row r="65" spans="1:5">
       <c r="A65" s="4" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="D65" s="4"/>
       <c r="E65" s="4"/>
     </row>
     <row r="66" spans="1:5">
       <c r="A66" s="4" t="s">
+        <v>730</v>
+      </c>
+      <c r="B66" s="4" t="s">
         <v>731</v>
       </c>
-      <c r="B66" s="4" t="s">
+      <c r="C66" s="4" t="s">
         <v>732</v>
       </c>
-      <c r="C66" s="4" t="s">
-        <v>733</v>
-      </c>
       <c r="D66" s="4" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E66" s="4"/>
     </row>
     <row r="67" spans="1:5">
       <c r="A67" s="4" t="s">
+        <v>733</v>
+      </c>
+      <c r="B67" s="22" t="s">
         <v>734</v>
       </c>
-      <c r="B67" s="22" t="s">
-        <v>735</v>
-      </c>
       <c r="C67" s="22" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="E67" s="4"/>
     </row>
     <row r="68" spans="1:5">
       <c r="A68" s="4" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="B68" s="22" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="C68" s="22" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="E68" s="4"/>
     </row>
     <row r="69" spans="1:5">
       <c r="A69" s="4" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="B69" s="22" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="C69" s="22" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="E69" s="4"/>
     </row>
     <row r="70" spans="1:5">
       <c r="A70" s="4" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="B70" s="22" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="C70" s="22" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="E70" s="4"/>
     </row>
     <row r="71" spans="1:5">
       <c r="A71" s="4" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="B71" s="22" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="C71" s="22" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="E71" s="4"/>
     </row>
     <row r="72" spans="1:5">
       <c r="A72" s="4" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="B72" s="22" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="C72" s="22" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="E72" s="4"/>
     </row>
     <row r="73" spans="1:5">
       <c r="A73" s="4" t="s">
+        <v>740</v>
+      </c>
+      <c r="B73" s="22" t="s">
         <v>741</v>
       </c>
-      <c r="B73" s="22" t="s">
-        <v>742</v>
-      </c>
       <c r="C73" s="22" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="E73" s="4"/>
     </row>
     <row r="74" spans="1:5">
       <c r="A74" s="4" t="s">
+        <v>742</v>
+      </c>
+      <c r="B74" s="4" t="s">
         <v>743</v>
       </c>
-      <c r="B74" s="4" t="s">
+      <c r="C74" s="4" t="s">
         <v>744</v>
       </c>
-      <c r="C74" s="4" t="s">
-        <v>745</v>
-      </c>
       <c r="D74" s="4" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E74" s="4"/>
     </row>
     <row r="75" spans="1:5">
       <c r="A75" s="4" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="B75" s="22">
         <v>0</v>
@@ -15489,820 +15489,820 @@
     </row>
     <row r="76" spans="1:5">
       <c r="A76" s="4" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="B76" s="22" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="C76" s="22" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="E76" s="4"/>
     </row>
     <row r="77" spans="1:5">
       <c r="A77" s="4" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="B77" s="22" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="C77" s="22" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="E77" s="4"/>
     </row>
     <row r="78" spans="1:5">
       <c r="A78" s="4" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="B78" s="22" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="C78" s="22" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="E78" s="4"/>
     </row>
     <row r="79" spans="1:5">
       <c r="A79" s="4" t="s">
+        <v>749</v>
+      </c>
+      <c r="B79" s="22" t="s">
         <v>750</v>
       </c>
-      <c r="B79" s="22" t="s">
-        <v>751</v>
-      </c>
       <c r="C79" s="22" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="E79" s="4"/>
     </row>
     <row r="80" spans="1:5">
       <c r="A80" s="4" t="s">
+        <v>751</v>
+      </c>
+      <c r="B80" s="22" t="s">
         <v>752</v>
       </c>
-      <c r="B80" s="22" t="s">
-        <v>753</v>
-      </c>
       <c r="C80" s="22" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="E80" s="4"/>
     </row>
     <row r="81" spans="1:5">
       <c r="A81" s="4" t="s">
+        <v>753</v>
+      </c>
+      <c r="B81" s="22" t="s">
         <v>754</v>
       </c>
-      <c r="B81" s="22" t="s">
+      <c r="C81" s="22" t="s">
         <v>755</v>
-      </c>
-      <c r="C81" s="22" t="s">
-        <v>756</v>
       </c>
       <c r="E81" s="4"/>
     </row>
     <row r="82" spans="1:5">
       <c r="A82" s="4" t="s">
+        <v>756</v>
+      </c>
+      <c r="B82" s="4" t="s">
         <v>757</v>
       </c>
-      <c r="B82" s="4" t="s">
+      <c r="C82" s="4" t="s">
         <v>758</v>
-      </c>
-      <c r="C82" s="4" t="s">
-        <v>759</v>
       </c>
     </row>
     <row r="83" spans="1:5">
       <c r="A83" s="4" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="D83" s="4"/>
       <c r="E83" s="4"/>
     </row>
     <row r="84" spans="1:5">
       <c r="A84" s="4" t="s">
+        <v>760</v>
+      </c>
+      <c r="B84" s="4" t="s">
         <v>761</v>
       </c>
-      <c r="B84" s="4" t="s">
+      <c r="C84" s="4" t="s">
         <v>762</v>
-      </c>
-      <c r="C84" s="4" t="s">
-        <v>763</v>
       </c>
     </row>
     <row r="85" spans="1:5">
       <c r="A85" s="4" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="D85" s="4"/>
       <c r="E85" s="4"/>
     </row>
     <row r="86" spans="1:5">
       <c r="A86" s="4" t="s">
+        <v>764</v>
+      </c>
+      <c r="B86" s="4" t="s">
         <v>765</v>
       </c>
-      <c r="B86" s="4" t="s">
+      <c r="C86" s="4" t="s">
         <v>766</v>
-      </c>
-      <c r="C86" s="4" t="s">
-        <v>767</v>
       </c>
     </row>
     <row r="87" spans="1:5">
       <c r="A87" s="4" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="D87" s="4"/>
       <c r="E87" s="4"/>
     </row>
     <row r="88" spans="1:5">
       <c r="A88" s="4" t="s">
+        <v>768</v>
+      </c>
+      <c r="B88" s="4" t="s">
         <v>769</v>
       </c>
-      <c r="B88" s="4" t="s">
+      <c r="C88" s="4" t="s">
         <v>770</v>
-      </c>
-      <c r="C88" s="4" t="s">
-        <v>771</v>
       </c>
     </row>
     <row r="89" spans="1:5">
       <c r="A89" s="4" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="D89" s="4"/>
       <c r="E89" s="4"/>
     </row>
     <row r="90" spans="1:5" ht="16.5" customHeight="1">
       <c r="A90" s="4" t="s">
+        <v>772</v>
+      </c>
+      <c r="B90" s="4" t="s">
         <v>773</v>
       </c>
-      <c r="B90" s="4" t="s">
+      <c r="C90" s="4" t="s">
         <v>774</v>
-      </c>
-      <c r="C90" s="4" t="s">
-        <v>775</v>
       </c>
     </row>
     <row r="91" spans="1:5" ht="16.5" customHeight="1">
       <c r="A91" s="4" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="D91" s="4"/>
       <c r="E91" s="4"/>
     </row>
     <row r="92" spans="1:5">
       <c r="A92" s="4" t="s">
+        <v>776</v>
+      </c>
+      <c r="B92" s="4" t="s">
         <v>777</v>
       </c>
-      <c r="B92" s="4" t="s">
+      <c r="C92" s="4" t="s">
         <v>778</v>
-      </c>
-      <c r="C92" s="4" t="s">
-        <v>779</v>
       </c>
     </row>
     <row r="93" spans="1:5">
       <c r="A93" s="4" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="D93" s="4"/>
       <c r="E93" s="4"/>
     </row>
     <row r="94" spans="1:5">
       <c r="A94" s="4" t="s">
+        <v>780</v>
+      </c>
+      <c r="B94" s="4" t="s">
         <v>781</v>
       </c>
-      <c r="B94" s="4" t="s">
+      <c r="C94" s="4" t="s">
         <v>782</v>
-      </c>
-      <c r="C94" s="4" t="s">
-        <v>783</v>
       </c>
     </row>
     <row r="95" spans="1:5">
       <c r="A95" s="4" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="D95" s="4"/>
       <c r="E95" s="4"/>
     </row>
     <row r="96" spans="1:5">
       <c r="A96" s="4" t="s">
+        <v>784</v>
+      </c>
+      <c r="B96" s="6" t="s">
         <v>785</v>
       </c>
-      <c r="B96" s="6" t="s">
+      <c r="C96" s="4" t="s">
         <v>786</v>
-      </c>
-      <c r="C96" s="4" t="s">
-        <v>787</v>
       </c>
     </row>
     <row r="97" spans="1:5">
       <c r="A97" s="4" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="D97" s="4"/>
       <c r="E97" s="4"/>
     </row>
     <row r="98" spans="1:5">
       <c r="A98" s="4" t="s">
+        <v>788</v>
+      </c>
+      <c r="B98" s="4" t="s">
         <v>789</v>
       </c>
-      <c r="B98" s="4" t="s">
+      <c r="C98" s="4" t="s">
         <v>790</v>
       </c>
-      <c r="C98" s="4" t="s">
-        <v>791</v>
-      </c>
       <c r="D98" s="4" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E98" s="4"/>
     </row>
     <row r="99" spans="1:5">
       <c r="A99" s="4" t="s">
+        <v>791</v>
+      </c>
+      <c r="B99" s="4" t="s">
         <v>792</v>
       </c>
-      <c r="B99" s="4" t="s">
-        <v>793</v>
-      </c>
       <c r="C99" s="4" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="E99" s="4"/>
     </row>
     <row r="100" spans="1:5">
       <c r="A100" s="4" t="s">
+        <v>793</v>
+      </c>
+      <c r="B100" s="4" t="s">
         <v>794</v>
       </c>
-      <c r="B100" s="4" t="s">
-        <v>795</v>
-      </c>
       <c r="C100" s="4" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="E100" s="4"/>
     </row>
     <row r="101" spans="1:5">
       <c r="A101" s="4" t="s">
+        <v>795</v>
+      </c>
+      <c r="B101" s="4" t="s">
         <v>796</v>
       </c>
-      <c r="B101" s="4" t="s">
-        <v>797</v>
-      </c>
       <c r="C101" s="4" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="E101" s="4"/>
     </row>
     <row r="102" spans="1:5">
       <c r="A102" s="4" t="s">
+        <v>797</v>
+      </c>
+      <c r="B102" s="4" t="s">
         <v>798</v>
       </c>
-      <c r="B102" s="4" t="s">
-        <v>799</v>
-      </c>
       <c r="C102" s="4" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="E102" s="4"/>
     </row>
     <row r="103" spans="1:5">
       <c r="A103" s="4" t="s">
+        <v>799</v>
+      </c>
+      <c r="B103" s="4" t="s">
         <v>800</v>
       </c>
-      <c r="B103" s="4" t="s">
+      <c r="C103" s="4" t="s">
         <v>801</v>
-      </c>
-      <c r="C103" s="4" t="s">
-        <v>802</v>
       </c>
       <c r="E103" s="4"/>
     </row>
     <row r="104" spans="1:5">
       <c r="A104" s="4" t="s">
+        <v>802</v>
+      </c>
+      <c r="B104" s="4" t="s">
         <v>803</v>
       </c>
-      <c r="B104" s="4" t="s">
+      <c r="C104" s="4" t="s">
         <v>804</v>
-      </c>
-      <c r="C104" s="4" t="s">
-        <v>805</v>
       </c>
       <c r="E104" s="4"/>
     </row>
     <row r="105" spans="1:5">
       <c r="A105" s="4" t="s">
+        <v>805</v>
+      </c>
+      <c r="B105" s="4" t="s">
         <v>806</v>
       </c>
-      <c r="B105" s="4" t="s">
+      <c r="C105" s="4" t="s">
         <v>807</v>
-      </c>
-      <c r="C105" s="4" t="s">
-        <v>808</v>
       </c>
       <c r="E105" s="4"/>
     </row>
     <row r="106" spans="1:5">
       <c r="A106" s="4" t="s">
+        <v>808</v>
+      </c>
+      <c r="B106" s="6" t="s">
         <v>809</v>
       </c>
-      <c r="B106" s="6" t="s">
+      <c r="C106" s="4" t="s">
         <v>810</v>
       </c>
-      <c r="C106" s="4" t="s">
-        <v>811</v>
-      </c>
       <c r="D106" s="4" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E106" s="4"/>
     </row>
     <row r="107" spans="1:5">
       <c r="A107" s="4" t="s">
+        <v>811</v>
+      </c>
+      <c r="B107" s="6" t="s">
         <v>812</v>
       </c>
-      <c r="B107" s="6" t="s">
+      <c r="C107" s="4" t="s">
         <v>813</v>
-      </c>
-      <c r="C107" s="4" t="s">
-        <v>814</v>
       </c>
       <c r="E107" s="4"/>
     </row>
     <row r="108" spans="1:5">
       <c r="A108" s="4" t="s">
+        <v>814</v>
+      </c>
+      <c r="B108" s="4" t="s">
         <v>815</v>
       </c>
-      <c r="B108" s="4" t="s">
+      <c r="C108" s="4" t="s">
         <v>816</v>
-      </c>
-      <c r="C108" s="4" t="s">
-        <v>817</v>
       </c>
       <c r="E108" s="4"/>
     </row>
     <row r="109" spans="1:5">
       <c r="A109" s="4" t="s">
+        <v>817</v>
+      </c>
+      <c r="B109" s="4" t="s">
         <v>818</v>
       </c>
-      <c r="B109" s="4" t="s">
+      <c r="C109" s="4" t="s">
         <v>819</v>
-      </c>
-      <c r="C109" s="4" t="s">
-        <v>820</v>
       </c>
       <c r="E109" s="4"/>
     </row>
     <row r="110" spans="1:5">
       <c r="A110" s="4" t="s">
+        <v>820</v>
+      </c>
+      <c r="B110" s="4" t="s">
         <v>821</v>
       </c>
-      <c r="B110" s="4" t="s">
+      <c r="C110" s="4" t="s">
         <v>822</v>
-      </c>
-      <c r="C110" s="4" t="s">
-        <v>823</v>
       </c>
       <c r="E110" s="4"/>
     </row>
     <row r="111" spans="1:5">
       <c r="A111" s="4" t="s">
+        <v>823</v>
+      </c>
+      <c r="B111" s="4" t="s">
         <v>824</v>
       </c>
-      <c r="B111" s="4" t="s">
+      <c r="C111" s="4" t="s">
         <v>825</v>
-      </c>
-      <c r="C111" s="4" t="s">
-        <v>826</v>
       </c>
       <c r="E111" s="4"/>
     </row>
     <row r="112" spans="1:5">
       <c r="A112" s="4" t="s">
+        <v>826</v>
+      </c>
+      <c r="B112" s="4" t="s">
         <v>827</v>
       </c>
-      <c r="B112" s="4" t="s">
+      <c r="C112" s="4" t="s">
         <v>828</v>
-      </c>
-      <c r="C112" s="4" t="s">
-        <v>829</v>
       </c>
       <c r="E112" s="4"/>
     </row>
     <row r="113" spans="1:5">
       <c r="A113" s="4" t="s">
+        <v>829</v>
+      </c>
+      <c r="B113" s="4" t="s">
         <v>830</v>
       </c>
-      <c r="B113" s="4" t="s">
+      <c r="C113" s="4" t="s">
         <v>831</v>
-      </c>
-      <c r="C113" s="4" t="s">
-        <v>832</v>
       </c>
       <c r="E113" s="4"/>
     </row>
     <row r="114" spans="1:5">
       <c r="A114" s="4" t="s">
+        <v>832</v>
+      </c>
+      <c r="B114" s="4" t="s">
         <v>833</v>
       </c>
-      <c r="B114" s="4" t="s">
+      <c r="C114" s="4" t="s">
         <v>834</v>
-      </c>
-      <c r="C114" s="4" t="s">
-        <v>835</v>
       </c>
       <c r="E114" s="4"/>
     </row>
     <row r="115" spans="1:5">
       <c r="A115" s="4" t="s">
+        <v>835</v>
+      </c>
+      <c r="B115" s="4" t="s">
         <v>836</v>
       </c>
-      <c r="B115" s="4" t="s">
+      <c r="C115" s="4" t="s">
         <v>837</v>
-      </c>
-      <c r="C115" s="4" t="s">
-        <v>838</v>
       </c>
       <c r="E115" s="4"/>
     </row>
     <row r="116" spans="1:5">
       <c r="A116" s="4" t="s">
+        <v>838</v>
+      </c>
+      <c r="B116" s="4" t="s">
         <v>839</v>
       </c>
-      <c r="B116" s="4" t="s">
+      <c r="C116" s="4" t="s">
         <v>840</v>
-      </c>
-      <c r="C116" s="4" t="s">
-        <v>841</v>
       </c>
       <c r="E116" s="4"/>
     </row>
     <row r="117" spans="1:5">
       <c r="A117" s="4" t="s">
+        <v>841</v>
+      </c>
+      <c r="B117" s="4" t="s">
         <v>842</v>
       </c>
-      <c r="B117" s="4" t="s">
+      <c r="C117" s="4" t="s">
         <v>843</v>
-      </c>
-      <c r="C117" s="4" t="s">
-        <v>844</v>
       </c>
       <c r="E117" s="4"/>
     </row>
     <row r="118" spans="1:5">
       <c r="A118" s="4" t="s">
+        <v>844</v>
+      </c>
+      <c r="B118" s="4" t="s">
         <v>845</v>
       </c>
-      <c r="B118" s="4" t="s">
+      <c r="C118" s="4" t="s">
         <v>846</v>
-      </c>
-      <c r="C118" s="4" t="s">
-        <v>847</v>
       </c>
       <c r="E118" s="4"/>
     </row>
     <row r="119" spans="1:5">
       <c r="A119" s="4" t="s">
+        <v>847</v>
+      </c>
+      <c r="B119" s="4" t="s">
         <v>848</v>
       </c>
-      <c r="B119" s="4" t="s">
+      <c r="C119" s="4" t="s">
         <v>849</v>
-      </c>
-      <c r="C119" s="4" t="s">
-        <v>850</v>
       </c>
       <c r="E119" s="4"/>
     </row>
     <row r="120" spans="1:5">
       <c r="A120" s="4" t="s">
+        <v>850</v>
+      </c>
+      <c r="B120" s="4" t="s">
         <v>851</v>
       </c>
-      <c r="B120" s="4" t="s">
+      <c r="C120" s="4" t="s">
         <v>852</v>
-      </c>
-      <c r="C120" s="4" t="s">
-        <v>853</v>
       </c>
       <c r="E120" s="4"/>
     </row>
     <row r="121" spans="1:5">
       <c r="A121" s="4" t="s">
+        <v>853</v>
+      </c>
+      <c r="B121" s="4" t="s">
         <v>854</v>
       </c>
-      <c r="B121" s="4" t="s">
+      <c r="C121" s="4" t="s">
         <v>855</v>
-      </c>
-      <c r="C121" s="4" t="s">
-        <v>856</v>
       </c>
       <c r="E121" s="4"/>
     </row>
     <row r="122" spans="1:5">
       <c r="A122" s="4" t="s">
+        <v>856</v>
+      </c>
+      <c r="B122" s="4" t="s">
         <v>857</v>
       </c>
-      <c r="B122" s="4" t="s">
+      <c r="C122" s="4" t="s">
         <v>858</v>
-      </c>
-      <c r="C122" s="4" t="s">
-        <v>859</v>
       </c>
       <c r="E122" s="4"/>
     </row>
     <row r="123" spans="1:5">
       <c r="A123" s="4" t="s">
+        <v>859</v>
+      </c>
+      <c r="B123" s="4" t="s">
         <v>860</v>
       </c>
-      <c r="B123" s="4" t="s">
+      <c r="C123" s="4" t="s">
         <v>861</v>
-      </c>
-      <c r="C123" s="4" t="s">
-        <v>862</v>
       </c>
       <c r="E123" s="4"/>
     </row>
     <row r="124" spans="1:5">
       <c r="A124" s="4" t="s">
+        <v>862</v>
+      </c>
+      <c r="B124" s="4" t="s">
         <v>863</v>
       </c>
-      <c r="B124" s="4" t="s">
+      <c r="C124" s="4" t="s">
         <v>864</v>
-      </c>
-      <c r="C124" s="4" t="s">
-        <v>865</v>
       </c>
       <c r="E124" s="4"/>
     </row>
     <row r="125" spans="1:5">
       <c r="A125" s="4" t="s">
+        <v>865</v>
+      </c>
+      <c r="B125" s="4" t="s">
         <v>866</v>
       </c>
-      <c r="B125" s="4" t="s">
+      <c r="C125" s="4" t="s">
         <v>867</v>
-      </c>
-      <c r="C125" s="4" t="s">
-        <v>868</v>
       </c>
       <c r="E125" s="4"/>
     </row>
     <row r="126" spans="1:5">
       <c r="A126" s="4" t="s">
+        <v>868</v>
+      </c>
+      <c r="B126" s="4" t="s">
         <v>869</v>
       </c>
-      <c r="B126" s="4" t="s">
+      <c r="C126" s="4" t="s">
         <v>870</v>
-      </c>
-      <c r="C126" s="4" t="s">
-        <v>871</v>
       </c>
       <c r="E126" s="4"/>
     </row>
     <row r="127" spans="1:5">
       <c r="A127" s="4" t="s">
+        <v>871</v>
+      </c>
+      <c r="B127" s="4" t="s">
         <v>872</v>
       </c>
-      <c r="B127" s="4" t="s">
-        <v>873</v>
-      </c>
       <c r="C127" s="4" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E127" s="4"/>
     </row>
     <row r="128" spans="1:5">
       <c r="A128" s="4" t="s">
+        <v>873</v>
+      </c>
+      <c r="B128" s="4" t="s">
         <v>874</v>
       </c>
-      <c r="B128" s="4" t="s">
+      <c r="C128" s="4" t="s">
         <v>875</v>
-      </c>
-      <c r="C128" s="4" t="s">
-        <v>876</v>
       </c>
     </row>
     <row r="129" spans="1:5">
       <c r="A129" s="4" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="B129" s="4" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="C129" s="4" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="D129" s="4"/>
       <c r="E129" s="4"/>
     </row>
     <row r="130" spans="1:5">
       <c r="A130" s="4" t="s">
+        <v>877</v>
+      </c>
+      <c r="B130" s="4" t="s">
         <v>878</v>
       </c>
-      <c r="B130" s="4" t="s">
+      <c r="C130" s="6" t="s">
         <v>879</v>
-      </c>
-      <c r="C130" s="6" t="s">
-        <v>880</v>
       </c>
     </row>
     <row r="131" spans="1:5">
       <c r="A131" s="4" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="B131" s="4" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="C131" s="4" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="D131" s="4"/>
       <c r="E131" s="4"/>
     </row>
     <row r="132" spans="1:5">
       <c r="A132" s="4" t="s">
+        <v>881</v>
+      </c>
+      <c r="B132" s="4" t="s">
+        <v>1653</v>
+      </c>
+      <c r="C132" s="4" t="s">
         <v>882</v>
-      </c>
-      <c r="B132" s="4" t="s">
-        <v>1654</v>
-      </c>
-      <c r="C132" s="4" t="s">
-        <v>883</v>
       </c>
     </row>
     <row r="133" spans="1:5">
       <c r="A133" s="4" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="B133" s="4" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="C133" s="4" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="D133" s="4"/>
       <c r="E133" s="4"/>
     </row>
     <row r="134" spans="1:5">
       <c r="A134" s="4" t="s">
+        <v>884</v>
+      </c>
+      <c r="B134" s="4" t="s">
         <v>885</v>
       </c>
-      <c r="B134" s="4" t="s">
+      <c r="C134" s="4" t="s">
         <v>886</v>
-      </c>
-      <c r="C134" s="4" t="s">
-        <v>887</v>
       </c>
     </row>
     <row r="135" spans="1:5">
       <c r="A135" s="4" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="B135" s="4" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="C135" s="4" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="D135" s="4"/>
       <c r="E135" s="4"/>
     </row>
     <row r="136" spans="1:5">
       <c r="A136" s="4" t="s">
+        <v>888</v>
+      </c>
+      <c r="B136" s="4" t="s">
         <v>889</v>
       </c>
-      <c r="B136" s="4" t="s">
+      <c r="C136" s="4" t="s">
         <v>890</v>
-      </c>
-      <c r="C136" s="4" t="s">
-        <v>891</v>
       </c>
     </row>
     <row r="137" spans="1:5">
       <c r="A137" s="4" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="B137" s="4" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="C137" s="4" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="D137" s="4"/>
       <c r="E137" s="4"/>
     </row>
     <row r="138" spans="1:5">
       <c r="A138" s="4" t="s">
+        <v>892</v>
+      </c>
+      <c r="B138" s="4" t="s">
         <v>893</v>
       </c>
-      <c r="B138" s="4" t="s">
+      <c r="C138" s="4" t="s">
         <v>894</v>
-      </c>
-      <c r="C138" s="4" t="s">
-        <v>895</v>
       </c>
     </row>
     <row r="139" spans="1:5">
       <c r="A139" s="4" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="B139" s="4" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="C139" s="4" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="D139" s="4"/>
       <c r="E139" s="4"/>
     </row>
     <row r="140" spans="1:5">
       <c r="A140" s="4" t="s">
+        <v>896</v>
+      </c>
+      <c r="B140" s="4" t="s">
         <v>897</v>
       </c>
-      <c r="B140" s="4" t="s">
+      <c r="C140" s="4" t="s">
         <v>898</v>
-      </c>
-      <c r="C140" s="4" t="s">
-        <v>899</v>
       </c>
     </row>
     <row r="141" spans="1:5">
       <c r="A141" s="4" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="B141" s="4" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="C141" s="4" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="D141" s="4"/>
       <c r="E141" s="4"/>
     </row>
     <row r="142" spans="1:5">
       <c r="A142" s="4" t="s">
+        <v>900</v>
+      </c>
+      <c r="B142" s="4" t="s">
         <v>901</v>
       </c>
-      <c r="B142" s="4" t="s">
+      <c r="C142" s="4" t="s">
         <v>902</v>
       </c>
-      <c r="C142" s="4" t="s">
-        <v>903</v>
-      </c>
       <c r="D142" s="4" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E142" s="4"/>
     </row>
     <row r="143" spans="1:5">
       <c r="A143" s="4" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="B143" s="4">
         <v>2</v>
@@ -16315,7 +16315,7 @@
     </row>
     <row r="144" spans="1:5">
       <c r="A144" s="4" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="B144" s="4">
         <v>3</v>
@@ -16328,7 +16328,7 @@
     </row>
     <row r="145" spans="1:5">
       <c r="A145" s="4" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="B145" s="4">
         <v>4</v>
@@ -16341,7 +16341,7 @@
     </row>
     <row r="146" spans="1:5">
       <c r="A146" s="4" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="B146" s="4">
         <v>5</v>
@@ -16354,7 +16354,7 @@
     </row>
     <row r="147" spans="1:5">
       <c r="A147" s="4" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="B147" s="4">
         <v>6</v>
@@ -16367,7 +16367,7 @@
     </row>
     <row r="148" spans="1:5">
       <c r="A148" s="4" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="B148" s="4">
         <v>7</v>
@@ -16380,7 +16380,7 @@
     </row>
     <row r="149" spans="1:5">
       <c r="A149" s="4" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="B149" s="4">
         <v>8</v>
@@ -16393,7 +16393,7 @@
     </row>
     <row r="150" spans="1:5">
       <c r="A150" s="4" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="B150" s="4">
         <v>9</v>
@@ -16406,7 +16406,7 @@
     </row>
     <row r="151" spans="1:5">
       <c r="A151" s="4" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="B151" s="4">
         <v>10</v>
@@ -16419,7 +16419,7 @@
     </row>
     <row r="152" spans="1:5">
       <c r="A152" s="4" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="B152" s="4">
         <v>11</v>
@@ -16432,7 +16432,7 @@
     </row>
     <row r="153" spans="1:5">
       <c r="A153" s="4" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="B153" s="4">
         <v>12</v>
@@ -16445,7 +16445,7 @@
     </row>
     <row r="154" spans="1:5">
       <c r="A154" s="4" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="B154" s="4">
         <v>13</v>
@@ -16458,7 +16458,7 @@
     </row>
     <row r="155" spans="1:5">
       <c r="A155" s="4" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="B155" s="4">
         <v>14</v>
@@ -16471,7 +16471,7 @@
     </row>
     <row r="156" spans="1:5">
       <c r="A156" s="4" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="B156" s="4">
         <v>15</v>
@@ -16484,7 +16484,7 @@
     </row>
     <row r="157" spans="1:5">
       <c r="A157" s="4" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="B157" s="4">
         <v>16</v>
@@ -16497,7 +16497,7 @@
     </row>
     <row r="158" spans="1:5">
       <c r="A158" s="4" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="B158" s="4">
         <v>17</v>
@@ -16510,7 +16510,7 @@
     </row>
     <row r="159" spans="1:5">
       <c r="A159" s="4" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="B159" s="4">
         <v>18</v>
@@ -16523,7 +16523,7 @@
     </row>
     <row r="160" spans="1:5">
       <c r="A160" s="4" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="B160" s="4">
         <v>19</v>
@@ -16536,70 +16536,70 @@
     </row>
     <row r="161" spans="1:5">
       <c r="A161" s="4" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="B161" s="6" t="s">
+        <v>812</v>
+      </c>
+      <c r="C161" s="4" t="s">
         <v>813</v>
       </c>
-      <c r="C161" s="4" t="s">
-        <v>814</v>
-      </c>
       <c r="D161" s="4" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E161" s="4"/>
     </row>
     <row r="162" spans="1:5">
       <c r="A162" s="4" t="s">
+        <v>922</v>
+      </c>
+      <c r="B162" s="6" t="s">
         <v>923</v>
       </c>
-      <c r="B162" s="6" t="s">
+      <c r="C162" s="4" t="s">
         <v>924</v>
       </c>
-      <c r="C162" s="4" t="s">
-        <v>925</v>
-      </c>
       <c r="D162" s="4" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E162" s="4"/>
     </row>
     <row r="163" spans="1:5">
       <c r="A163" s="4" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="B163" s="23" t="s">
         <v>129</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
     </row>
     <row r="164" spans="1:5">
       <c r="A164" s="4" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="B164" s="4" t="s">
         <v>131</v>
       </c>
       <c r="C164" s="4" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
     </row>
     <row r="165" spans="1:5">
       <c r="A165" s="4" t="s">
+        <v>929</v>
+      </c>
+      <c r="B165" s="4" t="s">
         <v>930</v>
       </c>
-      <c r="B165" s="4" t="s">
+      <c r="C165" s="4" t="s">
         <v>931</v>
-      </c>
-      <c r="C165" s="4" t="s">
-        <v>932</v>
       </c>
     </row>
     <row r="166" spans="1:5">
       <c r="A166" s="12" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
   </sheetData>
